--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97853741694855</v>
+        <v>20.9785374169485</v>
       </c>
       <c r="C2">
-        <v>16.73956143166432</v>
+        <v>16.73956143166437</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,19 +424,19 @@
         <v>23.61476381159885</v>
       </c>
       <c r="F2">
-        <v>35.27259863785088</v>
+        <v>35.27259863785084</v>
       </c>
       <c r="G2">
-        <v>17.75280845514221</v>
+        <v>17.75280845514223</v>
       </c>
       <c r="H2">
-        <v>13.84783876464262</v>
+        <v>13.84783876464267</v>
       </c>
       <c r="I2">
-        <v>8.065111187748123</v>
+        <v>8.065111187748146</v>
       </c>
       <c r="J2">
-        <v>19.23474823838426</v>
+        <v>19.23474823838425</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54932800841581</v>
+        <v>19.54932800841584</v>
       </c>
       <c r="C3">
-        <v>15.57989804040388</v>
+        <v>15.57989804040384</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.98228144433499</v>
+        <v>21.98228144433496</v>
       </c>
       <c r="F3">
-        <v>32.70868070566485</v>
+        <v>32.70868070566483</v>
       </c>
       <c r="G3">
-        <v>17.2108715920329</v>
+        <v>17.21087159203287</v>
       </c>
       <c r="H3">
-        <v>13.8459845849125</v>
+        <v>13.84598458491244</v>
       </c>
       <c r="I3">
-        <v>7.960495786180902</v>
+        <v>7.96049578618086</v>
       </c>
       <c r="J3">
-        <v>17.95765340108131</v>
+        <v>17.95765340108132</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>18.62486188197171</v>
       </c>
       <c r="C4">
-        <v>14.83193052299073</v>
+        <v>14.83193052299086</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.93046189006937</v>
+        <v>20.93046189006936</v>
       </c>
       <c r="F4">
         <v>31.06890995721565</v>
       </c>
       <c r="G4">
-        <v>16.90728964634012</v>
+        <v>16.90728964634021</v>
       </c>
       <c r="H4">
-        <v>13.87522680993126</v>
+        <v>13.87522680993135</v>
       </c>
       <c r="I4">
-        <v>7.912175132788551</v>
+        <v>7.912175132788598</v>
       </c>
       <c r="J4">
-        <v>17.13321081408667</v>
+        <v>17.13321081408669</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23619149642507</v>
+        <v>18.23619149642501</v>
       </c>
       <c r="C5">
-        <v>14.51794902750819</v>
+        <v>14.51794902750812</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.48919315563604</v>
+        <v>20.48919315563606</v>
       </c>
       <c r="F5">
         <v>30.43211895893313</v>
       </c>
       <c r="G5">
-        <v>16.79073881770943</v>
+        <v>16.79073881770966</v>
       </c>
       <c r="H5">
-        <v>13.89419596883338</v>
+        <v>13.89419596883362</v>
       </c>
       <c r="I5">
-        <v>7.896224210125746</v>
+        <v>7.896224210125877</v>
       </c>
       <c r="J5">
-        <v>16.78700251764243</v>
+        <v>16.7870025176423</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17092779444443</v>
+        <v>18.17092779444445</v>
       </c>
       <c r="C6">
-        <v>14.46525430102645</v>
+        <v>14.46525430102633</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.41515160438705</v>
+        <v>20.41515160438712</v>
       </c>
       <c r="F6">
-        <v>30.32578854259029</v>
+        <v>30.32578854259033</v>
       </c>
       <c r="G6">
-        <v>16.77181249374027</v>
+        <v>16.77181249374025</v>
       </c>
       <c r="H6">
-        <v>13.89775481888403</v>
+        <v>13.89775481888397</v>
       </c>
       <c r="I6">
-        <v>7.89379376273195</v>
+        <v>7.893793762731925</v>
       </c>
       <c r="J6">
-        <v>16.72889356177389</v>
+        <v>16.72889356177388</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61966867466086</v>
+        <v>18.61966867466089</v>
       </c>
       <c r="C7">
-        <v>14.8277334042819</v>
+        <v>14.82773340428195</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.92456223454196</v>
+        <v>20.92456223454193</v>
       </c>
       <c r="F7">
-        <v>31.05974129038752</v>
+        <v>31.05974129038756</v>
       </c>
       <c r="G7">
-        <v>16.90568905670465</v>
+        <v>16.90568905670462</v>
       </c>
       <c r="H7">
-        <v>13.8754548456051</v>
+        <v>13.87545484560508</v>
       </c>
       <c r="I7">
-        <v>7.911945217190332</v>
+        <v>7.911945217190319</v>
       </c>
       <c r="J7">
-        <v>17.12858332329322</v>
+        <v>17.12858332329327</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49539549703976</v>
+        <v>20.4953954970398</v>
       </c>
       <c r="C8">
         <v>16.34707600115792</v>
@@ -649,22 +649,22 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.06202114326889</v>
+        <v>23.06202114326885</v>
       </c>
       <c r="F8">
-        <v>34.40203639705995</v>
+        <v>34.40203639706002</v>
       </c>
       <c r="G8">
-        <v>17.55979841224039</v>
+        <v>17.55979841224036</v>
       </c>
       <c r="H8">
-        <v>13.84053818745181</v>
+        <v>13.84053818745174</v>
       </c>
       <c r="I8">
-        <v>8.025580750692184</v>
+        <v>8.025580750692104</v>
       </c>
       <c r="J8">
-        <v>18.80270027018032</v>
+        <v>18.80270027018034</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80847703988686</v>
+        <v>23.80847703988698</v>
       </c>
       <c r="C9">
-        <v>19.04862229320278</v>
+        <v>19.04862229320296</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.87150604611535</v>
+        <v>26.87150604611522</v>
       </c>
       <c r="F9">
-        <v>40.4478840152707</v>
+        <v>40.44788401527079</v>
       </c>
       <c r="G9">
-        <v>19.080643228432</v>
+        <v>19.08064322843193</v>
       </c>
       <c r="H9">
-        <v>14.0396120497055</v>
+        <v>14.03961204970532</v>
       </c>
       <c r="I9">
-        <v>8.386168236541556</v>
+        <v>8.386168236541497</v>
       </c>
       <c r="J9">
-        <v>21.77166801835804</v>
+        <v>21.77166801835819</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0309397093992</v>
+        <v>26.03093970939913</v>
       </c>
       <c r="C10">
-        <v>20.87525670229886</v>
+        <v>20.87525670229891</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.45396695357272</v>
+        <v>29.45396695357276</v>
       </c>
       <c r="F10">
-        <v>44.60163313777613</v>
+        <v>44.60163313777606</v>
       </c>
       <c r="G10">
         <v>20.35206462796074</v>
       </c>
       <c r="H10">
-        <v>14.38496768814903</v>
+        <v>14.38496768814908</v>
       </c>
       <c r="I10">
         <v>8.750555438748316</v>
       </c>
       <c r="J10">
-        <v>23.77105206690311</v>
+        <v>23.77105206690306</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99880124455967</v>
+        <v>26.99880124455969</v>
       </c>
       <c r="C11">
-        <v>21.67475300925553</v>
+        <v>21.6747530092556</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.58612208576231</v>
+        <v>30.58612208576238</v>
       </c>
       <c r="F11">
-        <v>46.43515456830788</v>
+        <v>46.43515456830795</v>
       </c>
       <c r="G11">
-        <v>20.96609931317053</v>
+        <v>20.96609931317048</v>
       </c>
       <c r="H11">
-        <v>14.59283321346863</v>
+        <v>14.59283321346856</v>
       </c>
       <c r="I11">
-        <v>8.941250839690273</v>
+        <v>8.941250839690271</v>
       </c>
       <c r="J11">
-        <v>24.64363422001344</v>
+        <v>24.64363422001349</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35936023411859</v>
+        <v>27.3593602341185</v>
       </c>
       <c r="C12">
-        <v>21.9732518790299</v>
+        <v>21.97325187902995</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.00912752949437</v>
+        <v>31.00912752949439</v>
       </c>
       <c r="F12">
-        <v>47.1220576890127</v>
+        <v>47.12205768901259</v>
       </c>
       <c r="G12">
-        <v>21.25426500682439</v>
+        <v>21.25426500682422</v>
       </c>
       <c r="H12">
-        <v>14.67944608492467</v>
+        <v>14.67944608492468</v>
       </c>
       <c r="I12">
-        <v>9.017331505914825</v>
+        <v>9.017331505914814</v>
       </c>
       <c r="J12">
-        <v>24.96898751171218</v>
+        <v>24.96898751171215</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28196759561334</v>
+        <v>27.28196759561335</v>
       </c>
       <c r="C13">
-        <v>21.90914929390588</v>
+        <v>21.90914929390581</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.91827283056784</v>
+        <v>30.91827283056786</v>
       </c>
       <c r="F13">
-        <v>46.97443897328188</v>
+        <v>46.97443897328189</v>
       </c>
       <c r="G13">
-        <v>21.18451817007983</v>
+        <v>21.18451817007986</v>
       </c>
       <c r="H13">
-        <v>14.66043174043079</v>
+        <v>14.66043174043086</v>
       </c>
       <c r="I13">
-        <v>9.000769434330326</v>
+        <v>9.000769434330365</v>
       </c>
       <c r="J13">
-        <v>24.89913840586083</v>
+        <v>24.89913840586081</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>27.02858230673244</v>
       </c>
       <c r="C14">
-        <v>21.69939425999534</v>
+        <v>21.69939425999527</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.6210350137154</v>
+        <v>30.62103501371541</v>
       </c>
       <c r="F14">
-        <v>46.49181094766409</v>
+        <v>46.49181094766405</v>
       </c>
       <c r="G14">
-        <v>20.98556059851101</v>
+        <v>20.98556059851106</v>
       </c>
       <c r="H14">
-        <v>14.59979721521022</v>
+        <v>14.59979721521026</v>
       </c>
       <c r="I14">
-        <v>8.947430832051531</v>
+        <v>8.947430832051527</v>
       </c>
       <c r="J14">
-        <v>24.67050145197277</v>
+        <v>24.67050145197272</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87260984794854</v>
+        <v>26.87260984794852</v>
       </c>
       <c r="C15">
-        <v>21.57036796430483</v>
+        <v>21.57036796430487</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.43823692752046</v>
+        <v>30.43823692752049</v>
       </c>
       <c r="F15">
-        <v>46.1952431837509</v>
+        <v>46.19524318375093</v>
       </c>
       <c r="G15">
-        <v>20.88400963790011</v>
+        <v>20.88400963790008</v>
       </c>
       <c r="H15">
-        <v>14.56370303703275</v>
+        <v>14.56370303703272</v>
       </c>
       <c r="I15">
-        <v>8.915271860872554</v>
+        <v>8.915271860872574</v>
       </c>
       <c r="J15">
         <v>24.52980148077002</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96684059117839</v>
+        <v>25.96684059117838</v>
       </c>
       <c r="C16">
-        <v>20.82239714832813</v>
+        <v>20.82239714832803</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.37915423400182</v>
+        <v>29.37915423400184</v>
       </c>
       <c r="F16">
         <v>44.48073339359793</v>
       </c>
       <c r="G16">
-        <v>20.31267152315646</v>
+        <v>20.3126715231564</v>
       </c>
       <c r="H16">
-        <v>14.37245616133986</v>
+        <v>14.37245616133978</v>
       </c>
       <c r="I16">
-        <v>8.738618630348514</v>
+        <v>8.738618630348503</v>
       </c>
       <c r="J16">
-        <v>23.7133029419115</v>
+        <v>23.71330294191146</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40030178056233</v>
+        <v>25.40030178056222</v>
       </c>
       <c r="C17">
-        <v>20.35566751453102</v>
+        <v>20.35566751453109</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.7188008252165</v>
+        <v>28.71880082521653</v>
       </c>
       <c r="F17">
-        <v>43.41501099310535</v>
+        <v>43.41501099310538</v>
       </c>
       <c r="G17">
-        <v>19.97145028603919</v>
+        <v>19.97145028603923</v>
       </c>
       <c r="H17">
-        <v>14.26856426256767</v>
+        <v>14.26856426256773</v>
       </c>
       <c r="I17">
-        <v>8.636830724287059</v>
+        <v>8.636830724287094</v>
       </c>
       <c r="J17">
-        <v>23.20310407701359</v>
+        <v>23.20310407701355</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07036541445509</v>
+        <v>25.070365414455</v>
       </c>
       <c r="C18">
-        <v>20.08423886074069</v>
+        <v>20.08423886074064</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.33494374890255</v>
+        <v>28.33494374890258</v>
       </c>
       <c r="F18">
-        <v>42.79671607620292</v>
+        <v>42.79671607620289</v>
       </c>
       <c r="G18">
-        <v>19.77852901788832</v>
+        <v>19.77852901788835</v>
       </c>
       <c r="H18">
-        <v>14.21355141271305</v>
+        <v>14.21355141271312</v>
       </c>
       <c r="I18">
-        <v>8.580614394264849</v>
+        <v>8.580614394264865</v>
       </c>
       <c r="J18">
-        <v>22.90615743074414</v>
+        <v>22.90615743074406</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95794688844464</v>
+        <v>24.95794688844461</v>
       </c>
       <c r="C19">
-        <v>19.99181863252879</v>
+        <v>19.99181863252872</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.20427095975605</v>
+        <v>28.20427095975613</v>
       </c>
       <c r="F19">
-        <v>42.58644041315593</v>
+        <v>42.58644041315591</v>
       </c>
       <c r="G19">
-        <v>19.71377690102905</v>
+        <v>19.713776901029</v>
       </c>
       <c r="H19">
-        <v>14.19572114582279</v>
+        <v>14.19572114582278</v>
       </c>
       <c r="I19">
-        <v>8.561972192508776</v>
+        <v>8.561972192508751</v>
       </c>
       <c r="J19">
-        <v>22.80500959287975</v>
+        <v>22.80500959287971</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46103112988494</v>
+        <v>25.46103112988493</v>
       </c>
       <c r="C20">
-        <v>20.40565806232146</v>
+        <v>20.40565806232128</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.78951182000317</v>
+        <v>28.78951182000316</v>
       </c>
       <c r="F20">
-        <v>43.52900517227901</v>
+        <v>43.52900517227892</v>
       </c>
       <c r="G20">
-        <v>20.00742672474851</v>
+        <v>20.00742672474853</v>
       </c>
       <c r="H20">
-        <v>14.27912846514729</v>
+        <v>14.27912846514733</v>
       </c>
       <c r="I20">
-        <v>8.647423136563157</v>
+        <v>8.647423136563164</v>
       </c>
       <c r="J20">
-        <v>23.25777558190126</v>
+        <v>23.25777558190119</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1031669778159</v>
+        <v>27.10316697781597</v>
       </c>
       <c r="C21">
-        <v>21.76111750281702</v>
+        <v>21.76111750281703</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.70849255841139</v>
+        <v>30.70849255841135</v>
       </c>
       <c r="F21">
-        <v>46.63376594998627</v>
+        <v>46.63376594998635</v>
       </c>
       <c r="G21">
-        <v>21.03444763401378</v>
+        <v>21.03444763401382</v>
       </c>
       <c r="H21">
-        <v>14.61738796068318</v>
+        <v>14.61738796068313</v>
       </c>
       <c r="I21">
-        <v>8.962990345774584</v>
+        <v>8.962990345774552</v>
       </c>
       <c r="J21">
-        <v>24.73779332874578</v>
+        <v>24.73779332874582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14186319030295</v>
+        <v>28.14186319030301</v>
       </c>
       <c r="C22">
-        <v>22.6223502842007</v>
+        <v>22.62235028420079</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.92956856888697</v>
+        <v>31.92956856888692</v>
       </c>
       <c r="F22">
-        <v>48.62008734491835</v>
+        <v>48.62008734491845</v>
       </c>
       <c r="G22">
-        <v>21.9682979661547</v>
+        <v>21.96829796615481</v>
       </c>
       <c r="H22">
-        <v>14.88477061321108</v>
+        <v>14.88477061321104</v>
       </c>
       <c r="I22">
-        <v>9.191925498959144</v>
+        <v>9.191925498959149</v>
       </c>
       <c r="J22">
-        <v>25.67562685984641</v>
+        <v>25.67562685984646</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59055866043817</v>
+        <v>27.59055866043813</v>
       </c>
       <c r="C23">
-        <v>22.16485006027784</v>
+        <v>22.1648500602779</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.28073326497388</v>
+        <v>31.28073326497382</v>
       </c>
       <c r="F23">
-        <v>47.56362524593252</v>
+        <v>47.56362524593251</v>
       </c>
       <c r="G23">
-        <v>21.46356275547921</v>
+        <v>21.46356275547922</v>
       </c>
       <c r="H23">
-        <v>14.73763085694686</v>
+        <v>14.73763085694692</v>
       </c>
       <c r="I23">
-        <v>9.067563676712425</v>
+        <v>9.067563676712449</v>
       </c>
       <c r="J23">
         <v>25.17769396898424</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43358857192325</v>
+        <v>25.4335885719232</v>
       </c>
       <c r="C24">
-        <v>20.38306700999549</v>
+        <v>20.38306700999554</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.75755652615737</v>
+        <v>28.75755652615744</v>
       </c>
       <c r="F24">
-        <v>43.47748588444854</v>
+        <v>43.47748588444853</v>
       </c>
       <c r="G24">
-        <v>19.99115166565771</v>
+        <v>19.99115166565767</v>
       </c>
       <c r="H24">
-        <v>14.27433774545145</v>
+        <v>14.27433774545139</v>
       </c>
       <c r="I24">
-        <v>8.642627155111972</v>
+        <v>8.642627155111951</v>
       </c>
       <c r="J24">
-        <v>23.23306990792192</v>
+        <v>23.23306990792191</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95023082209087</v>
+        <v>22.95023082209092</v>
       </c>
       <c r="C25">
-        <v>18.3464469062138</v>
+        <v>18.34644690621392</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.88025491112696</v>
+        <v>25.88025491112694</v>
       </c>
       <c r="F25">
-        <v>38.86480314873523</v>
+        <v>38.86480314873524</v>
       </c>
       <c r="G25">
-        <v>18.64281028547163</v>
+        <v>18.64281028547171</v>
       </c>
       <c r="H25">
-        <v>13.95337708922994</v>
+        <v>13.95337708923005</v>
       </c>
       <c r="I25">
-        <v>8.272266272317294</v>
+        <v>8.272266272317308</v>
       </c>
       <c r="J25">
-        <v>21.00119608761727</v>
+        <v>21.00119608761731</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -412,10 +412,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.9785374169485</v>
+        <v>20.97853741694855</v>
       </c>
       <c r="C2">
-        <v>16.73956143166437</v>
+        <v>16.73956143166432</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -424,19 +424,19 @@
         <v>23.61476381159885</v>
       </c>
       <c r="F2">
-        <v>35.27259863785084</v>
+        <v>35.27259863785088</v>
       </c>
       <c r="G2">
-        <v>17.75280845514223</v>
+        <v>17.75280845514221</v>
       </c>
       <c r="H2">
-        <v>13.84783876464267</v>
+        <v>13.84783876464262</v>
       </c>
       <c r="I2">
-        <v>8.065111187748146</v>
+        <v>8.065111187748123</v>
       </c>
       <c r="J2">
-        <v>19.23474823838425</v>
+        <v>19.23474823838426</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54932800841584</v>
+        <v>19.54932800841581</v>
       </c>
       <c r="C3">
-        <v>15.57989804040384</v>
+        <v>15.57989804040388</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.98228144433496</v>
+        <v>21.98228144433499</v>
       </c>
       <c r="F3">
-        <v>32.70868070566483</v>
+        <v>32.70868070566485</v>
       </c>
       <c r="G3">
-        <v>17.21087159203287</v>
+        <v>17.2108715920329</v>
       </c>
       <c r="H3">
-        <v>13.84598458491244</v>
+        <v>13.8459845849125</v>
       </c>
       <c r="I3">
-        <v>7.96049578618086</v>
+        <v>7.960495786180902</v>
       </c>
       <c r="J3">
-        <v>17.95765340108132</v>
+        <v>17.95765340108131</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,28 +491,28 @@
         <v>18.62486188197171</v>
       </c>
       <c r="C4">
-        <v>14.83193052299086</v>
+        <v>14.83193052299073</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.93046189006936</v>
+        <v>20.93046189006937</v>
       </c>
       <c r="F4">
         <v>31.06890995721565</v>
       </c>
       <c r="G4">
-        <v>16.90728964634021</v>
+        <v>16.90728964634012</v>
       </c>
       <c r="H4">
-        <v>13.87522680993135</v>
+        <v>13.87522680993126</v>
       </c>
       <c r="I4">
-        <v>7.912175132788598</v>
+        <v>7.912175132788551</v>
       </c>
       <c r="J4">
-        <v>17.13321081408669</v>
+        <v>17.13321081408667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23619149642501</v>
+        <v>18.23619149642507</v>
       </c>
       <c r="C5">
-        <v>14.51794902750812</v>
+        <v>14.51794902750819</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.48919315563606</v>
+        <v>20.48919315563604</v>
       </c>
       <c r="F5">
         <v>30.43211895893313</v>
       </c>
       <c r="G5">
-        <v>16.79073881770966</v>
+        <v>16.79073881770943</v>
       </c>
       <c r="H5">
-        <v>13.89419596883362</v>
+        <v>13.89419596883338</v>
       </c>
       <c r="I5">
-        <v>7.896224210125877</v>
+        <v>7.896224210125746</v>
       </c>
       <c r="J5">
-        <v>16.7870025176423</v>
+        <v>16.78700251764243</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17092779444445</v>
+        <v>18.17092779444443</v>
       </c>
       <c r="C6">
-        <v>14.46525430102633</v>
+        <v>14.46525430102645</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.41515160438712</v>
+        <v>20.41515160438705</v>
       </c>
       <c r="F6">
-        <v>30.32578854259033</v>
+        <v>30.32578854259029</v>
       </c>
       <c r="G6">
-        <v>16.77181249374025</v>
+        <v>16.77181249374027</v>
       </c>
       <c r="H6">
-        <v>13.89775481888397</v>
+        <v>13.89775481888403</v>
       </c>
       <c r="I6">
-        <v>7.893793762731925</v>
+        <v>7.89379376273195</v>
       </c>
       <c r="J6">
-        <v>16.72889356177388</v>
+        <v>16.72889356177389</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61966867466089</v>
+        <v>18.61966867466086</v>
       </c>
       <c r="C7">
-        <v>14.82773340428195</v>
+        <v>14.8277334042819</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.92456223454193</v>
+        <v>20.92456223454196</v>
       </c>
       <c r="F7">
-        <v>31.05974129038756</v>
+        <v>31.05974129038752</v>
       </c>
       <c r="G7">
-        <v>16.90568905670462</v>
+        <v>16.90568905670465</v>
       </c>
       <c r="H7">
-        <v>13.87545484560508</v>
+        <v>13.8754548456051</v>
       </c>
       <c r="I7">
-        <v>7.911945217190319</v>
+        <v>7.911945217190332</v>
       </c>
       <c r="J7">
-        <v>17.12858332329327</v>
+        <v>17.12858332329322</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.4953954970398</v>
+        <v>20.49539549703976</v>
       </c>
       <c r="C8">
         <v>16.34707600115792</v>
@@ -649,22 +649,22 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.06202114326885</v>
+        <v>23.06202114326889</v>
       </c>
       <c r="F8">
-        <v>34.40203639706002</v>
+        <v>34.40203639705995</v>
       </c>
       <c r="G8">
-        <v>17.55979841224036</v>
+        <v>17.55979841224039</v>
       </c>
       <c r="H8">
-        <v>13.84053818745174</v>
+        <v>13.84053818745181</v>
       </c>
       <c r="I8">
-        <v>8.025580750692104</v>
+        <v>8.025580750692184</v>
       </c>
       <c r="J8">
-        <v>18.80270027018034</v>
+        <v>18.80270027018032</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80847703988698</v>
+        <v>23.80847703988686</v>
       </c>
       <c r="C9">
-        <v>19.04862229320296</v>
+        <v>19.04862229320278</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.87150604611522</v>
+        <v>26.87150604611535</v>
       </c>
       <c r="F9">
-        <v>40.44788401527079</v>
+        <v>40.4478840152707</v>
       </c>
       <c r="G9">
-        <v>19.08064322843193</v>
+        <v>19.080643228432</v>
       </c>
       <c r="H9">
-        <v>14.03961204970532</v>
+        <v>14.0396120497055</v>
       </c>
       <c r="I9">
-        <v>8.386168236541497</v>
+        <v>8.386168236541556</v>
       </c>
       <c r="J9">
-        <v>21.77166801835819</v>
+        <v>21.77166801835804</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03093970939913</v>
+        <v>26.0309397093992</v>
       </c>
       <c r="C10">
-        <v>20.87525670229891</v>
+        <v>20.87525670229886</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.45396695357276</v>
+        <v>29.45396695357272</v>
       </c>
       <c r="F10">
-        <v>44.60163313777606</v>
+        <v>44.60163313777613</v>
       </c>
       <c r="G10">
         <v>20.35206462796074</v>
       </c>
       <c r="H10">
-        <v>14.38496768814908</v>
+        <v>14.38496768814903</v>
       </c>
       <c r="I10">
         <v>8.750555438748316</v>
       </c>
       <c r="J10">
-        <v>23.77105206690306</v>
+        <v>23.77105206690311</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99880124455969</v>
+        <v>26.99880124455967</v>
       </c>
       <c r="C11">
-        <v>21.6747530092556</v>
+        <v>21.67475300925553</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.58612208576238</v>
+        <v>30.58612208576231</v>
       </c>
       <c r="F11">
-        <v>46.43515456830795</v>
+        <v>46.43515456830788</v>
       </c>
       <c r="G11">
-        <v>20.96609931317048</v>
+        <v>20.96609931317053</v>
       </c>
       <c r="H11">
-        <v>14.59283321346856</v>
+        <v>14.59283321346863</v>
       </c>
       <c r="I11">
-        <v>8.941250839690271</v>
+        <v>8.941250839690273</v>
       </c>
       <c r="J11">
-        <v>24.64363422001349</v>
+        <v>24.64363422001344</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.3593602341185</v>
+        <v>27.35936023411859</v>
       </c>
       <c r="C12">
-        <v>21.97325187902995</v>
+        <v>21.9732518790299</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.00912752949439</v>
+        <v>31.00912752949437</v>
       </c>
       <c r="F12">
-        <v>47.12205768901259</v>
+        <v>47.1220576890127</v>
       </c>
       <c r="G12">
-        <v>21.25426500682422</v>
+        <v>21.25426500682439</v>
       </c>
       <c r="H12">
-        <v>14.67944608492468</v>
+        <v>14.67944608492467</v>
       </c>
       <c r="I12">
-        <v>9.017331505914814</v>
+        <v>9.017331505914825</v>
       </c>
       <c r="J12">
-        <v>24.96898751171215</v>
+        <v>24.96898751171218</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28196759561335</v>
+        <v>27.28196759561334</v>
       </c>
       <c r="C13">
-        <v>21.90914929390581</v>
+        <v>21.90914929390588</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.91827283056786</v>
+        <v>30.91827283056784</v>
       </c>
       <c r="F13">
-        <v>46.97443897328189</v>
+        <v>46.97443897328188</v>
       </c>
       <c r="G13">
-        <v>21.18451817007986</v>
+        <v>21.18451817007983</v>
       </c>
       <c r="H13">
-        <v>14.66043174043086</v>
+        <v>14.66043174043079</v>
       </c>
       <c r="I13">
-        <v>9.000769434330365</v>
+        <v>9.000769434330326</v>
       </c>
       <c r="J13">
-        <v>24.89913840586081</v>
+        <v>24.89913840586083</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -871,28 +871,28 @@
         <v>27.02858230673244</v>
       </c>
       <c r="C14">
-        <v>21.69939425999527</v>
+        <v>21.69939425999534</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.62103501371541</v>
+        <v>30.6210350137154</v>
       </c>
       <c r="F14">
-        <v>46.49181094766405</v>
+        <v>46.49181094766409</v>
       </c>
       <c r="G14">
-        <v>20.98556059851106</v>
+        <v>20.98556059851101</v>
       </c>
       <c r="H14">
-        <v>14.59979721521026</v>
+        <v>14.59979721521022</v>
       </c>
       <c r="I14">
-        <v>8.947430832051527</v>
+        <v>8.947430832051531</v>
       </c>
       <c r="J14">
-        <v>24.67050145197272</v>
+        <v>24.67050145197277</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87260984794852</v>
+        <v>26.87260984794854</v>
       </c>
       <c r="C15">
-        <v>21.57036796430487</v>
+        <v>21.57036796430483</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.43823692752049</v>
+        <v>30.43823692752046</v>
       </c>
       <c r="F15">
-        <v>46.19524318375093</v>
+        <v>46.1952431837509</v>
       </c>
       <c r="G15">
-        <v>20.88400963790008</v>
+        <v>20.88400963790011</v>
       </c>
       <c r="H15">
-        <v>14.56370303703272</v>
+        <v>14.56370303703275</v>
       </c>
       <c r="I15">
-        <v>8.915271860872574</v>
+        <v>8.915271860872554</v>
       </c>
       <c r="J15">
         <v>24.52980148077002</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96684059117838</v>
+        <v>25.96684059117839</v>
       </c>
       <c r="C16">
-        <v>20.82239714832803</v>
+        <v>20.82239714832813</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.37915423400184</v>
+        <v>29.37915423400182</v>
       </c>
       <c r="F16">
         <v>44.48073339359793</v>
       </c>
       <c r="G16">
-        <v>20.3126715231564</v>
+        <v>20.31267152315646</v>
       </c>
       <c r="H16">
-        <v>14.37245616133978</v>
+        <v>14.37245616133986</v>
       </c>
       <c r="I16">
-        <v>8.738618630348503</v>
+        <v>8.738618630348514</v>
       </c>
       <c r="J16">
-        <v>23.71330294191146</v>
+        <v>23.7133029419115</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40030178056222</v>
+        <v>25.40030178056233</v>
       </c>
       <c r="C17">
-        <v>20.35566751453109</v>
+        <v>20.35566751453102</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.71880082521653</v>
+        <v>28.7188008252165</v>
       </c>
       <c r="F17">
-        <v>43.41501099310538</v>
+        <v>43.41501099310535</v>
       </c>
       <c r="G17">
-        <v>19.97145028603923</v>
+        <v>19.97145028603919</v>
       </c>
       <c r="H17">
-        <v>14.26856426256773</v>
+        <v>14.26856426256767</v>
       </c>
       <c r="I17">
-        <v>8.636830724287094</v>
+        <v>8.636830724287059</v>
       </c>
       <c r="J17">
-        <v>23.20310407701355</v>
+        <v>23.20310407701359</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.070365414455</v>
+        <v>25.07036541445509</v>
       </c>
       <c r="C18">
-        <v>20.08423886074064</v>
+        <v>20.08423886074069</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.33494374890258</v>
+        <v>28.33494374890255</v>
       </c>
       <c r="F18">
-        <v>42.79671607620289</v>
+        <v>42.79671607620292</v>
       </c>
       <c r="G18">
-        <v>19.77852901788835</v>
+        <v>19.77852901788832</v>
       </c>
       <c r="H18">
-        <v>14.21355141271312</v>
+        <v>14.21355141271305</v>
       </c>
       <c r="I18">
-        <v>8.580614394264865</v>
+        <v>8.580614394264849</v>
       </c>
       <c r="J18">
-        <v>22.90615743074406</v>
+        <v>22.90615743074414</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,31 +1058,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95794688844461</v>
+        <v>24.95794688844464</v>
       </c>
       <c r="C19">
-        <v>19.99181863252872</v>
+        <v>19.99181863252879</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.20427095975613</v>
+        <v>28.20427095975605</v>
       </c>
       <c r="F19">
-        <v>42.58644041315591</v>
+        <v>42.58644041315593</v>
       </c>
       <c r="G19">
-        <v>19.713776901029</v>
+        <v>19.71377690102905</v>
       </c>
       <c r="H19">
-        <v>14.19572114582278</v>
+        <v>14.19572114582279</v>
       </c>
       <c r="I19">
-        <v>8.561972192508751</v>
+        <v>8.561972192508776</v>
       </c>
       <c r="J19">
-        <v>22.80500959287971</v>
+        <v>22.80500959287975</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46103112988493</v>
+        <v>25.46103112988494</v>
       </c>
       <c r="C20">
-        <v>20.40565806232128</v>
+        <v>20.40565806232146</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.78951182000316</v>
+        <v>28.78951182000317</v>
       </c>
       <c r="F20">
-        <v>43.52900517227892</v>
+        <v>43.52900517227901</v>
       </c>
       <c r="G20">
-        <v>20.00742672474853</v>
+        <v>20.00742672474851</v>
       </c>
       <c r="H20">
-        <v>14.27912846514733</v>
+        <v>14.27912846514729</v>
       </c>
       <c r="I20">
-        <v>8.647423136563164</v>
+        <v>8.647423136563157</v>
       </c>
       <c r="J20">
-        <v>23.25777558190119</v>
+        <v>23.25777558190126</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,31 +1134,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.10316697781597</v>
+        <v>27.1031669778159</v>
       </c>
       <c r="C21">
-        <v>21.76111750281703</v>
+        <v>21.76111750281702</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.70849255841135</v>
+        <v>30.70849255841139</v>
       </c>
       <c r="F21">
-        <v>46.63376594998635</v>
+        <v>46.63376594998627</v>
       </c>
       <c r="G21">
-        <v>21.03444763401382</v>
+        <v>21.03444763401378</v>
       </c>
       <c r="H21">
-        <v>14.61738796068313</v>
+        <v>14.61738796068318</v>
       </c>
       <c r="I21">
-        <v>8.962990345774552</v>
+        <v>8.962990345774584</v>
       </c>
       <c r="J21">
-        <v>24.73779332874582</v>
+        <v>24.73779332874578</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14186319030301</v>
+        <v>28.14186319030295</v>
       </c>
       <c r="C22">
-        <v>22.62235028420079</v>
+        <v>22.6223502842007</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.92956856888692</v>
+        <v>31.92956856888697</v>
       </c>
       <c r="F22">
-        <v>48.62008734491845</v>
+        <v>48.62008734491835</v>
       </c>
       <c r="G22">
-        <v>21.96829796615481</v>
+        <v>21.9682979661547</v>
       </c>
       <c r="H22">
-        <v>14.88477061321104</v>
+        <v>14.88477061321108</v>
       </c>
       <c r="I22">
-        <v>9.191925498959149</v>
+        <v>9.191925498959144</v>
       </c>
       <c r="J22">
-        <v>25.67562685984646</v>
+        <v>25.67562685984641</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59055866043813</v>
+        <v>27.59055866043817</v>
       </c>
       <c r="C23">
-        <v>22.1648500602779</v>
+        <v>22.16485006027784</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.28073326497382</v>
+        <v>31.28073326497388</v>
       </c>
       <c r="F23">
-        <v>47.56362524593251</v>
+        <v>47.56362524593252</v>
       </c>
       <c r="G23">
-        <v>21.46356275547922</v>
+        <v>21.46356275547921</v>
       </c>
       <c r="H23">
-        <v>14.73763085694692</v>
+        <v>14.73763085694686</v>
       </c>
       <c r="I23">
-        <v>9.067563676712449</v>
+        <v>9.067563676712425</v>
       </c>
       <c r="J23">
         <v>25.17769396898424</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.4335885719232</v>
+        <v>25.43358857192325</v>
       </c>
       <c r="C24">
-        <v>20.38306700999554</v>
+        <v>20.38306700999549</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.75755652615744</v>
+        <v>28.75755652615737</v>
       </c>
       <c r="F24">
-        <v>43.47748588444853</v>
+        <v>43.47748588444854</v>
       </c>
       <c r="G24">
-        <v>19.99115166565767</v>
+        <v>19.99115166565771</v>
       </c>
       <c r="H24">
-        <v>14.27433774545139</v>
+        <v>14.27433774545145</v>
       </c>
       <c r="I24">
-        <v>8.642627155111951</v>
+        <v>8.642627155111972</v>
       </c>
       <c r="J24">
-        <v>23.23306990792191</v>
+        <v>23.23306990792192</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,31 +1286,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95023082209092</v>
+        <v>22.95023082209087</v>
       </c>
       <c r="C25">
-        <v>18.34644690621392</v>
+        <v>18.3464469062138</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.88025491112694</v>
+        <v>25.88025491112696</v>
       </c>
       <c r="F25">
-        <v>38.86480314873524</v>
+        <v>38.86480314873523</v>
       </c>
       <c r="G25">
-        <v>18.64281028547171</v>
+        <v>18.64281028547163</v>
       </c>
       <c r="H25">
-        <v>13.95337708923005</v>
+        <v>13.95337708922994</v>
       </c>
       <c r="I25">
-        <v>8.272266272317308</v>
+        <v>8.272266272317294</v>
       </c>
       <c r="J25">
-        <v>21.00119608761731</v>
+        <v>21.00119608761727</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97853741694855</v>
+        <v>20.97844118720195</v>
       </c>
       <c r="C2">
-        <v>16.73956143166432</v>
+        <v>16.73592530437781</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.61476381159885</v>
+        <v>23.62110242047715</v>
       </c>
       <c r="F2">
-        <v>35.27259863785088</v>
+        <v>35.26532910422203</v>
       </c>
       <c r="G2">
-        <v>17.75280845514221</v>
+        <v>16.46605136900793</v>
       </c>
       <c r="H2">
-        <v>13.84783876464262</v>
+        <v>17.77667737656152</v>
       </c>
       <c r="I2">
-        <v>8.065111187748123</v>
+        <v>13.83489843871005</v>
       </c>
       <c r="J2">
-        <v>19.23474823838426</v>
+        <v>8.059109097917691</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.23349968391838</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54932800841581</v>
+        <v>19.54938186061715</v>
       </c>
       <c r="C3">
-        <v>15.57989804040388</v>
+        <v>15.57666206988185</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.98228144433499</v>
+        <v>21.98821350649697</v>
       </c>
       <c r="F3">
-        <v>32.70868070566485</v>
+        <v>32.70187317115874</v>
       </c>
       <c r="G3">
-        <v>17.2108715920329</v>
+        <v>15.62126779635823</v>
       </c>
       <c r="H3">
-        <v>13.8459845849125</v>
+        <v>17.23432962999688</v>
       </c>
       <c r="I3">
-        <v>7.960495786180902</v>
+        <v>13.83415884317883</v>
       </c>
       <c r="J3">
-        <v>17.95765340108131</v>
+        <v>7.954961254395662</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.95665121591732</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.62486188197171</v>
+        <v>18.6250058120207</v>
       </c>
       <c r="C4">
-        <v>14.83193052299073</v>
+        <v>14.82894658326686</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.93046189006937</v>
+        <v>20.93612391417572</v>
       </c>
       <c r="F4">
-        <v>31.06890995721565</v>
+        <v>31.06238910748252</v>
       </c>
       <c r="G4">
-        <v>16.90728964634012</v>
+        <v>15.11899450395345</v>
       </c>
       <c r="H4">
-        <v>13.87522680993126</v>
+        <v>16.93058721844221</v>
       </c>
       <c r="I4">
-        <v>7.912175132788551</v>
+        <v>13.86408266141822</v>
       </c>
       <c r="J4">
-        <v>17.13321081408667</v>
+        <v>7.906926424950167</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.13236281153164</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23619149642507</v>
+        <v>18.23637182203026</v>
       </c>
       <c r="C5">
-        <v>14.51794902750819</v>
+        <v>14.51506966263001</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.48919315563604</v>
+        <v>20.49473998644721</v>
       </c>
       <c r="F5">
-        <v>30.43211895893313</v>
+        <v>30.42565643012371</v>
       </c>
       <c r="G5">
-        <v>16.79073881770943</v>
+        <v>14.91861002161187</v>
       </c>
       <c r="H5">
-        <v>13.89419596883338</v>
+        <v>16.81399334558795</v>
       </c>
       <c r="I5">
-        <v>7.896224210125746</v>
+        <v>13.88332826248122</v>
       </c>
       <c r="J5">
-        <v>16.78700251764243</v>
+        <v>7.891091469653809</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.78621833911949</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17092779444443</v>
+        <v>18.17111415072973</v>
       </c>
       <c r="C6">
-        <v>14.46525430102645</v>
+        <v>14.46239242180536</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.41515160438705</v>
+        <v>20.42067899533412</v>
       </c>
       <c r="F6">
-        <v>30.32578854259029</v>
+        <v>30.31934497572856</v>
       </c>
       <c r="G6">
-        <v>16.77181249374027</v>
+        <v>14.88560104057295</v>
       </c>
       <c r="H6">
-        <v>13.89775481888403</v>
+        <v>16.79506119823223</v>
       </c>
       <c r="I6">
-        <v>7.89379376273195</v>
+        <v>13.88693292152893</v>
       </c>
       <c r="J6">
-        <v>16.72889356177389</v>
+        <v>7.888680242710374</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.72812004892865</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61966867466086</v>
+        <v>18.61981309654183</v>
       </c>
       <c r="C7">
-        <v>14.8277334042819</v>
+        <v>14.82475086695169</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.92456223454196</v>
+        <v>20.93022272600814</v>
       </c>
       <c r="F7">
-        <v>31.05974129038752</v>
+        <v>31.05322202471379</v>
       </c>
       <c r="G7">
-        <v>16.90568905670465</v>
+        <v>15.1162744195427</v>
       </c>
       <c r="H7">
-        <v>13.8754548456051</v>
+        <v>16.92898595894411</v>
       </c>
       <c r="I7">
-        <v>7.911945217190332</v>
+        <v>13.86431443129282</v>
       </c>
       <c r="J7">
-        <v>17.12858332329322</v>
+        <v>7.906698075622836</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.12773617712036</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49539549703976</v>
+        <v>20.49535157354485</v>
       </c>
       <c r="C8">
-        <v>16.34707600115792</v>
+        <v>16.34357670167704</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.06202114326889</v>
+        <v>23.06822381088118</v>
       </c>
       <c r="F8">
-        <v>34.40203639705995</v>
+        <v>34.39492564728174</v>
       </c>
       <c r="G8">
-        <v>17.55979841224039</v>
+        <v>16.17145080082499</v>
       </c>
       <c r="H8">
-        <v>13.84053818745181</v>
+        <v>17.58350622174315</v>
       </c>
       <c r="I8">
-        <v>8.025580750692184</v>
+        <v>13.82798232071979</v>
       </c>
       <c r="J8">
-        <v>18.80270027018032</v>
+        <v>8.019740015259808</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.80153621625204</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80847703988686</v>
+        <v>23.80803746335808</v>
       </c>
       <c r="C9">
-        <v>19.04862229320278</v>
+        <v>19.04414702294724</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.87150604611535</v>
+        <v>26.87860915922726</v>
       </c>
       <c r="F9">
-        <v>40.4478840152707</v>
+        <v>40.43962721732595</v>
       </c>
       <c r="G9">
-        <v>19.080643228432</v>
+        <v>18.36571231710953</v>
       </c>
       <c r="H9">
-        <v>14.0396120497055</v>
+        <v>19.10590790575155</v>
       </c>
       <c r="I9">
-        <v>8.386168236541556</v>
+        <v>14.0242943867216</v>
       </c>
       <c r="J9">
-        <v>21.77166801835804</v>
+        <v>8.379162430949549</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.76989381147781</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.0309397093992</v>
+        <v>26.03017842281308</v>
       </c>
       <c r="C10">
-        <v>20.87525670229886</v>
+        <v>20.87006798365874</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.45396695357272</v>
+        <v>29.46162897170968</v>
       </c>
       <c r="F10">
-        <v>44.60163313777613</v>
+        <v>44.59252398651972</v>
       </c>
       <c r="G10">
-        <v>20.35206462796074</v>
+        <v>20.10683846755384</v>
       </c>
       <c r="H10">
-        <v>14.38496768814903</v>
+        <v>20.37894864379667</v>
       </c>
       <c r="I10">
-        <v>8.750555438748316</v>
+        <v>14.36768660579263</v>
       </c>
       <c r="J10">
-        <v>23.77105206690311</v>
+        <v>8.742703782622772</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.76881925929825</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99880124455967</v>
+        <v>26.99788298837357</v>
       </c>
       <c r="C11">
-        <v>21.67475300925553</v>
+        <v>21.66923562763179</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.58612208576231</v>
+        <v>30.59401453522562</v>
       </c>
       <c r="F11">
-        <v>46.43515456830788</v>
+        <v>46.42564962168042</v>
       </c>
       <c r="G11">
-        <v>20.96609931317053</v>
+        <v>20.95949843903032</v>
       </c>
       <c r="H11">
-        <v>14.59283321346863</v>
+        <v>20.99382404487497</v>
       </c>
       <c r="I11">
-        <v>8.941250839690273</v>
+        <v>14.57468620358355</v>
       </c>
       <c r="J11">
-        <v>24.64363422001344</v>
+        <v>8.933017867957561</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.64118627117029</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35936023411859</v>
+        <v>27.35838062398287</v>
       </c>
       <c r="C12">
-        <v>21.9732518790299</v>
+        <v>21.96760897016961</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.00912752949437</v>
+        <v>31.01710361573203</v>
       </c>
       <c r="F12">
-        <v>47.1220576890127</v>
+        <v>47.11240107572904</v>
       </c>
       <c r="G12">
-        <v>21.25426500682439</v>
+        <v>21.28354834129509</v>
       </c>
       <c r="H12">
-        <v>14.67944608492467</v>
+        <v>21.23203158711388</v>
       </c>
       <c r="I12">
-        <v>9.017331505914825</v>
+        <v>14.66097605024238</v>
       </c>
       <c r="J12">
-        <v>24.96898751171218</v>
+        <v>9.008954624750722</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>24.96645674157375</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28196759561334</v>
+        <v>27.2810012910737</v>
       </c>
       <c r="C13">
-        <v>21.90914929390588</v>
+        <v>21.90353347561373</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.91827283056784</v>
+        <v>30.92623106909383</v>
       </c>
       <c r="F13">
-        <v>46.97443897328188</v>
+        <v>46.96481511520717</v>
       </c>
       <c r="G13">
-        <v>21.18451817007983</v>
+        <v>21.21370174832701</v>
       </c>
       <c r="H13">
-        <v>14.66043174043079</v>
+        <v>21.18048638451407</v>
       </c>
       <c r="I13">
-        <v>9.000769434330326</v>
+        <v>14.64203104447826</v>
       </c>
       <c r="J13">
-        <v>24.89913840586083</v>
+        <v>8.992423526501163</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.89662554018745</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.02858230673244</v>
+        <v>27.02765904370008</v>
       </c>
       <c r="C14">
-        <v>21.69939425999534</v>
+        <v>21.69386657562558</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.6210350137154</v>
+        <v>30.628934417992</v>
       </c>
       <c r="F14">
-        <v>46.49181094766409</v>
+        <v>46.4822935632741</v>
       </c>
       <c r="G14">
-        <v>20.98556059851101</v>
+        <v>20.98613315812289</v>
       </c>
       <c r="H14">
-        <v>14.59979721521022</v>
+        <v>21.01331244935845</v>
       </c>
       <c r="I14">
-        <v>8.947430832051531</v>
+        <v>14.58162352717552</v>
       </c>
       <c r="J14">
-        <v>24.67050145197277</v>
+        <v>8.93918601155478</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.66804671906811</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87260984794854</v>
+        <v>26.87171268740944</v>
       </c>
       <c r="C15">
-        <v>21.57036796430483</v>
+        <v>21.56489410968987</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.43823692752046</v>
+        <v>30.44609981539026</v>
       </c>
       <c r="F15">
-        <v>46.1952431837509</v>
+        <v>46.18579076365467</v>
       </c>
       <c r="G15">
-        <v>20.88400963790011</v>
+        <v>20.84690129741276</v>
       </c>
       <c r="H15">
-        <v>14.56370303703275</v>
+        <v>20.91162027593517</v>
       </c>
       <c r="I15">
-        <v>8.915271860872554</v>
+        <v>14.54566905924768</v>
       </c>
       <c r="J15">
-        <v>24.52980148077002</v>
+        <v>8.907089020231414</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.52738216642281</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96684059117839</v>
+        <v>25.96608931765083</v>
       </c>
       <c r="C16">
-        <v>20.82239714832813</v>
+        <v>20.81722978663962</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.37915423400182</v>
+        <v>29.38680069816557</v>
       </c>
       <c r="F16">
-        <v>44.48073339359793</v>
+        <v>44.47164989578715</v>
       </c>
       <c r="G16">
-        <v>20.31267152315646</v>
+        <v>20.05126342384782</v>
       </c>
       <c r="H16">
-        <v>14.37245616133986</v>
+        <v>20.33950268557858</v>
       </c>
       <c r="I16">
-        <v>8.738618630348514</v>
+        <v>14.35523230415454</v>
       </c>
       <c r="J16">
-        <v>23.7133029419115</v>
+        <v>8.730791965482727</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.7110840290474</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.40030178056233</v>
+        <v>25.3996370283099</v>
       </c>
       <c r="C17">
-        <v>20.35566751453102</v>
+        <v>20.35068680553309</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.7188008252165</v>
+        <v>28.72630829876843</v>
       </c>
       <c r="F17">
-        <v>43.41501099310535</v>
+        <v>43.4061513491015</v>
       </c>
       <c r="G17">
-        <v>19.97145028603919</v>
+        <v>19.56496381822086</v>
       </c>
       <c r="H17">
-        <v>14.26856426256767</v>
+        <v>19.99782988885751</v>
       </c>
       <c r="I17">
-        <v>8.636830724287059</v>
+        <v>14.25184510494449</v>
       </c>
       <c r="J17">
-        <v>23.20310407701359</v>
+        <v>8.629223476837723</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.20100615763318</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.07036541445509</v>
+        <v>25.06974945351723</v>
       </c>
       <c r="C18">
-        <v>20.08423886074069</v>
+        <v>20.07936515493245</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.33494374890255</v>
+        <v>28.34236905209873</v>
       </c>
       <c r="F18">
-        <v>42.79671607620292</v>
+        <v>42.78798447390892</v>
       </c>
       <c r="G18">
-        <v>19.77852901788832</v>
+        <v>19.30285832744525</v>
       </c>
       <c r="H18">
-        <v>14.21355141271305</v>
+        <v>19.80465870049913</v>
       </c>
       <c r="I18">
-        <v>8.580614394264849</v>
+        <v>14.19712505848778</v>
       </c>
       <c r="J18">
-        <v>22.90615743074414</v>
+        <v>8.57313368305001</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.90412851773123</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95794688844464</v>
+        <v>24.95734729096589</v>
       </c>
       <c r="C19">
-        <v>19.99181863252879</v>
+        <v>19.98698110866798</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.20427095975605</v>
+        <v>28.21166806408327</v>
       </c>
       <c r="F19">
-        <v>42.58644041315593</v>
+        <v>42.57775205805429</v>
       </c>
       <c r="G19">
-        <v>19.71377690102905</v>
+        <v>19.21722823610112</v>
       </c>
       <c r="H19">
-        <v>14.19572114582279</v>
+        <v>19.7398236501991</v>
       </c>
       <c r="I19">
-        <v>8.561972192508776</v>
+        <v>14.17939432929006</v>
       </c>
       <c r="J19">
-        <v>22.80500959287975</v>
+        <v>8.554534379994156</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.80300395525703</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46103112988494</v>
+        <v>25.46035727063459</v>
       </c>
       <c r="C20">
-        <v>20.40565806232146</v>
+        <v>20.4006575237442</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.78951182000317</v>
+        <v>28.79703432102413</v>
       </c>
       <c r="F20">
-        <v>43.52900517227901</v>
+        <v>43.52012177657025</v>
       </c>
       <c r="G20">
-        <v>20.00742672474851</v>
+        <v>19.6166685549524</v>
       </c>
       <c r="H20">
-        <v>14.27912846514729</v>
+        <v>20.03385338242687</v>
       </c>
       <c r="I20">
-        <v>8.647423136563157</v>
+        <v>14.26235531367943</v>
       </c>
       <c r="J20">
-        <v>23.25777558190126</v>
+        <v>8.639792496988777</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.2556648459999</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.1031669778159</v>
+        <v>27.10223112776456</v>
       </c>
       <c r="C21">
-        <v>21.76111750281702</v>
+        <v>21.755563964608</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.70849255841139</v>
+        <v>30.71640934394692</v>
       </c>
       <c r="F21">
-        <v>46.63376594998627</v>
+        <v>46.62421734594123</v>
       </c>
       <c r="G21">
-        <v>21.03444763401378</v>
+        <v>21.05294156778271</v>
       </c>
       <c r="H21">
-        <v>14.61738796068318</v>
+        <v>21.06226772548854</v>
       </c>
       <c r="I21">
-        <v>8.962990345774584</v>
+        <v>14.59914745566193</v>
       </c>
       <c r="J21">
-        <v>24.73779332874578</v>
+        <v>8.954715820973922</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.73532156114947</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14186319030295</v>
+        <v>28.14074473447897</v>
       </c>
       <c r="C22">
-        <v>22.6223502842007</v>
+        <v>22.61642881169743</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.92956856888697</v>
+        <v>31.93772178528076</v>
       </c>
       <c r="F22">
-        <v>48.62008734491835</v>
+        <v>48.61009316668854</v>
       </c>
       <c r="G22">
-        <v>21.9682979661547</v>
+        <v>21.99860926931053</v>
       </c>
       <c r="H22">
-        <v>14.88477061321108</v>
+        <v>21.79722780145818</v>
       </c>
       <c r="I22">
-        <v>9.191925498959144</v>
+        <v>14.86559985850197</v>
       </c>
       <c r="J22">
-        <v>25.67562685984641</v>
+        <v>9.183232894998657</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.6729110148813</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.59055866043817</v>
+        <v>27.58953885127824</v>
       </c>
       <c r="C23">
-        <v>22.16485006027784</v>
+        <v>22.15912573690063</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.28073326497388</v>
+        <v>31.28876232185663</v>
       </c>
       <c r="F23">
-        <v>47.56362524593252</v>
+        <v>47.55387011659866</v>
       </c>
       <c r="G23">
-        <v>21.46356275547921</v>
+        <v>21.49314617274197</v>
       </c>
       <c r="H23">
-        <v>14.73763085694686</v>
+        <v>21.38735985705101</v>
       </c>
       <c r="I23">
-        <v>9.067563676712425</v>
+        <v>14.71895369958022</v>
       </c>
       <c r="J23">
-        <v>25.17769396898424</v>
+        <v>9.059093996065513</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.17510929034482</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43358857192325</v>
+        <v>25.43291883288041</v>
       </c>
       <c r="C24">
-        <v>20.38306700999549</v>
+        <v>20.37807543728876</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.75755652615737</v>
+        <v>28.76507224029429</v>
       </c>
       <c r="F24">
-        <v>43.47748588444854</v>
+        <v>43.46861322887951</v>
       </c>
       <c r="G24">
-        <v>19.99115166565771</v>
+        <v>19.59329140728928</v>
       </c>
       <c r="H24">
-        <v>14.27433774545145</v>
+        <v>20.01755701965797</v>
       </c>
       <c r="I24">
-        <v>8.642627155111972</v>
+        <v>14.25758899643819</v>
       </c>
       <c r="J24">
-        <v>23.23306990792192</v>
+        <v>8.635007089902395</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.23096496806612</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.95023082209087</v>
+        <v>22.94990254892394</v>
       </c>
       <c r="C25">
-        <v>18.3464469062138</v>
+        <v>18.34223353458838</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.88025491112696</v>
+        <v>25.88713207989337</v>
       </c>
       <c r="F25">
-        <v>38.86480314873523</v>
+        <v>38.85685656832052</v>
       </c>
       <c r="G25">
-        <v>18.64281028547163</v>
+        <v>17.7592474930069</v>
       </c>
       <c r="H25">
-        <v>13.95337708922994</v>
+        <v>18.66757093346876</v>
       </c>
       <c r="I25">
-        <v>8.272266272317294</v>
+        <v>13.9387995009453</v>
       </c>
       <c r="J25">
-        <v>21.00119608761727</v>
+        <v>8.265574533761805</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.99958743335669</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.97844118720195</v>
+        <v>18.52811636193245</v>
       </c>
       <c r="C2">
-        <v>16.73592530437781</v>
+        <v>12.76579028525117</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>23.62110242047715</v>
+        <v>7.549009507905972</v>
       </c>
       <c r="F2">
-        <v>35.26532910422203</v>
+        <v>66.42000768809112</v>
       </c>
       <c r="G2">
-        <v>16.46605136900793</v>
+        <v>2.155857414888094</v>
       </c>
       <c r="H2">
-        <v>17.77667737656152</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>13.83489843871005</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.059109097917691</v>
+        <v>11.7798225361732</v>
       </c>
       <c r="K2">
-        <v>19.23349968391838</v>
+        <v>15.87525250429244</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>3.629111996041415</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>9.252173447382599</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.54938186061715</v>
+        <v>17.5555373657114</v>
       </c>
       <c r="C3">
-        <v>15.57666206988185</v>
+        <v>11.82069701961492</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>21.98821350649697</v>
+        <v>7.152070523054481</v>
       </c>
       <c r="F3">
-        <v>32.70187317115874</v>
+        <v>63.19701522803442</v>
       </c>
       <c r="G3">
-        <v>15.62126779635823</v>
+        <v>2.169661039826434</v>
       </c>
       <c r="H3">
-        <v>17.23432962999688</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>13.83415884317883</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>7.954961254395662</v>
+        <v>11.41953583342188</v>
       </c>
       <c r="K3">
-        <v>17.95665121591732</v>
+        <v>15.02680560711457</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3.762865923669048</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>9.200813091317128</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.6250058120207</v>
+        <v>16.9576234492621</v>
       </c>
       <c r="C4">
-        <v>14.82894658326686</v>
+        <v>11.21437929803831</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>20.93612391417572</v>
+        <v>6.902530505028545</v>
       </c>
       <c r="F4">
-        <v>31.06238910748252</v>
+        <v>61.17992177045516</v>
       </c>
       <c r="G4">
-        <v>15.11899450395345</v>
+        <v>2.178279415544448</v>
       </c>
       <c r="H4">
-        <v>16.93058721844221</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>13.86408266141822</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>7.906926424950167</v>
+        <v>11.19659899304234</v>
       </c>
       <c r="K4">
-        <v>17.13236281153164</v>
+        <v>14.50351443741677</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>3.848571088250124</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>9.183582931825963</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.23637182203026</v>
+        <v>16.7140131271793</v>
       </c>
       <c r="C5">
-        <v>14.51506966263001</v>
+        <v>10.96057226551775</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>20.49473998644721</v>
+        <v>6.799407495275346</v>
       </c>
       <c r="F5">
-        <v>30.42565643012371</v>
+        <v>60.34867375501656</v>
       </c>
       <c r="G5">
-        <v>14.91861002161187</v>
+        <v>2.181832073432027</v>
       </c>
       <c r="H5">
-        <v>16.81399334558795</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>13.88332826248122</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>7.891091469653809</v>
+        <v>11.10530087686658</v>
       </c>
       <c r="K5">
-        <v>16.78621833911949</v>
+        <v>14.2898668295728</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>3.884375625134329</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9.179986808201757</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.17111415072973</v>
+        <v>16.6735726382535</v>
       </c>
       <c r="C6">
-        <v>14.46239242180536</v>
+        <v>10.91801641926063</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>20.42067899533412</v>
+        <v>6.782198693821723</v>
       </c>
       <c r="F6">
-        <v>30.31934497572856</v>
+        <v>60.21009888121708</v>
       </c>
       <c r="G6">
-        <v>14.88560104057295</v>
+        <v>2.182424569759336</v>
       </c>
       <c r="H6">
-        <v>16.79506119823223</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>13.88693292152893</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>7.888680242710374</v>
+        <v>11.09011344197108</v>
       </c>
       <c r="K6">
-        <v>16.72812004892865</v>
+        <v>14.25437316353418</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3.890373552508797</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>9.179591577673607</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.61981309654183</v>
+        <v>16.9543374972362</v>
       </c>
       <c r="C7">
-        <v>14.82475086695169</v>
+        <v>11.21098383815478</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>20.93022272600814</v>
+        <v>6.901145501565872</v>
       </c>
       <c r="F7">
-        <v>31.05322202471379</v>
+        <v>61.16874822898768</v>
       </c>
       <c r="G7">
-        <v>15.1162744195427</v>
+        <v>2.178327157696145</v>
       </c>
       <c r="H7">
-        <v>16.92898595894411</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>13.86431443129282</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>7.906698075622836</v>
+        <v>11.19536954992645</v>
       </c>
       <c r="K7">
-        <v>17.12773617712036</v>
+        <v>14.50063444770547</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>3.849050424229614</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9.183520789519713</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.49535157354485</v>
+        <v>18.19304283283397</v>
       </c>
       <c r="C8">
-        <v>16.34357670167704</v>
+        <v>12.44520847451089</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>23.06822381088118</v>
+        <v>7.413363492113209</v>
       </c>
       <c r="F8">
-        <v>34.39492564728174</v>
+        <v>65.31678577982049</v>
       </c>
       <c r="G8">
-        <v>16.17145080082499</v>
+        <v>2.16059020482694</v>
       </c>
       <c r="H8">
-        <v>17.58350622174315</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>13.82798232071979</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.019740015259808</v>
+        <v>11.65593857430014</v>
       </c>
       <c r="K8">
-        <v>18.80153621625204</v>
+        <v>15.58328605155661</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>3.674472077132201</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>9.231391051097496</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.80803746335808</v>
+        <v>20.61004489520004</v>
       </c>
       <c r="C9">
-        <v>19.04414702294724</v>
+        <v>14.66824630216526</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>26.87860915922726</v>
+        <v>8.371535822347594</v>
       </c>
       <c r="F9">
-        <v>40.43962721732595</v>
+        <v>73.14317927222339</v>
       </c>
       <c r="G9">
-        <v>18.36571231710953</v>
+        <v>2.12670369022035</v>
       </c>
       <c r="H9">
-        <v>19.10590790575155</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>14.0242943867216</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.379162430949549</v>
+        <v>12.54695304094905</v>
       </c>
       <c r="K9">
-        <v>21.76989381147781</v>
+        <v>17.86500229546216</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.406468717154946</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.446650636968528</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.03017842281308</v>
+        <v>22.47941103456351</v>
       </c>
       <c r="C10">
-        <v>20.87006798365874</v>
+        <v>16.19592205870319</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>29.46162897170968</v>
+        <v>9.048912710915237</v>
       </c>
       <c r="F10">
-        <v>44.59252398651972</v>
+        <v>78.71333550068303</v>
       </c>
       <c r="G10">
-        <v>20.10683846755384</v>
+        <v>2.101970200574899</v>
       </c>
       <c r="H10">
-        <v>20.37894864379667</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>14.36768660579263</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.742703782622772</v>
+        <v>13.19748881817074</v>
       </c>
       <c r="K10">
-        <v>23.76881925929825</v>
+        <v>19.74256307128809</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>3.6606076764557</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10.10021398476942</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.99788298837357</v>
+        <v>23.39990866590573</v>
       </c>
       <c r="C11">
-        <v>21.66923562763179</v>
+        <v>16.8718700757502</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>30.59401453522562</v>
+        <v>9.352177159886104</v>
       </c>
       <c r="F11">
-        <v>46.42564962168042</v>
+        <v>81.21437264481028</v>
       </c>
       <c r="G11">
-        <v>20.95949843903032</v>
+        <v>2.090650465503942</v>
       </c>
       <c r="H11">
-        <v>20.99382404487497</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.57468620358355</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.933017867957561</v>
+        <v>13.49369908266952</v>
       </c>
       <c r="K11">
-        <v>24.64118627117029</v>
+        <v>20.57549264802557</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>3.776255563239212</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10.53910468381818</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35838062398287</v>
+        <v>23.74651051103675</v>
       </c>
       <c r="C12">
-        <v>21.96760897016961</v>
+        <v>17.12548961479706</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>31.01710361573203</v>
+        <v>9.466425714220684</v>
       </c>
       <c r="F12">
-        <v>47.11240107572904</v>
+        <v>82.15754857031938</v>
       </c>
       <c r="G12">
-        <v>21.28354834129509</v>
+        <v>2.086343767786188</v>
       </c>
       <c r="H12">
-        <v>21.23203158711388</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>14.66097605024238</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>9.008954624750722</v>
+        <v>13.60603767486272</v>
       </c>
       <c r="K12">
-        <v>24.96645674157375</v>
+        <v>20.88829587403376</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>3.820149619082509</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10.70406946454511</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.2810012910737</v>
+        <v>23.67194353730092</v>
       </c>
       <c r="C13">
-        <v>21.90353347561373</v>
+        <v>17.07096568125495</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>30.92623106909383</v>
+        <v>9.441844410837509</v>
       </c>
       <c r="F13">
-        <v>46.96481511520717</v>
+        <v>81.9545768318721</v>
       </c>
       <c r="G13">
-        <v>21.21370174832701</v>
+        <v>2.087272372754014</v>
       </c>
       <c r="H13">
-        <v>21.18048638451407</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>14.64203104447826</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.992423526501163</v>
+        <v>13.58183353762726</v>
       </c>
       <c r="K13">
-        <v>24.89662554018745</v>
+        <v>20.82103627123965</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>3.810690077728813</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10.66859137892435</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.02765904370008</v>
+        <v>23.42846056365595</v>
       </c>
       <c r="C14">
-        <v>21.69386657562558</v>
+        <v>16.89278011682737</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>30.628934417992</v>
+        <v>9.361587550672619</v>
       </c>
       <c r="F14">
-        <v>46.4822935632741</v>
+        <v>81.2920410601896</v>
       </c>
       <c r="G14">
-        <v>20.98613315812289</v>
+        <v>2.090296620521093</v>
       </c>
       <c r="H14">
-        <v>21.01331244935845</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>14.58162352717552</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.93918601155478</v>
+        <v>13.50293696755187</v>
       </c>
       <c r="K14">
-        <v>24.66804671906811</v>
+        <v>20.60127664293252</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>3.779864131789833</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>10.55269943466875</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.87171268740944</v>
+        <v>23.27907760223501</v>
       </c>
       <c r="C15">
-        <v>21.56489410968987</v>
+        <v>16.78334313924805</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>30.44609981539026</v>
+        <v>9.312354778724117</v>
       </c>
       <c r="F15">
-        <v>46.18579076365467</v>
+        <v>80.88573809482151</v>
       </c>
       <c r="G15">
-        <v>20.84690129741276</v>
+        <v>2.092146097099448</v>
       </c>
       <c r="H15">
-        <v>20.91162027593517</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>14.54566905924768</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.907089020231414</v>
+        <v>13.45463714863553</v>
       </c>
       <c r="K15">
-        <v>24.52738216642281</v>
+        <v>20.46634214697526</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>3.760998566765777</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10.48156048412185</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.96608931765083</v>
+        <v>22.41895386547316</v>
       </c>
       <c r="C16">
-        <v>20.81722978663962</v>
+        <v>16.15139642797913</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>29.38680069816557</v>
+        <v>9.029004185653106</v>
       </c>
       <c r="F16">
-        <v>44.47164989578715</v>
+        <v>78.54928889396233</v>
       </c>
       <c r="G16">
-        <v>20.05126342384782</v>
+        <v>2.102707752829103</v>
       </c>
       <c r="H16">
-        <v>20.33950268557858</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>14.35523230415454</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.730791965482727</v>
+        <v>13.17814675421454</v>
       </c>
       <c r="K16">
-        <v>23.7110840290474</v>
+        <v>19.68773839334042</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>3.653058367913346</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10.0713429776349</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.3996370283099</v>
+        <v>21.8873152667273</v>
       </c>
       <c r="C17">
-        <v>20.35068680553309</v>
+        <v>15.7591060678963</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>28.72630829876843</v>
+        <v>8.8539966268822</v>
       </c>
       <c r="F17">
-        <v>43.4061513491015</v>
+        <v>77.10803070141</v>
       </c>
       <c r="G17">
-        <v>19.56496381822086</v>
+        <v>2.109162663032628</v>
       </c>
       <c r="H17">
-        <v>19.99782988885751</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>14.25184510494449</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.629223476837723</v>
+        <v>13.00868252046181</v>
       </c>
       <c r="K17">
-        <v>23.20100615763318</v>
+        <v>19.20495032832541</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>3.586913306459407</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>9.817185541914258</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.06974945351723</v>
+        <v>21.5995443300294</v>
       </c>
       <c r="C18">
-        <v>20.07936515493245</v>
+        <v>15.53165636336365</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>28.34236905209873</v>
+        <v>8.752869296786841</v>
       </c>
       <c r="F18">
-        <v>42.78798447390892</v>
+        <v>76.27590036980621</v>
       </c>
       <c r="G18">
-        <v>19.30285832744525</v>
+        <v>2.112869634867483</v>
       </c>
       <c r="H18">
-        <v>19.80465870049913</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>14.19712505848778</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.57313368305001</v>
+        <v>12.91122775462203</v>
       </c>
       <c r="K18">
-        <v>22.90412851773123</v>
+        <v>18.9252389444761</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.548865520249601</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9.669996338550856</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.95734729096589</v>
+        <v>21.50993887262063</v>
       </c>
       <c r="C19">
-        <v>19.98698110866798</v>
+        <v>15.45432340144643</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>28.21166806408327</v>
+        <v>8.718546182607005</v>
       </c>
       <c r="F19">
-        <v>42.57775205805429</v>
+        <v>75.99359283602809</v>
       </c>
       <c r="G19">
-        <v>19.21722823610112</v>
+        <v>2.114124056190766</v>
       </c>
       <c r="H19">
-        <v>19.7398236501991</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>14.17939432929006</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.554534379994156</v>
+        <v>12.87823065811897</v>
       </c>
       <c r="K19">
-        <v>22.80300395525703</v>
+        <v>18.83017378358827</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>3.535980050880069</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9.619980464731324</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.46035727063459</v>
+        <v>21.94407081299121</v>
       </c>
       <c r="C20">
-        <v>20.4006575237442</v>
+        <v>15.80105126814787</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>28.79703432102413</v>
+        <v>8.87267418295068</v>
       </c>
       <c r="F20">
-        <v>43.52012177657025</v>
+        <v>77.26177679498029</v>
       </c>
       <c r="G20">
-        <v>19.6166685549524</v>
+        <v>2.10847618832474</v>
       </c>
       <c r="H20">
-        <v>20.03385338242687</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>14.26235531367943</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.639792496988777</v>
+        <v>13.02671972408975</v>
       </c>
       <c r="K20">
-        <v>23.2556648459999</v>
+        <v>19.25655056318341</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3.593954222218383</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>9.844343169128857</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.10223112776456</v>
+        <v>23.5000270852342</v>
       </c>
       <c r="C21">
-        <v>21.755563964608</v>
+        <v>16.94517785353253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>30.71640934394692</v>
+        <v>9.385175930072389</v>
       </c>
       <c r="F21">
-        <v>46.62421734594123</v>
+        <v>81.48674219895338</v>
       </c>
       <c r="G21">
-        <v>21.05294156778271</v>
+        <v>2.089408964064514</v>
       </c>
       <c r="H21">
-        <v>21.06226772548854</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>14.59914745566193</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.954715820973922</v>
+        <v>13.52610497589725</v>
       </c>
       <c r="K21">
-        <v>24.73532156114947</v>
+        <v>20.66589227928601</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>3.788914886291386</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>10.58677078811434</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.14074473447897</v>
+        <v>24.50572176902791</v>
       </c>
       <c r="C22">
-        <v>22.61642881169743</v>
+        <v>17.67947701086102</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>31.93772178528076</v>
+        <v>9.716756697848696</v>
       </c>
       <c r="F22">
-        <v>48.61009316668854</v>
+        <v>84.22578185421676</v>
       </c>
       <c r="G22">
-        <v>21.99860926931053</v>
+        <v>2.076823749556613</v>
       </c>
       <c r="H22">
-        <v>21.79722780145818</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>14.86559985850197</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>9.183232894998657</v>
+        <v>13.85356053888022</v>
       </c>
       <c r="K22">
-        <v>25.6729110148813</v>
+        <v>21.57203787289123</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>3.916976663932629</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>11.06496126098605</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.58953885127824</v>
+        <v>23.96982448164547</v>
       </c>
       <c r="C23">
-        <v>22.15912573690063</v>
+        <v>17.28865397028762</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>31.28876232185663</v>
+        <v>9.540048446609195</v>
       </c>
       <c r="F23">
-        <v>47.55387011659866</v>
+        <v>82.76559455613402</v>
       </c>
       <c r="G23">
-        <v>21.49314617274197</v>
+        <v>2.08355593684594</v>
       </c>
       <c r="H23">
-        <v>21.38735985705101</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>14.71895369958022</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>9.059093996065513</v>
+        <v>13.6786403740426</v>
       </c>
       <c r="K23">
-        <v>25.17510929034482</v>
+        <v>21.08961059831272</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>3.848532884331188</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>10.81028264021354</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.43291883288041</v>
+        <v>21.91841703584254</v>
       </c>
       <c r="C24">
-        <v>20.37807543728876</v>
+        <v>15.78209384141748</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>28.76507224029429</v>
+        <v>8.864231665998092</v>
       </c>
       <c r="F24">
-        <v>43.46861322887951</v>
+        <v>77.19227924438363</v>
       </c>
       <c r="G24">
-        <v>19.59329140728928</v>
+        <v>2.108786555377761</v>
       </c>
       <c r="H24">
-        <v>20.01755701965797</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>14.25758899643819</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.635007089902395</v>
+        <v>13.01856519935564</v>
       </c>
       <c r="K24">
-        <v>23.23096496806612</v>
+        <v>19.23322882582998</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.590771093782953</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>9.832068560807848</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.94990254892394</v>
+        <v>19.9580044966212</v>
       </c>
       <c r="C25">
-        <v>18.34223353458838</v>
+        <v>14.0865752158648</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.88713207989337</v>
+        <v>8.11720280030684</v>
       </c>
       <c r="F25">
-        <v>38.85685656832052</v>
+        <v>71.05883516695862</v>
       </c>
       <c r="G25">
-        <v>17.7592474930069</v>
+        <v>2.135811326943945</v>
       </c>
       <c r="H25">
-        <v>18.66757093346876</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>13.9387995009453</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.265574533761805</v>
+        <v>12.30693823319037</v>
       </c>
       <c r="K25">
-        <v>20.99958743335669</v>
+        <v>17.15231216332691</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.443078417852331</v>
       </c>
       <c r="M25">
+        <v>9.374287999034747</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.52811636193245</v>
+        <v>12.53488960784628</v>
       </c>
       <c r="C2">
-        <v>12.76579028525117</v>
+        <v>7.340613970215433</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.549009507905972</v>
+        <v>10.3228491168915</v>
       </c>
       <c r="F2">
-        <v>66.42000768809112</v>
+        <v>25.1210332448421</v>
       </c>
       <c r="G2">
-        <v>2.155857414888094</v>
+        <v>20.61182180249214</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.837260891937643</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>14.64634302936049</v>
       </c>
       <c r="J2">
-        <v>11.7798225361732</v>
+        <v>5.660194668559799</v>
       </c>
       <c r="K2">
-        <v>15.87525250429244</v>
+        <v>10.28284525743908</v>
       </c>
       <c r="L2">
-        <v>3.629111996041415</v>
+        <v>8.051796519179263</v>
       </c>
       <c r="M2">
-        <v>9.252173447382599</v>
+        <v>10.51452087495784</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.80542283252494</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>14.08782854663441</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5555373657114</v>
+        <v>11.70463607163218</v>
       </c>
       <c r="C3">
-        <v>11.82069701961492</v>
+        <v>7.366403057650493</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.152070523054481</v>
+        <v>10.2156431945051</v>
       </c>
       <c r="F3">
-        <v>63.19701522803442</v>
+        <v>24.73598735177278</v>
       </c>
       <c r="G3">
-        <v>2.169661039826434</v>
+        <v>20.57724989664276</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.914736606086118</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>14.79690615734995</v>
       </c>
       <c r="J3">
-        <v>11.41953583342188</v>
+        <v>5.588612896391778</v>
       </c>
       <c r="K3">
-        <v>15.02680560711457</v>
+        <v>9.761180696475718</v>
       </c>
       <c r="L3">
-        <v>3.762865923669048</v>
+        <v>7.892221854066308</v>
       </c>
       <c r="M3">
-        <v>9.200813091317128</v>
+        <v>10.1490777233609</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.9639574409059</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>14.17969294287698</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.9576234492621</v>
+        <v>11.16393082938625</v>
       </c>
       <c r="C4">
-        <v>11.21437929803831</v>
+        <v>7.383308948433223</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.902530505028545</v>
+        <v>10.15366379956576</v>
       </c>
       <c r="F4">
-        <v>61.17992177045516</v>
+        <v>24.51338329106118</v>
       </c>
       <c r="G4">
-        <v>2.178279415544448</v>
+        <v>20.57544376789876</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.966180229037429</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>14.89727812820465</v>
       </c>
       <c r="J4">
-        <v>11.19659899304234</v>
+        <v>5.54391966691978</v>
       </c>
       <c r="K4">
-        <v>14.50351443741677</v>
+        <v>9.425367910258842</v>
       </c>
       <c r="L4">
-        <v>3.848571088250124</v>
+        <v>7.795564593143977</v>
       </c>
       <c r="M4">
-        <v>9.183582931825963</v>
+        <v>9.920909744954045</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>13.06393055158457</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>14.2449866545065</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.7140131271793</v>
+        <v>10.93578078991979</v>
       </c>
       <c r="C5">
-        <v>10.96057226551775</v>
+        <v>7.390466160737925</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.799407495275346</v>
+        <v>10.12938491213701</v>
       </c>
       <c r="F5">
-        <v>60.34867375501656</v>
+        <v>24.42618851847897</v>
       </c>
       <c r="G5">
-        <v>2.181832073432027</v>
+        <v>20.57942394046409</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.988096170755759</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>14.94011844101243</v>
       </c>
       <c r="J5">
-        <v>11.10530087686658</v>
+        <v>5.525527518003871</v>
       </c>
       <c r="K5">
-        <v>14.2898668295728</v>
+        <v>9.284701586698512</v>
       </c>
       <c r="L5">
-        <v>3.884375625134329</v>
+        <v>7.756554320522918</v>
       </c>
       <c r="M5">
-        <v>9.179986808201757</v>
+        <v>9.827117103237397</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>13.1053423069635</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>14.27375580561523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.6735726382535</v>
+        <v>10.89742414865911</v>
       </c>
       <c r="C6">
-        <v>10.91801641926063</v>
+        <v>7.391670752108036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.782198693821723</v>
+        <v>10.12541278863559</v>
       </c>
       <c r="F6">
-        <v>60.21009888121708</v>
+        <v>24.41192345142065</v>
       </c>
       <c r="G6">
-        <v>2.182424569759336</v>
+        <v>20.58036467599554</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.991792199238295</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>14.94734754070903</v>
       </c>
       <c r="J6">
-        <v>11.09011344197108</v>
+        <v>5.522462900648051</v>
       </c>
       <c r="K6">
-        <v>14.25437316353418</v>
+        <v>9.261116008090225</v>
       </c>
       <c r="L6">
-        <v>3.890373552508797</v>
+        <v>7.750100883882719</v>
       </c>
       <c r="M6">
-        <v>9.179591577673607</v>
+        <v>9.811498149627907</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>13.11225956733225</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>14.27866133907627</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.9543374972362</v>
+        <v>11.16088557473934</v>
       </c>
       <c r="C7">
-        <v>11.21098383815478</v>
+        <v>7.38340439011258</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.901145501565872</v>
+        <v>10.15333239197687</v>
       </c>
       <c r="F7">
-        <v>61.16874822898768</v>
+        <v>24.51219305674409</v>
       </c>
       <c r="G7">
-        <v>2.178327157696145</v>
+        <v>20.57547857600702</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.966471967207003</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>14.89784811139568</v>
       </c>
       <c r="J7">
-        <v>11.19536954992645</v>
+        <v>5.543672340283766</v>
       </c>
       <c r="K7">
-        <v>14.50063444770547</v>
+        <v>9.423486183712587</v>
       </c>
       <c r="L7">
-        <v>3.849050424229614</v>
+        <v>7.795036894504413</v>
       </c>
       <c r="M7">
-        <v>9.183520789519713</v>
+        <v>9.919647920787977</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>13.06448631138627</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>14.24536598931597</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.19304283283397</v>
+        <v>12.25501748416315</v>
       </c>
       <c r="C8">
-        <v>12.44520847451089</v>
+        <v>7.349282786497664</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.413363492113209</v>
+        <v>10.28509377455272</v>
       </c>
       <c r="F8">
-        <v>65.31678577982049</v>
+        <v>24.98543173116411</v>
       </c>
       <c r="G8">
-        <v>2.16059020482694</v>
+        <v>20.59577193102447</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.863157178681291</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>14.69657811686128</v>
       </c>
       <c r="J8">
-        <v>11.65593857430014</v>
+        <v>5.635671491472076</v>
       </c>
       <c r="K8">
-        <v>15.58328605155661</v>
+        <v>10.10623699508698</v>
       </c>
       <c r="L8">
-        <v>3.674472077132201</v>
+        <v>7.996528227628048</v>
       </c>
       <c r="M8">
-        <v>9.231391051097496</v>
+        <v>10.38938131137633</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.85954536040786</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>14.1176134956199</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.61004489520004</v>
+        <v>14.15670995345017</v>
       </c>
       <c r="C9">
-        <v>14.66824630216526</v>
+        <v>7.290942388329628</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.371535822347594</v>
+        <v>10.57340197002837</v>
       </c>
       <c r="F9">
-        <v>73.14317927222339</v>
+        <v>26.02065165518261</v>
       </c>
       <c r="G9">
-        <v>2.12670369022035</v>
+        <v>20.79675734802188</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.69232960122212</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.36741305762344</v>
       </c>
       <c r="J9">
-        <v>12.54695304094905</v>
+        <v>5.809892123121505</v>
       </c>
       <c r="K9">
-        <v>17.86500229546216</v>
+        <v>11.3193414156245</v>
       </c>
       <c r="L9">
-        <v>3.406468717154946</v>
+        <v>8.400148885148321</v>
       </c>
       <c r="M9">
-        <v>9.446650636968528</v>
+        <v>11.27501195967707</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.47807235645423</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.94103859156528</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.47941103456351</v>
+        <v>15.40733143882705</v>
       </c>
       <c r="C10">
-        <v>16.19592205870319</v>
+        <v>7.253414672257712</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.048912710915237</v>
+        <v>10.80256801045774</v>
       </c>
       <c r="F10">
-        <v>78.71333550068303</v>
+        <v>26.84281369133946</v>
       </c>
       <c r="G10">
-        <v>2.101970200574899</v>
+        <v>21.0517110409372</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.587730014142844</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>14.16942114933921</v>
       </c>
       <c r="J10">
-        <v>13.19748881817074</v>
+        <v>5.933733213229806</v>
       </c>
       <c r="K10">
-        <v>19.74256307128809</v>
+        <v>12.13124711446282</v>
       </c>
       <c r="L10">
-        <v>3.6606076764557</v>
+        <v>8.699272946261843</v>
       </c>
       <c r="M10">
-        <v>10.10021398476942</v>
+        <v>11.89757785630235</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.20957210643769</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.86125336836753</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.39990866590573</v>
+        <v>15.94492449778264</v>
       </c>
       <c r="C11">
-        <v>16.8718700757502</v>
+        <v>7.237528112361363</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.352177159886104</v>
+        <v>10.91037002149433</v>
       </c>
       <c r="F11">
-        <v>81.21437264481028</v>
+        <v>27.2292975024196</v>
       </c>
       <c r="G11">
-        <v>2.090650465503942</v>
+        <v>21.19270373835582</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.545052193326319</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>14.08979928351664</v>
       </c>
       <c r="J11">
-        <v>13.49369908266952</v>
+        <v>5.989092746875622</v>
       </c>
       <c r="K11">
-        <v>20.57549264802557</v>
+        <v>12.48302367929012</v>
       </c>
       <c r="L11">
-        <v>3.776255563239212</v>
+        <v>8.835395951498738</v>
       </c>
       <c r="M11">
-        <v>10.53910468381818</v>
+        <v>12.17357863410215</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>12.0898277708238</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.83689673119384</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.74651051103675</v>
+        <v>16.14403189297121</v>
       </c>
       <c r="C12">
-        <v>17.12548961479706</v>
+        <v>7.231685276473235</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.466425714220684</v>
+        <v>10.95168295474133</v>
       </c>
       <c r="F12">
-        <v>82.15754857031938</v>
+        <v>27.37736235752248</v>
       </c>
       <c r="G12">
-        <v>2.086343767786188</v>
+        <v>21.24981420824569</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.529629696413812</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>14.06123406730691</v>
       </c>
       <c r="J12">
-        <v>13.60603767486272</v>
+        <v>6.009909491715172</v>
       </c>
       <c r="K12">
-        <v>20.88829587403376</v>
+        <v>12.61368852571586</v>
       </c>
       <c r="L12">
-        <v>3.820149619082509</v>
+        <v>8.886909096913595</v>
       </c>
       <c r="M12">
-        <v>10.70406946454511</v>
+        <v>12.27697888261082</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>12.04481606325324</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.82948346070405</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.67194353730092</v>
+        <v>16.1013486535349</v>
       </c>
       <c r="C13">
-        <v>17.07096568125495</v>
+        <v>7.232935893902226</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.441844410837509</v>
+        <v>10.94276398108703</v>
       </c>
       <c r="F13">
-        <v>81.9545768318721</v>
+        <v>27.3453991201891</v>
       </c>
       <c r="G13">
-        <v>2.087272372754014</v>
+        <v>21.2373471949164</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.532917800778918</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>14.06731417728091</v>
       </c>
       <c r="J13">
-        <v>13.58183353762726</v>
+        <v>6.005432854617903</v>
       </c>
       <c r="K13">
-        <v>20.82103627123965</v>
+        <v>12.5856609534816</v>
       </c>
       <c r="L13">
-        <v>3.810690077728813</v>
+        <v>8.875816939423972</v>
       </c>
       <c r="M13">
-        <v>10.66859137892435</v>
+        <v>12.25476052979083</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>12.0544955284533</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.83099802910992</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.42846056365595</v>
+        <v>15.96139450516508</v>
       </c>
       <c r="C14">
-        <v>16.89278011682737</v>
+        <v>7.237043934263909</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.361587550672619</v>
+        <v>10.91375914575928</v>
       </c>
       <c r="F14">
-        <v>81.2920410601896</v>
+        <v>27.24144505203521</v>
       </c>
       <c r="G14">
-        <v>2.090296620521093</v>
+        <v>21.19732704605017</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.543768372603099</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>14.08741692482467</v>
       </c>
       <c r="J14">
-        <v>13.50293696755187</v>
+        <v>5.990808328068397</v>
       </c>
       <c r="K14">
-        <v>20.60127664293252</v>
+        <v>12.49382465372337</v>
       </c>
       <c r="L14">
-        <v>3.779864131789833</v>
+        <v>8.839634868554649</v>
       </c>
       <c r="M14">
-        <v>10.55269943466875</v>
+        <v>12.18210819892925</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>12.08611802869241</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.83625001833211</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.27907760223501</v>
+        <v>15.87508785332239</v>
       </c>
       <c r="C15">
-        <v>16.78334313924805</v>
+        <v>7.239582848134842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.312354778724117</v>
+        <v>10.89605613401869</v>
       </c>
       <c r="F15">
-        <v>80.88573809482151</v>
+        <v>27.17799066454412</v>
       </c>
       <c r="G15">
-        <v>2.092146097099448</v>
+        <v>21.17330138106256</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.550511883599036</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>14.09993953795753</v>
       </c>
       <c r="J15">
-        <v>13.45463714863553</v>
+        <v>5.981831096601741</v>
       </c>
       <c r="K15">
-        <v>20.46634214697526</v>
+        <v>12.43724033381713</v>
       </c>
       <c r="L15">
-        <v>3.760998566765777</v>
+        <v>8.817466751724655</v>
       </c>
       <c r="M15">
-        <v>10.48156048412185</v>
+        <v>12.13745915630996</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>12.10553071389155</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.83970554405848</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.41895386547316</v>
+        <v>15.37157131148365</v>
       </c>
       <c r="C16">
-        <v>16.15139642797913</v>
+        <v>7.254476963197098</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.029004185653106</v>
+        <v>10.79559267143724</v>
       </c>
       <c r="F16">
-        <v>78.54928889396233</v>
+        <v>26.81780011002826</v>
       </c>
       <c r="G16">
-        <v>2.102707752829103</v>
+        <v>21.04301093907065</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.590620612148896</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.17484186406269</v>
       </c>
       <c r="J16">
-        <v>13.17814675421454</v>
+        <v>5.930095142675511</v>
       </c>
       <c r="K16">
-        <v>19.68773839334042</v>
+        <v>12.10790241436538</v>
       </c>
       <c r="L16">
-        <v>3.653058367913346</v>
+        <v>8.690374439576152</v>
       </c>
       <c r="M16">
-        <v>10.0713429776349</v>
+        <v>11.87938853319145</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.21744491767217</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.86309328974547</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.8873152667273</v>
+        <v>15.05468388808706</v>
       </c>
       <c r="C17">
-        <v>15.7591060678963</v>
+        <v>7.263919341526915</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.8539966268822</v>
+        <v>10.73485738250573</v>
       </c>
       <c r="F17">
-        <v>77.10803070141</v>
+        <v>26.59997227520326</v>
       </c>
       <c r="G17">
-        <v>2.109162663032628</v>
+        <v>20.96957966916069</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.616505355689295</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.22352539490088</v>
       </c>
       <c r="J17">
-        <v>13.00868252046181</v>
+        <v>5.898102131824348</v>
       </c>
       <c r="K17">
-        <v>19.20495032832541</v>
+        <v>11.90134945066317</v>
       </c>
       <c r="L17">
-        <v>3.586913306459407</v>
+        <v>8.612390317836773</v>
       </c>
       <c r="M17">
-        <v>9.817185541914258</v>
+        <v>11.71916494309676</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.28670640015233</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.8805642914457</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.5995443300294</v>
+        <v>14.8694683176401</v>
       </c>
       <c r="C18">
-        <v>15.53165636336365</v>
+        <v>7.269461711107285</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.752869296786841</v>
+        <v>10.70025975628978</v>
       </c>
       <c r="F18">
-        <v>76.27590036980621</v>
+        <v>26.47586300355743</v>
       </c>
       <c r="G18">
-        <v>2.112869634867483</v>
+        <v>20.9296917179434</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.631853139164276</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.25250474294414</v>
       </c>
       <c r="J18">
-        <v>12.91122775462203</v>
+        <v>5.879609049926563</v>
       </c>
       <c r="K18">
-        <v>18.9252389444761</v>
+        <v>11.78089316456351</v>
       </c>
       <c r="L18">
-        <v>3.548865520249601</v>
+        <v>8.567542905539236</v>
       </c>
       <c r="M18">
-        <v>9.669996338550856</v>
+        <v>11.62633415072298</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.3267701953934</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.89173108868015</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.50993887262063</v>
+        <v>14.80624969157108</v>
       </c>
       <c r="C19">
-        <v>15.45432340144643</v>
+        <v>7.27135731179402</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.718546182607005</v>
+        <v>10.6886038624628</v>
       </c>
       <c r="F19">
-        <v>75.99359283602809</v>
+        <v>26.43404683135956</v>
       </c>
       <c r="G19">
-        <v>2.114124056190766</v>
+        <v>20.91658563159305</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.637127584997941</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.2624821327083</v>
       </c>
       <c r="J19">
-        <v>12.87823065811897</v>
+        <v>5.873332084659415</v>
       </c>
       <c r="K19">
-        <v>18.83017378358827</v>
+        <v>11.73982564261121</v>
       </c>
       <c r="L19">
-        <v>3.535980050880069</v>
+        <v>8.552360831310962</v>
       </c>
       <c r="M19">
-        <v>9.619980464731324</v>
+        <v>11.5947899892273</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.34037435449422</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.89570117147413</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.94407081299121</v>
+        <v>15.08872217889828</v>
       </c>
       <c r="C20">
-        <v>15.80105126814787</v>
+        <v>7.26290264005049</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.87267418295068</v>
+        <v>10.74128815899949</v>
       </c>
       <c r="F20">
-        <v>77.26177679498029</v>
+        <v>26.62303893966704</v>
       </c>
       <c r="G20">
-        <v>2.10847618832474</v>
+        <v>20.97715263886084</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.61370208291355</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.21824115363079</v>
       </c>
       <c r="J20">
-        <v>13.02671972408975</v>
+        <v>5.901517364161577</v>
       </c>
       <c r="K20">
-        <v>19.25655056318341</v>
+        <v>11.92350855815489</v>
       </c>
       <c r="L20">
-        <v>3.593954222218383</v>
+        <v>8.620691441548416</v>
       </c>
       <c r="M20">
-        <v>9.844343169128857</v>
+        <v>11.73629142354775</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.27931004861905</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.87858810142361</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.5000270852342</v>
+        <v>16.00262338110594</v>
       </c>
       <c r="C21">
-        <v>16.94517785353253</v>
+        <v>7.235832584039366</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.385175930072389</v>
+        <v>10.92226541670926</v>
       </c>
       <c r="F21">
-        <v>81.48674219895338</v>
+        <v>27.27193308057859</v>
       </c>
       <c r="G21">
-        <v>2.089408964064514</v>
+        <v>21.20898006866463</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.540560973037188</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>14.08146852761043</v>
       </c>
       <c r="J21">
-        <v>13.52610497589725</v>
+        <v>5.995107936072749</v>
       </c>
       <c r="K21">
-        <v>20.66589227928601</v>
+        <v>12.52086840113984</v>
       </c>
       <c r="L21">
-        <v>3.788914886291386</v>
+        <v>8.850263646341046</v>
       </c>
       <c r="M21">
-        <v>10.58677078811434</v>
+        <v>12.20347879150965</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>12.07682079633699</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.83465750268013</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.50572176902791</v>
+        <v>16.57388854827832</v>
       </c>
       <c r="C22">
-        <v>17.67947701086102</v>
+        <v>7.219150872667095</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.716756697848696</v>
+        <v>11.04339477000545</v>
       </c>
       <c r="F22">
-        <v>84.22578185421676</v>
+        <v>27.70596293772809</v>
       </c>
       <c r="G22">
-        <v>2.076823749556613</v>
+        <v>21.38222143392529</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.497081579261252</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>14.00136585842086</v>
       </c>
       <c r="J22">
-        <v>13.85356053888022</v>
+        <v>6.055416994677974</v>
       </c>
       <c r="K22">
-        <v>21.57203787289123</v>
+        <v>12.89643736829846</v>
       </c>
       <c r="L22">
-        <v>3.916976663932629</v>
+        <v>9.000089023949625</v>
       </c>
       <c r="M22">
-        <v>11.06496126098605</v>
+        <v>12.50228315972718</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.94641684744229</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.81654148849019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.96982448164547</v>
+        <v>16.27136234097131</v>
       </c>
       <c r="C23">
-        <v>17.28865397028762</v>
+        <v>7.227960845603253</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.540048446609195</v>
+        <v>10.97849175430996</v>
       </c>
       <c r="F23">
-        <v>82.76559455613402</v>
+        <v>27.47343066888795</v>
       </c>
       <c r="G23">
-        <v>2.08355593684594</v>
+        <v>21.28773375292904</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.519880256797386</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>14.04323945261792</v>
       </c>
       <c r="J23">
-        <v>13.6786403740426</v>
+        <v>6.023309388892322</v>
       </c>
       <c r="K23">
-        <v>21.08961059831272</v>
+        <v>12.69735170975691</v>
       </c>
       <c r="L23">
-        <v>3.848532884331188</v>
+        <v>8.920156714303021</v>
       </c>
       <c r="M23">
-        <v>10.81028264021354</v>
+        <v>12.3434263585748</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>12.01584290568864</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.82520950350909</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.91841703584254</v>
+        <v>15.07334291677541</v>
       </c>
       <c r="C24">
-        <v>15.78209384141748</v>
+        <v>7.263361936460893</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.864231665998092</v>
+        <v>10.73837980699173</v>
       </c>
       <c r="F24">
-        <v>77.19227924438363</v>
+        <v>26.61260699695546</v>
       </c>
       <c r="G24">
-        <v>2.108786555377761</v>
+        <v>20.97372165544364</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.614967992612206</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.2206270800853</v>
       </c>
       <c r="J24">
-        <v>13.01856519935564</v>
+        <v>5.899973648223914</v>
       </c>
       <c r="K24">
-        <v>19.23322882582998</v>
+        <v>11.91349573862904</v>
       </c>
       <c r="L24">
-        <v>3.590771093782953</v>
+        <v>8.616938541818589</v>
       </c>
       <c r="M24">
-        <v>9.832068560807848</v>
+        <v>11.72855076617862</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.28265317685299</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.87947804768835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.9580044966212</v>
+        <v>13.66814550921678</v>
       </c>
       <c r="C25">
-        <v>14.0865752158648</v>
+        <v>7.305796706466674</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.11720280030684</v>
+        <v>10.49228994729842</v>
       </c>
       <c r="F25">
-        <v>71.05883516695862</v>
+        <v>25.72948368605325</v>
       </c>
       <c r="G25">
-        <v>2.135811326943945</v>
+        <v>20.72415915262398</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.734989231848676</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.44905961222057</v>
       </c>
       <c r="J25">
-        <v>12.30693823319037</v>
+        <v>5.763464235010786</v>
       </c>
       <c r="K25">
-        <v>17.15231216332691</v>
+        <v>11.00495149679856</v>
       </c>
       <c r="L25">
-        <v>3.443078417852331</v>
+        <v>8.290322504293165</v>
       </c>
       <c r="M25">
-        <v>9.374287999034747</v>
+        <v>11.03994215537131</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.57915428384551</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.98039774507552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.53488960784628</v>
+        <v>11.28926650179036</v>
       </c>
       <c r="C2">
-        <v>7.340613970215433</v>
+        <v>10.96242661753718</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.3228491168915</v>
+        <v>16.73969966173705</v>
       </c>
       <c r="F2">
-        <v>25.1210332448421</v>
+        <v>37.16767168249807</v>
       </c>
       <c r="G2">
-        <v>20.61182180249214</v>
+        <v>30.67933071208068</v>
       </c>
       <c r="H2">
-        <v>8.837260891937643</v>
+        <v>14.92609774791113</v>
       </c>
       <c r="I2">
-        <v>14.64634302936049</v>
+        <v>24.15558510300462</v>
       </c>
       <c r="J2">
-        <v>5.660194668559799</v>
+        <v>7.897787199143716</v>
       </c>
       <c r="K2">
-        <v>10.28284525743908</v>
+        <v>7.794190770763451</v>
       </c>
       <c r="L2">
-        <v>8.051796519179263</v>
+        <v>12.72427903407528</v>
       </c>
       <c r="M2">
-        <v>10.51452087495784</v>
+        <v>15.31715617436726</v>
       </c>
       <c r="N2">
-        <v>12.80542283252494</v>
+        <v>19.67123387130808</v>
       </c>
       <c r="O2">
-        <v>14.08782854663441</v>
+        <v>22.9451449012906</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.70463607163218</v>
+        <v>11.06269475002525</v>
       </c>
       <c r="C3">
-        <v>7.366403057650493</v>
+        <v>10.97528658896444</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.2156431945051</v>
+        <v>16.75744187384664</v>
       </c>
       <c r="F3">
-        <v>24.73598735177278</v>
+        <v>37.20931614230373</v>
       </c>
       <c r="G3">
-        <v>20.57724989664276</v>
+        <v>30.78189208955077</v>
       </c>
       <c r="H3">
-        <v>8.914736606086118</v>
+        <v>14.96878385329022</v>
       </c>
       <c r="I3">
-        <v>14.79690615734995</v>
+        <v>24.23845183306011</v>
       </c>
       <c r="J3">
-        <v>5.588612896391778</v>
+        <v>7.877528296982896</v>
       </c>
       <c r="K3">
-        <v>9.761180696475718</v>
+        <v>7.627451308935091</v>
       </c>
       <c r="L3">
-        <v>7.892221854066308</v>
+        <v>12.72171665508596</v>
       </c>
       <c r="M3">
-        <v>10.1490777233609</v>
+        <v>15.27541032610845</v>
       </c>
       <c r="N3">
-        <v>12.9639574409059</v>
+        <v>19.72179260904088</v>
       </c>
       <c r="O3">
-        <v>14.17969294287698</v>
+        <v>23.01998860955282</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.16393082938625</v>
+        <v>10.9227486760521</v>
       </c>
       <c r="C4">
-        <v>7.383308948433223</v>
+        <v>10.98371829363537</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.15366379956576</v>
+        <v>16.77053924205205</v>
       </c>
       <c r="F4">
-        <v>24.51338329106118</v>
+        <v>37.24229200869352</v>
       </c>
       <c r="G4">
-        <v>20.57544376789876</v>
+        <v>30.85213975824174</v>
       </c>
       <c r="H4">
-        <v>8.966180229037429</v>
+        <v>14.99679738121148</v>
       </c>
       <c r="I4">
-        <v>14.89727812820465</v>
+        <v>24.29285457851265</v>
       </c>
       <c r="J4">
-        <v>5.54391966691978</v>
+        <v>7.864820232293053</v>
       </c>
       <c r="K4">
-        <v>9.425367910258842</v>
+        <v>7.524026238466732</v>
       </c>
       <c r="L4">
-        <v>7.795564593143977</v>
+        <v>12.721733751121</v>
       </c>
       <c r="M4">
-        <v>9.920909744954045</v>
+        <v>15.25159923739465</v>
       </c>
       <c r="N4">
-        <v>13.06393055158457</v>
+        <v>19.75436840109297</v>
       </c>
       <c r="O4">
-        <v>14.2449866545065</v>
+        <v>23.06962885857399</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.93578078991979</v>
+        <v>10.86558749655146</v>
       </c>
       <c r="C5">
-        <v>7.390466160737925</v>
+        <v>10.98728934480181</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.12938491213701</v>
+        <v>16.77643144632198</v>
       </c>
       <c r="F5">
-        <v>24.42618851847897</v>
+        <v>37.25759232707482</v>
       </c>
       <c r="G5">
-        <v>20.57942394046409</v>
+        <v>30.88259131990322</v>
       </c>
       <c r="H5">
-        <v>8.988096170755759</v>
+        <v>15.00866732322333</v>
       </c>
       <c r="I5">
-        <v>14.94011844101243</v>
+        <v>24.31591045733606</v>
       </c>
       <c r="J5">
-        <v>5.525527518003871</v>
+        <v>7.859574517392478</v>
       </c>
       <c r="K5">
-        <v>9.284701586698512</v>
+        <v>7.481672532547094</v>
       </c>
       <c r="L5">
-        <v>7.756554320522918</v>
+        <v>12.72214218590423</v>
       </c>
       <c r="M5">
-        <v>9.827117103237397</v>
+        <v>15.24236052726324</v>
       </c>
       <c r="N5">
-        <v>13.1053423069635</v>
+        <v>19.76802968813828</v>
       </c>
       <c r="O5">
-        <v>14.27375580561523</v>
+        <v>23.09078448979625</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.89742414865911</v>
+        <v>10.85609023521748</v>
       </c>
       <c r="C6">
-        <v>7.391670752108036</v>
+        <v>10.98789048363672</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.12541278863559</v>
+        <v>16.7774433802884</v>
       </c>
       <c r="F6">
-        <v>24.41192345142065</v>
+        <v>37.26024540795787</v>
       </c>
       <c r="G6">
-        <v>20.58036467599554</v>
+        <v>30.88775788177728</v>
       </c>
       <c r="H6">
-        <v>8.991792199238295</v>
+        <v>15.01066576700243</v>
       </c>
       <c r="I6">
-        <v>14.94734754070903</v>
+        <v>24.31979241852303</v>
       </c>
       <c r="J6">
-        <v>5.522462900648051</v>
+        <v>7.858699435807477</v>
       </c>
       <c r="K6">
-        <v>9.261116008090225</v>
+        <v>7.474628895015342</v>
       </c>
       <c r="L6">
-        <v>7.750100883882719</v>
+        <v>12.72223429659181</v>
       </c>
       <c r="M6">
-        <v>9.811498149627907</v>
+        <v>15.24085468678746</v>
       </c>
       <c r="N6">
-        <v>13.11225956733225</v>
+        <v>19.77032150141591</v>
       </c>
       <c r="O6">
-        <v>14.27866133907627</v>
+        <v>23.09435334359332</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.16088557473934</v>
+        <v>10.92197821203442</v>
       </c>
       <c r="C7">
-        <v>7.38340439011258</v>
+        <v>10.98376590671204</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.15333239197687</v>
+        <v>16.7706164585091</v>
       </c>
       <c r="F7">
-        <v>24.51219305674409</v>
+        <v>37.24249081371674</v>
       </c>
       <c r="G7">
-        <v>20.57547857600702</v>
+        <v>30.85254305470221</v>
       </c>
       <c r="H7">
-        <v>8.966471967207003</v>
+        <v>14.99695562361903</v>
       </c>
       <c r="I7">
-        <v>14.89784811139568</v>
+        <v>24.29316192864512</v>
       </c>
       <c r="J7">
-        <v>5.543672340283766</v>
+        <v>7.864749757585108</v>
       </c>
       <c r="K7">
-        <v>9.423486183712587</v>
+        <v>7.523455804908763</v>
       </c>
       <c r="L7">
-        <v>7.795036894504413</v>
+        <v>12.72173763193354</v>
       </c>
       <c r="M7">
-        <v>9.919647920787977</v>
+        <v>15.25147275172804</v>
       </c>
       <c r="N7">
-        <v>13.06448631138627</v>
+        <v>19.75455107615937</v>
       </c>
       <c r="O7">
-        <v>14.24536598931597</v>
+        <v>23.06991041815874</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.25501748416315</v>
+        <v>11.21136219324522</v>
       </c>
       <c r="C8">
-        <v>7.349282786497664</v>
+        <v>10.96674979052834</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.28509377455272</v>
+        <v>16.74536033435913</v>
       </c>
       <c r="F8">
-        <v>24.98543173116411</v>
+        <v>37.18049379270564</v>
       </c>
       <c r="G8">
-        <v>20.59577193102447</v>
+        <v>30.71318158492385</v>
       </c>
       <c r="H8">
-        <v>8.863157178681291</v>
+        <v>14.9404418095407</v>
       </c>
       <c r="I8">
-        <v>14.69657811686128</v>
+        <v>24.18342688545322</v>
       </c>
       <c r="J8">
-        <v>5.635671491472076</v>
+        <v>7.890858105187612</v>
       </c>
       <c r="K8">
-        <v>10.10623699508698</v>
+        <v>7.736949113834308</v>
       </c>
       <c r="L8">
-        <v>7.996528227628048</v>
+        <v>12.723066399871</v>
       </c>
       <c r="M8">
-        <v>10.38938131137633</v>
+        <v>15.30238830543714</v>
       </c>
       <c r="N8">
-        <v>12.85954536040786</v>
+        <v>19.68834906620105</v>
       </c>
       <c r="O8">
-        <v>14.1176134956199</v>
+        <v>22.97018598952621</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.15670995345017</v>
+        <v>11.76900721680998</v>
       </c>
       <c r="C9">
-        <v>7.290942388329628</v>
+        <v>10.93761450124551</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.57340197002837</v>
+        <v>16.71327969233167</v>
       </c>
       <c r="F9">
-        <v>26.02065165518261</v>
+        <v>37.11765702685906</v>
       </c>
       <c r="G9">
-        <v>20.79675734802188</v>
+        <v>30.49779369566866</v>
       </c>
       <c r="H9">
-        <v>8.69232960122212</v>
+        <v>14.84390823205177</v>
       </c>
       <c r="I9">
-        <v>14.36741305762344</v>
+        <v>23.99615596018013</v>
       </c>
       <c r="J9">
-        <v>5.809892123121505</v>
+        <v>7.939898014514323</v>
       </c>
       <c r="K9">
-        <v>11.3193414156245</v>
+        <v>8.14495855158974</v>
       </c>
       <c r="L9">
-        <v>8.400148885148321</v>
+        <v>12.73821939007343</v>
       </c>
       <c r="M9">
-        <v>11.27501195967707</v>
+        <v>15.41637955702833</v>
       </c>
       <c r="N9">
-        <v>12.47807235645423</v>
+        <v>19.57063976008019</v>
       </c>
       <c r="O9">
-        <v>13.94103859156528</v>
+        <v>22.80387358737354</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.40733143882705</v>
+        <v>12.16856460275637</v>
       </c>
       <c r="C10">
-        <v>7.253414672257712</v>
+        <v>10.91876662692384</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.80256801045774</v>
+        <v>16.70029176864468</v>
       </c>
       <c r="F10">
-        <v>26.84281369133946</v>
+        <v>37.1072368067172</v>
       </c>
       <c r="G10">
-        <v>21.0517110409372</v>
+        <v>30.37507802134113</v>
       </c>
       <c r="H10">
-        <v>8.587730014142844</v>
+        <v>14.78166223871408</v>
       </c>
       <c r="I10">
-        <v>14.16942114933921</v>
+        <v>23.87554908847607</v>
       </c>
       <c r="J10">
-        <v>5.933733213229806</v>
+        <v>7.974581320685642</v>
       </c>
       <c r="K10">
-        <v>12.13124711446282</v>
+        <v>8.435263073428272</v>
       </c>
       <c r="L10">
-        <v>8.699272946261843</v>
+        <v>12.75689920073207</v>
       </c>
       <c r="M10">
-        <v>11.89757785630235</v>
+        <v>15.50832742926261</v>
       </c>
       <c r="N10">
-        <v>12.20957210643769</v>
+        <v>19.49147592191988</v>
       </c>
       <c r="O10">
-        <v>13.86125336836753</v>
+        <v>22.69951428127927</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94492449778264</v>
+        <v>12.3473198596898</v>
       </c>
       <c r="C11">
-        <v>7.237528112361363</v>
+        <v>10.91074281936277</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.91037002149433</v>
+        <v>16.69666760272532</v>
       </c>
       <c r="F11">
-        <v>27.2292975024196</v>
+        <v>37.11023199706392</v>
       </c>
       <c r="G11">
-        <v>21.19270373835582</v>
+        <v>30.32701135622992</v>
       </c>
       <c r="H11">
-        <v>8.545052193326319</v>
+        <v>14.75522196603718</v>
       </c>
       <c r="I11">
-        <v>14.08979928351664</v>
+        <v>23.82436121886223</v>
       </c>
       <c r="J11">
-        <v>5.989092746875622</v>
+        <v>7.990060801014165</v>
       </c>
       <c r="K11">
-        <v>12.48302367929012</v>
+        <v>8.564703584345589</v>
       </c>
       <c r="L11">
-        <v>8.835395951498738</v>
+        <v>12.76701143540255</v>
       </c>
       <c r="M11">
-        <v>12.17357863410215</v>
+        <v>15.55183992130519</v>
       </c>
       <c r="N11">
-        <v>12.0898277708238</v>
+        <v>19.45703687073727</v>
       </c>
       <c r="O11">
-        <v>13.83689673119384</v>
+        <v>22.65591043751323</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.14403189297121</v>
+        <v>12.41451510328622</v>
       </c>
       <c r="C12">
-        <v>7.231685276473235</v>
+        <v>10.90778315337233</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.95168295474133</v>
+        <v>16.69562236404706</v>
       </c>
       <c r="F12">
-        <v>27.37736235752248</v>
+        <v>37.11247511646272</v>
       </c>
       <c r="G12">
-        <v>21.24981420824569</v>
+        <v>30.3099285176699</v>
       </c>
       <c r="H12">
-        <v>8.529629696413812</v>
+        <v>14.74547893762236</v>
       </c>
       <c r="I12">
-        <v>14.06123406730691</v>
+        <v>23.80550591351937</v>
       </c>
       <c r="J12">
-        <v>6.009909491715172</v>
+        <v>7.995878991782061</v>
       </c>
       <c r="K12">
-        <v>12.61368852571586</v>
+        <v>8.613298823419234</v>
       </c>
       <c r="L12">
-        <v>8.886909096913595</v>
+        <v>12.77107054232747</v>
       </c>
       <c r="M12">
-        <v>12.27697888261082</v>
+        <v>15.56855052689117</v>
       </c>
       <c r="N12">
-        <v>12.04481606325324</v>
+        <v>19.44422084689496</v>
       </c>
       <c r="O12">
-        <v>13.82948346070405</v>
+        <v>22.63995534118778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.1013486535349</v>
+        <v>12.40006640819022</v>
       </c>
       <c r="C13">
-        <v>7.232935893902226</v>
+        <v>10.9084170722104</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.94276398108703</v>
+        <v>16.69583294638473</v>
       </c>
       <c r="F13">
-        <v>27.3453991201891</v>
+        <v>37.11194276371167</v>
       </c>
       <c r="G13">
-        <v>21.2373471949164</v>
+        <v>30.31355779429196</v>
       </c>
       <c r="H13">
-        <v>8.532917800778918</v>
+        <v>14.74756530092462</v>
       </c>
       <c r="I13">
-        <v>14.06731417728091</v>
+        <v>23.80954324323888</v>
       </c>
       <c r="J13">
-        <v>6.005432854617903</v>
+        <v>7.994627888223288</v>
       </c>
       <c r="K13">
-        <v>12.5856609534816</v>
+        <v>8.602852368280169</v>
       </c>
       <c r="L13">
-        <v>8.875816939423972</v>
+        <v>12.7701861587444</v>
       </c>
       <c r="M13">
-        <v>12.25476052979083</v>
+        <v>15.56494136484452</v>
       </c>
       <c r="N13">
-        <v>12.0544955284533</v>
+        <v>19.44697100089793</v>
       </c>
       <c r="O13">
-        <v>13.83099802910992</v>
+        <v>22.64336679157729</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96139450516508</v>
+        <v>12.35285833172809</v>
       </c>
       <c r="C14">
-        <v>7.237043934263909</v>
+        <v>10.91049774901476</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.91375914575928</v>
+        <v>16.69657506144955</v>
       </c>
       <c r="F14">
-        <v>27.24144505203521</v>
+        <v>37.11039433784586</v>
       </c>
       <c r="G14">
-        <v>21.19732704605017</v>
+        <v>30.32558349629031</v>
       </c>
       <c r="H14">
-        <v>8.543768372603099</v>
+        <v>14.75441500573504</v>
       </c>
       <c r="I14">
-        <v>14.08741692482467</v>
+        <v>23.82279939261225</v>
       </c>
       <c r="J14">
-        <v>5.990808328068397</v>
+        <v>7.990540343852437</v>
       </c>
       <c r="K14">
-        <v>12.49382465372337</v>
+        <v>8.568710225328852</v>
       </c>
       <c r="L14">
-        <v>8.839634868554649</v>
+        <v>12.76734078862529</v>
       </c>
       <c r="M14">
-        <v>12.18210819892925</v>
+        <v>15.55321008791145</v>
       </c>
       <c r="N14">
-        <v>12.08611802869241</v>
+        <v>19.45597797853003</v>
       </c>
       <c r="O14">
-        <v>13.83625001833211</v>
+        <v>22.65458664285369</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.87508785332239</v>
+        <v>12.32387568286604</v>
       </c>
       <c r="C15">
-        <v>7.239582848134842</v>
+        <v>10.91178247252442</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.89605613401869</v>
+        <v>16.6970721932344</v>
       </c>
       <c r="F15">
-        <v>27.17799066454412</v>
+        <v>37.10959018086731</v>
       </c>
       <c r="G15">
-        <v>21.17330138106256</v>
+        <v>30.33309540610923</v>
       </c>
       <c r="H15">
-        <v>8.550511883599036</v>
+        <v>14.75864571056036</v>
       </c>
       <c r="I15">
-        <v>14.09993953795753</v>
+        <v>23.83098797577394</v>
       </c>
       <c r="J15">
-        <v>5.981831096601741</v>
+        <v>7.988030912748968</v>
       </c>
       <c r="K15">
-        <v>12.43724033381713</v>
+        <v>8.547741080184396</v>
       </c>
       <c r="L15">
-        <v>8.817466751724655</v>
+        <v>12.7656277744037</v>
       </c>
       <c r="M15">
-        <v>12.13745915630996</v>
+        <v>15.54605446404867</v>
       </c>
       <c r="N15">
-        <v>12.10553071389155</v>
+        <v>19.46152432642133</v>
       </c>
       <c r="O15">
-        <v>13.83970554405848</v>
+        <v>22.66153163670486</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.37157131148365</v>
+        <v>12.15681654644177</v>
       </c>
       <c r="C16">
-        <v>7.254476963197098</v>
+        <v>10.91930204360371</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.79559267143724</v>
+        <v>16.70057446991938</v>
       </c>
       <c r="F16">
-        <v>26.81780011002826</v>
+        <v>37.1071964420547</v>
       </c>
       <c r="G16">
-        <v>21.04301093907065</v>
+        <v>30.37837569153902</v>
       </c>
       <c r="H16">
-        <v>8.590620612148896</v>
+        <v>14.78342788302176</v>
       </c>
       <c r="I16">
-        <v>14.17484186406269</v>
+        <v>23.87896829759323</v>
       </c>
       <c r="J16">
-        <v>5.930095142675511</v>
+        <v>7.973563642960362</v>
       </c>
       <c r="K16">
-        <v>12.10790241436538</v>
+        <v>8.42674724769908</v>
       </c>
       <c r="L16">
-        <v>8.690374439576152</v>
+        <v>12.75627063491648</v>
       </c>
       <c r="M16">
-        <v>11.87938853319145</v>
+        <v>15.50551693453227</v>
       </c>
       <c r="N16">
-        <v>12.21744491767217</v>
+        <v>19.49375817046716</v>
       </c>
       <c r="O16">
-        <v>13.86309328974547</v>
+        <v>22.70244178715343</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05468388808706</v>
+        <v>12.05351511149846</v>
       </c>
       <c r="C17">
-        <v>7.263919341526915</v>
+        <v>10.92405572952528</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.73485738250573</v>
+        <v>16.70330712721574</v>
       </c>
       <c r="F17">
-        <v>26.59997227520326</v>
+        <v>37.10770695628391</v>
       </c>
       <c r="G17">
-        <v>20.96957966916069</v>
+        <v>30.40814307847013</v>
       </c>
       <c r="H17">
-        <v>8.616505355689295</v>
+        <v>14.79911107809914</v>
       </c>
       <c r="I17">
-        <v>14.22352539490088</v>
+        <v>23.90934417588955</v>
       </c>
       <c r="J17">
-        <v>5.898102131824348</v>
+        <v>7.964611600138865</v>
       </c>
       <c r="K17">
-        <v>11.90134945066317</v>
+        <v>8.351817819774544</v>
       </c>
       <c r="L17">
-        <v>8.612390317836773</v>
+        <v>12.75094225386785</v>
       </c>
       <c r="M17">
-        <v>11.71916494309676</v>
+        <v>15.48107376835583</v>
       </c>
       <c r="N17">
-        <v>12.28670640015233</v>
+        <v>19.51393482640124</v>
       </c>
       <c r="O17">
-        <v>13.8805642914457</v>
+        <v>22.72853016449541</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.8694683176401</v>
+        <v>11.99381951358152</v>
       </c>
       <c r="C18">
-        <v>7.269461711107285</v>
+        <v>10.92684173011402</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.70025975628978</v>
+        <v>16.70509395439329</v>
       </c>
       <c r="F18">
-        <v>26.47586300355743</v>
+        <v>37.10872893209428</v>
       </c>
       <c r="G18">
-        <v>20.9296917179434</v>
+        <v>30.42599445772782</v>
       </c>
       <c r="H18">
-        <v>8.631853139164276</v>
+        <v>14.80830821421039</v>
       </c>
       <c r="I18">
-        <v>14.25250474294414</v>
+        <v>23.92716167171719</v>
       </c>
       <c r="J18">
-        <v>5.879609049926563</v>
+        <v>7.9594346016691</v>
       </c>
       <c r="K18">
-        <v>11.78089316456351</v>
+        <v>8.30847619443723</v>
       </c>
       <c r="L18">
-        <v>8.567542905539236</v>
+        <v>12.74802964320301</v>
       </c>
       <c r="M18">
-        <v>11.62633415072298</v>
+        <v>15.46717385296687</v>
       </c>
       <c r="N18">
-        <v>12.3267701953934</v>
+        <v>19.52568801392177</v>
       </c>
       <c r="O18">
-        <v>13.89173108868015</v>
+        <v>22.74389973046743</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.80624969157108</v>
+        <v>11.97356162650328</v>
       </c>
       <c r="C19">
-        <v>7.27135731179402</v>
+        <v>10.92779393021491</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.6886038624628</v>
+        <v>16.70573592054219</v>
       </c>
       <c r="F19">
-        <v>26.43404683135956</v>
+        <v>37.10920014232514</v>
       </c>
       <c r="G19">
-        <v>20.91658563159305</v>
+        <v>30.43216388963333</v>
       </c>
       <c r="H19">
-        <v>8.637127584997941</v>
+        <v>14.81145254609732</v>
       </c>
       <c r="I19">
-        <v>14.2624821327083</v>
+        <v>23.93325382078165</v>
       </c>
       <c r="J19">
-        <v>5.873332084659415</v>
+        <v>7.9576769671217</v>
       </c>
       <c r="K19">
-        <v>11.73982564261121</v>
+        <v>8.293760922134883</v>
       </c>
       <c r="L19">
-        <v>8.552360831310962</v>
+        <v>12.74706968219859</v>
       </c>
       <c r="M19">
-        <v>11.5947899892273</v>
+        <v>15.46249518143737</v>
       </c>
       <c r="N19">
-        <v>12.34037435449422</v>
+        <v>19.52969290652823</v>
       </c>
       <c r="O19">
-        <v>13.89570117147413</v>
+        <v>22.74916614842184</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.08872217889828</v>
+        <v>12.06454110802851</v>
       </c>
       <c r="C20">
-        <v>7.26290264005049</v>
+        <v>10.92354433227528</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.74128815899949</v>
+        <v>16.70299398080357</v>
       </c>
       <c r="F20">
-        <v>26.62303893966704</v>
+        <v>37.10757725326754</v>
       </c>
       <c r="G20">
-        <v>20.97715263886084</v>
+        <v>30.40489871450943</v>
       </c>
       <c r="H20">
-        <v>8.61370208291355</v>
+        <v>14.79742330306759</v>
       </c>
       <c r="I20">
-        <v>14.21824115363079</v>
+        <v>23.90607479451216</v>
       </c>
       <c r="J20">
-        <v>5.901517364161577</v>
+        <v>7.965567465286211</v>
       </c>
       <c r="K20">
-        <v>11.92350855815489</v>
+        <v>8.359819789445865</v>
       </c>
       <c r="L20">
-        <v>8.620691441548416</v>
+        <v>12.7514937406341</v>
       </c>
       <c r="M20">
-        <v>11.73629142354775</v>
+        <v>15.48365937772968</v>
       </c>
       <c r="N20">
-        <v>12.27931004861905</v>
+        <v>19.51177166475526</v>
       </c>
       <c r="O20">
-        <v>13.87858810142361</v>
+        <v>22.72571531466368</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.00262338110594</v>
+        <v>12.36673842048348</v>
       </c>
       <c r="C21">
-        <v>7.235832584039366</v>
+        <v>10.90988446854509</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.92226541670926</v>
+        <v>16.6963482162444</v>
       </c>
       <c r="F21">
-        <v>27.27193308057859</v>
+        <v>37.11081908346193</v>
       </c>
       <c r="G21">
-        <v>21.20898006866463</v>
+        <v>30.32202086155815</v>
       </c>
       <c r="H21">
-        <v>8.540560973037188</v>
+        <v>14.75239577503033</v>
       </c>
       <c r="I21">
-        <v>14.08146852761043</v>
+        <v>23.81889140098517</v>
       </c>
       <c r="J21">
-        <v>5.995107936072749</v>
+        <v>7.991742142181144</v>
       </c>
       <c r="K21">
-        <v>12.52086840113984</v>
+        <v>8.578750365478397</v>
       </c>
       <c r="L21">
-        <v>8.850263646341046</v>
+        <v>12.76817032501986</v>
       </c>
       <c r="M21">
-        <v>12.20347879150965</v>
+        <v>15.556649587228</v>
       </c>
       <c r="N21">
-        <v>12.07682079633699</v>
+        <v>19.45332630343254</v>
       </c>
       <c r="O21">
-        <v>13.83465750268013</v>
+        <v>22.65127598886714</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57388854827832</v>
+        <v>12.56132718215478</v>
       </c>
       <c r="C22">
-        <v>7.219150872667095</v>
+        <v>10.9014159677881</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.04339477000545</v>
+        <v>16.69391105545187</v>
       </c>
       <c r="F22">
-        <v>27.70596293772809</v>
+        <v>37.11939927832106</v>
       </c>
       <c r="G22">
-        <v>21.38222143392529</v>
+        <v>30.27437896920912</v>
       </c>
       <c r="H22">
-        <v>8.497081579261252</v>
+        <v>14.72453735821454</v>
       </c>
       <c r="I22">
-        <v>14.00136585842086</v>
+        <v>23.76499198652165</v>
       </c>
       <c r="J22">
-        <v>6.055416994677974</v>
+        <v>8.008594629271714</v>
       </c>
       <c r="K22">
-        <v>12.89643736829846</v>
+        <v>8.719361470075979</v>
       </c>
       <c r="L22">
-        <v>9.000089023949625</v>
+        <v>12.78040782715391</v>
       </c>
       <c r="M22">
-        <v>12.50228315972718</v>
+        <v>15.60570883354601</v>
       </c>
       <c r="N22">
-        <v>11.94641684744229</v>
+        <v>19.41644167999219</v>
       </c>
       <c r="O22">
-        <v>13.81654148849019</v>
+        <v>22.60587077217787</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.27136234097131</v>
+        <v>12.45775807291803</v>
       </c>
       <c r="C23">
-        <v>7.227960845603253</v>
+        <v>10.90589387820666</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.97849175430996</v>
+        <v>16.6950378491872</v>
       </c>
       <c r="F23">
-        <v>27.47343066888795</v>
+        <v>37.11422995470314</v>
       </c>
       <c r="G23">
-        <v>21.28773375292904</v>
+        <v>30.29920836753269</v>
       </c>
       <c r="H23">
-        <v>8.519880256797386</v>
+        <v>14.73926242427013</v>
       </c>
       <c r="I23">
-        <v>14.04323945261792</v>
+        <v>23.79347739146772</v>
       </c>
       <c r="J23">
-        <v>6.023309388892322</v>
+        <v>7.999623623675878</v>
       </c>
       <c r="K23">
-        <v>12.69735170975691</v>
+        <v>8.644554748842785</v>
       </c>
       <c r="L23">
-        <v>8.920156714303021</v>
+        <v>12.77375479679315</v>
       </c>
       <c r="M23">
-        <v>12.3434263585748</v>
+        <v>15.57940394149768</v>
       </c>
       <c r="N23">
-        <v>12.01584290568864</v>
+        <v>19.43600786910307</v>
       </c>
       <c r="O23">
-        <v>13.82520950350909</v>
+        <v>22.6298073686642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.07334291677541</v>
+        <v>12.05955720396664</v>
       </c>
       <c r="C24">
-        <v>7.263361936460893</v>
+        <v>10.92377536972808</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.73837980699173</v>
+        <v>16.70313488205689</v>
       </c>
       <c r="F24">
-        <v>26.61260699695546</v>
+        <v>37.10763362263545</v>
       </c>
       <c r="G24">
-        <v>20.97372165544364</v>
+        <v>30.40636319381879</v>
       </c>
       <c r="H24">
-        <v>8.614967992612206</v>
+        <v>14.79818578339225</v>
       </c>
       <c r="I24">
-        <v>14.2206270800853</v>
+        <v>23.90755177913555</v>
       </c>
       <c r="J24">
-        <v>5.899973648223914</v>
+        <v>7.965135413137165</v>
       </c>
       <c r="K24">
-        <v>11.91349573862904</v>
+        <v>8.35620291692258</v>
       </c>
       <c r="L24">
-        <v>8.616938541818589</v>
+        <v>12.75124394373406</v>
       </c>
       <c r="M24">
-        <v>11.72855076617862</v>
+        <v>15.48248994714604</v>
       </c>
       <c r="N24">
-        <v>12.28265317685299</v>
+        <v>19.51274915236317</v>
       </c>
       <c r="O24">
-        <v>13.87947804768835</v>
+        <v>22.72698675262697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66814550921678</v>
+        <v>11.6196434302052</v>
       </c>
       <c r="C25">
-        <v>7.305796706466674</v>
+        <v>10.94504554605289</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.49228994729842</v>
+        <v>16.72009579562479</v>
       </c>
       <c r="F25">
-        <v>25.72948368605325</v>
+        <v>37.1283715686927</v>
       </c>
       <c r="G25">
-        <v>20.72415915262398</v>
+        <v>30.54983828192622</v>
       </c>
       <c r="H25">
-        <v>8.734989231848676</v>
+        <v>14.86849686976521</v>
       </c>
       <c r="I25">
-        <v>14.44905961222057</v>
+        <v>24.04383289649484</v>
       </c>
       <c r="J25">
-        <v>5.763464235010786</v>
+        <v>7.926865613845786</v>
       </c>
       <c r="K25">
-        <v>11.00495149679856</v>
+        <v>8.03603834542321</v>
       </c>
       <c r="L25">
-        <v>8.290322504293165</v>
+        <v>12.732786846776</v>
       </c>
       <c r="M25">
-        <v>11.03994215537131</v>
+        <v>15.38407004436198</v>
       </c>
       <c r="N25">
-        <v>12.57915428384551</v>
+        <v>19.60119347348861</v>
       </c>
       <c r="O25">
-        <v>13.98039774507552</v>
+        <v>22.84573433354554</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.28926650179036</v>
+        <v>12.53488960784629</v>
       </c>
       <c r="C2">
-        <v>10.96242661753718</v>
+        <v>7.340613970215561</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.73969966173705</v>
+        <v>10.32284911689141</v>
       </c>
       <c r="F2">
-        <v>37.16767168249807</v>
+        <v>25.12103324484188</v>
       </c>
       <c r="G2">
-        <v>30.67933071208068</v>
+        <v>20.61182180249192</v>
       </c>
       <c r="H2">
-        <v>14.92609774791113</v>
+        <v>8.837260891937712</v>
       </c>
       <c r="I2">
-        <v>24.15558510300462</v>
+        <v>14.64634302936043</v>
       </c>
       <c r="J2">
-        <v>7.897787199143716</v>
+        <v>5.660194668559799</v>
       </c>
       <c r="K2">
-        <v>7.794190770763451</v>
+        <v>10.28284525743908</v>
       </c>
       <c r="L2">
-        <v>12.72427903407528</v>
+        <v>8.051796519179124</v>
       </c>
       <c r="M2">
-        <v>15.31715617436726</v>
+        <v>10.5145208749578</v>
       </c>
       <c r="N2">
-        <v>19.67123387130808</v>
+        <v>12.80542283252487</v>
       </c>
       <c r="O2">
-        <v>22.9451449012906</v>
+        <v>14.0878285466343</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.06269475002525</v>
+        <v>11.70463607163223</v>
       </c>
       <c r="C3">
-        <v>10.97528658896444</v>
+        <v>7.366403057650491</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.75744187384664</v>
+        <v>10.21564319450505</v>
       </c>
       <c r="F3">
-        <v>37.20931614230373</v>
+        <v>24.7359873517727</v>
       </c>
       <c r="G3">
-        <v>30.78189208955077</v>
+        <v>20.57724989664267</v>
       </c>
       <c r="H3">
-        <v>14.96878385329022</v>
+        <v>8.914736606086118</v>
       </c>
       <c r="I3">
-        <v>24.23845183306011</v>
+        <v>14.79690615734993</v>
       </c>
       <c r="J3">
-        <v>7.877528296982896</v>
+        <v>5.588612896391776</v>
       </c>
       <c r="K3">
-        <v>7.627451308935091</v>
+        <v>9.761180696475739</v>
       </c>
       <c r="L3">
-        <v>12.72171665508596</v>
+        <v>7.892221854066278</v>
       </c>
       <c r="M3">
-        <v>15.27541032610845</v>
+        <v>10.14907772336086</v>
       </c>
       <c r="N3">
-        <v>19.72179260904088</v>
+        <v>12.9639574409059</v>
       </c>
       <c r="O3">
-        <v>23.01998860955282</v>
+        <v>14.17969294287695</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.9227486760521</v>
+        <v>11.16393082938625</v>
       </c>
       <c r="C4">
-        <v>10.98371829363537</v>
+        <v>7.383308948433489</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.77053924205205</v>
+        <v>10.1536637995657</v>
       </c>
       <c r="F4">
-        <v>37.24229200869352</v>
+        <v>24.51338329106119</v>
       </c>
       <c r="G4">
-        <v>30.85213975824174</v>
+        <v>20.57544376789879</v>
       </c>
       <c r="H4">
-        <v>14.99679738121148</v>
+        <v>8.96618022903743</v>
       </c>
       <c r="I4">
-        <v>24.29285457851265</v>
+        <v>14.8972781282047</v>
       </c>
       <c r="J4">
-        <v>7.864820232293053</v>
+        <v>5.543919666919744</v>
       </c>
       <c r="K4">
-        <v>7.524026238466732</v>
+        <v>9.425367910258844</v>
       </c>
       <c r="L4">
-        <v>12.721733751121</v>
+        <v>7.795564593143846</v>
       </c>
       <c r="M4">
-        <v>15.25159923739465</v>
+        <v>9.920909744954026</v>
       </c>
       <c r="N4">
-        <v>19.75436840109297</v>
+        <v>13.06393055158457</v>
       </c>
       <c r="O4">
-        <v>23.06962885857399</v>
+        <v>14.24498665450651</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.86558749655146</v>
+        <v>10.93578078991979</v>
       </c>
       <c r="C5">
-        <v>10.98728934480181</v>
+        <v>7.390466160737924</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.77643144632198</v>
+        <v>10.12938491213701</v>
       </c>
       <c r="F5">
-        <v>37.25759232707482</v>
+        <v>24.42618851847904</v>
       </c>
       <c r="G5">
-        <v>30.88259131990322</v>
+        <v>20.57942394046423</v>
       </c>
       <c r="H5">
-        <v>15.00866732322333</v>
+        <v>8.988096170755766</v>
       </c>
       <c r="I5">
-        <v>24.31591045733606</v>
+        <v>14.94011844101245</v>
       </c>
       <c r="J5">
-        <v>7.859574517392478</v>
+        <v>5.525527518003806</v>
       </c>
       <c r="K5">
-        <v>7.481672532547094</v>
+        <v>9.284701586698517</v>
       </c>
       <c r="L5">
-        <v>12.72214218590423</v>
+        <v>7.756554320522892</v>
       </c>
       <c r="M5">
-        <v>15.24236052726324</v>
+        <v>9.827117103237404</v>
       </c>
       <c r="N5">
-        <v>19.76802968813828</v>
+        <v>13.1053423069635</v>
       </c>
       <c r="O5">
-        <v>23.09078448979625</v>
+        <v>14.27375580561525</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85609023521748</v>
+        <v>10.89742414865912</v>
       </c>
       <c r="C6">
-        <v>10.98789048363672</v>
+        <v>7.391670752108034</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.7774433802884</v>
+        <v>10.12541278863553</v>
       </c>
       <c r="F6">
-        <v>37.26024540795787</v>
+        <v>24.4119234514206</v>
       </c>
       <c r="G6">
-        <v>30.88775788177728</v>
+        <v>20.58036467599556</v>
       </c>
       <c r="H6">
-        <v>15.01066576700243</v>
+        <v>8.991792199238233</v>
       </c>
       <c r="I6">
-        <v>24.31979241852303</v>
+        <v>14.947347540709</v>
       </c>
       <c r="J6">
-        <v>7.858699435807477</v>
+        <v>5.522462900647989</v>
       </c>
       <c r="K6">
-        <v>7.474628895015342</v>
+        <v>9.261116008090267</v>
       </c>
       <c r="L6">
-        <v>12.72223429659181</v>
+        <v>7.75010088388268</v>
       </c>
       <c r="M6">
-        <v>15.24085468678746</v>
+        <v>9.811498149627878</v>
       </c>
       <c r="N6">
-        <v>19.77032150141591</v>
+        <v>13.11225956733221</v>
       </c>
       <c r="O6">
-        <v>23.09435334359332</v>
+        <v>14.27866133907624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.92197821203442</v>
+        <v>11.16088557473931</v>
       </c>
       <c r="C7">
-        <v>10.98376590671204</v>
+        <v>7.383404390112582</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.7706164585091</v>
+        <v>10.15333239197687</v>
       </c>
       <c r="F7">
-        <v>37.24249081371674</v>
+        <v>24.51219305674402</v>
       </c>
       <c r="G7">
-        <v>30.85254305470221</v>
+        <v>20.57547857600672</v>
       </c>
       <c r="H7">
-        <v>14.99695562361903</v>
+        <v>8.96647196720701</v>
       </c>
       <c r="I7">
-        <v>24.29316192864512</v>
+        <v>14.8978481113957</v>
       </c>
       <c r="J7">
-        <v>7.864749757585108</v>
+        <v>5.543672340283796</v>
       </c>
       <c r="K7">
-        <v>7.523455804908763</v>
+        <v>9.423486183712619</v>
       </c>
       <c r="L7">
-        <v>12.72173763193354</v>
+        <v>7.795036894504373</v>
       </c>
       <c r="M7">
-        <v>15.25147275172804</v>
+        <v>9.919647920787988</v>
       </c>
       <c r="N7">
-        <v>19.75455107615937</v>
+        <v>13.0644863113862</v>
       </c>
       <c r="O7">
-        <v>23.06991041815874</v>
+        <v>14.24536598931586</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.21136219324522</v>
+        <v>12.25501748416312</v>
       </c>
       <c r="C8">
-        <v>10.96674979052834</v>
+        <v>7.349282786497795</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.74536033435913</v>
+        <v>10.28509377455282</v>
       </c>
       <c r="F8">
-        <v>37.18049379270564</v>
+        <v>24.98543173116413</v>
       </c>
       <c r="G8">
-        <v>30.71318158492385</v>
+        <v>20.59577193102452</v>
       </c>
       <c r="H8">
-        <v>14.9404418095407</v>
+        <v>8.863157178681295</v>
       </c>
       <c r="I8">
-        <v>24.18342688545322</v>
+        <v>14.69657811686138</v>
       </c>
       <c r="J8">
-        <v>7.890858105187612</v>
+        <v>5.635671491472103</v>
       </c>
       <c r="K8">
-        <v>7.736949113834308</v>
+        <v>10.10623699508698</v>
       </c>
       <c r="L8">
-        <v>12.723066399871</v>
+        <v>7.996528227628014</v>
       </c>
       <c r="M8">
-        <v>15.30238830543714</v>
+        <v>10.38938131137636</v>
       </c>
       <c r="N8">
-        <v>19.68834906620105</v>
+        <v>12.85954536040785</v>
       </c>
       <c r="O8">
-        <v>22.97018598952621</v>
+        <v>14.11761349561992</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.76900721680998</v>
+        <v>14.15670995345014</v>
       </c>
       <c r="C9">
-        <v>10.93761450124551</v>
+        <v>7.290942388329624</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.71327969233167</v>
+        <v>10.57340197002842</v>
       </c>
       <c r="F9">
-        <v>37.11765702685906</v>
+        <v>26.02065165518264</v>
       </c>
       <c r="G9">
-        <v>30.49779369566866</v>
+        <v>20.79675734802182</v>
       </c>
       <c r="H9">
-        <v>14.84390823205177</v>
+        <v>8.692329601222246</v>
       </c>
       <c r="I9">
-        <v>23.99615596018013</v>
+        <v>14.36741305762348</v>
       </c>
       <c r="J9">
-        <v>7.939898014514323</v>
+        <v>5.809892123121567</v>
       </c>
       <c r="K9">
-        <v>8.14495855158974</v>
+        <v>11.31934141562447</v>
       </c>
       <c r="L9">
-        <v>12.73821939007343</v>
+        <v>8.40014888514836</v>
       </c>
       <c r="M9">
-        <v>15.41637955702833</v>
+        <v>11.2750119596771</v>
       </c>
       <c r="N9">
-        <v>19.57063976008019</v>
+        <v>12.4780723564542</v>
       </c>
       <c r="O9">
-        <v>22.80387358737354</v>
+        <v>13.94103859156529</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.16856460275637</v>
+        <v>15.40733143882705</v>
       </c>
       <c r="C10">
-        <v>10.91876662692384</v>
+        <v>7.253414672257443</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.70029176864468</v>
+        <v>10.80256801045767</v>
       </c>
       <c r="F10">
-        <v>37.1072368067172</v>
+        <v>26.84281369133935</v>
       </c>
       <c r="G10">
-        <v>30.37507802134113</v>
+        <v>21.05171104093718</v>
       </c>
       <c r="H10">
-        <v>14.78166223871408</v>
+        <v>8.587730014142736</v>
       </c>
       <c r="I10">
-        <v>23.87554908847607</v>
+        <v>14.16942114933915</v>
       </c>
       <c r="J10">
-        <v>7.974581320685642</v>
+        <v>5.933733213229829</v>
       </c>
       <c r="K10">
-        <v>8.435263073428272</v>
+        <v>12.13124711446282</v>
       </c>
       <c r="L10">
-        <v>12.75689920073207</v>
+        <v>8.699272946261779</v>
       </c>
       <c r="M10">
-        <v>15.50832742926261</v>
+        <v>11.89757785630232</v>
       </c>
       <c r="N10">
-        <v>19.49147592191988</v>
+        <v>12.20957210643762</v>
       </c>
       <c r="O10">
-        <v>22.69951428127927</v>
+        <v>13.86125336836747</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.3473198596898</v>
+        <v>15.94492449778268</v>
       </c>
       <c r="C11">
-        <v>10.91074281936277</v>
+        <v>7.237528112361091</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.69666760272532</v>
+        <v>10.91037002149425</v>
       </c>
       <c r="F11">
-        <v>37.11023199706392</v>
+        <v>27.22929750241946</v>
       </c>
       <c r="G11">
-        <v>30.32701135622992</v>
+        <v>21.19270373835561</v>
       </c>
       <c r="H11">
-        <v>14.75522196603718</v>
+        <v>8.545052193326269</v>
       </c>
       <c r="I11">
-        <v>23.82436121886223</v>
+        <v>14.08979928351648</v>
       </c>
       <c r="J11">
-        <v>7.990060801014165</v>
+        <v>5.989092746875555</v>
       </c>
       <c r="K11">
-        <v>8.564703584345589</v>
+        <v>12.48302367929015</v>
       </c>
       <c r="L11">
-        <v>12.76701143540255</v>
+        <v>8.835395951498711</v>
       </c>
       <c r="M11">
-        <v>15.55183992130519</v>
+        <v>12.17357863410211</v>
       </c>
       <c r="N11">
-        <v>19.45703687073727</v>
+        <v>12.08982777082373</v>
       </c>
       <c r="O11">
-        <v>22.65591043751323</v>
+        <v>13.83689673119372</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.41451510328622</v>
+        <v>16.14403189297117</v>
       </c>
       <c r="C12">
-        <v>10.90778315337233</v>
+        <v>7.231685276473368</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.69562236404706</v>
+        <v>10.95168295474136</v>
       </c>
       <c r="F12">
-        <v>37.11247511646272</v>
+        <v>27.37736235752258</v>
       </c>
       <c r="G12">
-        <v>30.3099285176699</v>
+        <v>21.24981420824585</v>
       </c>
       <c r="H12">
-        <v>14.74547893762236</v>
+        <v>8.529629696413821</v>
       </c>
       <c r="I12">
-        <v>23.80550591351937</v>
+        <v>14.061234067307</v>
       </c>
       <c r="J12">
-        <v>7.995878991782061</v>
+        <v>6.009909491715136</v>
       </c>
       <c r="K12">
-        <v>8.613298823419234</v>
+        <v>12.61368852571587</v>
       </c>
       <c r="L12">
-        <v>12.77107054232747</v>
+        <v>8.886909096913595</v>
       </c>
       <c r="M12">
-        <v>15.56855052689117</v>
+        <v>12.27697888261083</v>
       </c>
       <c r="N12">
-        <v>19.44422084689496</v>
+        <v>12.04481606325327</v>
       </c>
       <c r="O12">
-        <v>22.63995534118778</v>
+        <v>13.8294834607041</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.40006640819022</v>
+        <v>16.10134865353495</v>
       </c>
       <c r="C13">
-        <v>10.9084170722104</v>
+        <v>7.232935893902222</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.69583294638473</v>
+        <v>10.94276398108704</v>
       </c>
       <c r="F13">
-        <v>37.11194276371167</v>
+        <v>27.34539912018899</v>
       </c>
       <c r="G13">
-        <v>30.31355779429196</v>
+        <v>21.23734719491603</v>
       </c>
       <c r="H13">
-        <v>14.74756530092462</v>
+        <v>8.532917800778797</v>
       </c>
       <c r="I13">
-        <v>23.80954324323888</v>
+        <v>14.06731417728072</v>
       </c>
       <c r="J13">
-        <v>7.994627888223288</v>
+        <v>6.005432854617842</v>
       </c>
       <c r="K13">
-        <v>8.602852368280169</v>
+        <v>12.58566095348166</v>
       </c>
       <c r="L13">
-        <v>12.7701861587444</v>
+        <v>8.875816939423983</v>
       </c>
       <c r="M13">
-        <v>15.56494136484452</v>
+        <v>12.2547605297908</v>
       </c>
       <c r="N13">
-        <v>19.44697100089793</v>
+        <v>12.05449552845316</v>
       </c>
       <c r="O13">
-        <v>22.64336679157729</v>
+        <v>13.83099802910972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.35285833172809</v>
+        <v>15.96139450516513</v>
       </c>
       <c r="C14">
-        <v>10.91049774901476</v>
+        <v>7.237043934264037</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.69657506144955</v>
+        <v>10.91375914575929</v>
       </c>
       <c r="F14">
-        <v>37.11039433784586</v>
+        <v>27.24144505203515</v>
       </c>
       <c r="G14">
-        <v>30.32558349629031</v>
+        <v>21.19732704605014</v>
       </c>
       <c r="H14">
-        <v>14.75441500573504</v>
+        <v>8.543768372603042</v>
       </c>
       <c r="I14">
-        <v>23.82279939261225</v>
+        <v>14.0874169248246</v>
       </c>
       <c r="J14">
-        <v>7.990540343852437</v>
+        <v>5.990808328068483</v>
       </c>
       <c r="K14">
-        <v>8.568710225328852</v>
+        <v>12.4938246537234</v>
       </c>
       <c r="L14">
-        <v>12.76734078862529</v>
+        <v>8.839634868554649</v>
       </c>
       <c r="M14">
-        <v>15.55321008791145</v>
+        <v>12.18210819892925</v>
       </c>
       <c r="N14">
-        <v>19.45597797853003</v>
+        <v>12.08611802869238</v>
       </c>
       <c r="O14">
-        <v>22.65458664285369</v>
+        <v>13.83625001833205</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.32387568286604</v>
+        <v>15.87508785332241</v>
       </c>
       <c r="C15">
-        <v>10.91178247252442</v>
+        <v>7.239582848134842</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.6970721932344</v>
+        <v>10.89605613401877</v>
       </c>
       <c r="F15">
-        <v>37.10959018086731</v>
+        <v>27.1779906645442</v>
       </c>
       <c r="G15">
-        <v>30.33309540610923</v>
+        <v>21.17330138106271</v>
       </c>
       <c r="H15">
-        <v>14.75864571056036</v>
+        <v>8.550511883599036</v>
       </c>
       <c r="I15">
-        <v>23.83098797577394</v>
+        <v>14.09993953795758</v>
       </c>
       <c r="J15">
-        <v>7.988030912748968</v>
+        <v>5.981831096601735</v>
       </c>
       <c r="K15">
-        <v>8.547741080184396</v>
+        <v>12.43724033381711</v>
       </c>
       <c r="L15">
-        <v>12.7656277744037</v>
+        <v>8.817466751724679</v>
       </c>
       <c r="M15">
-        <v>15.54605446404867</v>
+        <v>12.13745915630999</v>
       </c>
       <c r="N15">
-        <v>19.46152432642133</v>
+        <v>12.10553071389158</v>
       </c>
       <c r="O15">
-        <v>22.66153163670486</v>
+        <v>13.83970554405852</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.15681654644177</v>
+        <v>15.37157131148371</v>
       </c>
       <c r="C16">
-        <v>10.91930204360371</v>
+        <v>7.254476963197224</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.70057446991938</v>
+        <v>10.79559267143725</v>
       </c>
       <c r="F16">
-        <v>37.1071964420547</v>
+        <v>26.81780011002812</v>
       </c>
       <c r="G16">
-        <v>30.37837569153902</v>
+        <v>21.0430109390704</v>
       </c>
       <c r="H16">
-        <v>14.78342788302176</v>
+        <v>8.590620612148905</v>
       </c>
       <c r="I16">
-        <v>23.87896829759323</v>
+        <v>14.17484186406254</v>
       </c>
       <c r="J16">
-        <v>7.973563642960362</v>
+        <v>5.930095142675562</v>
       </c>
       <c r="K16">
-        <v>8.42674724769908</v>
+        <v>12.10790241436543</v>
       </c>
       <c r="L16">
-        <v>12.75627063491648</v>
+        <v>8.690374439576155</v>
       </c>
       <c r="M16">
-        <v>15.50551693453227</v>
+        <v>11.87938853319144</v>
       </c>
       <c r="N16">
-        <v>19.49375817046716</v>
+        <v>12.21744491767206</v>
       </c>
       <c r="O16">
-        <v>22.70244178715343</v>
+        <v>13.86309328974534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.05351511149846</v>
+        <v>15.05468388808703</v>
       </c>
       <c r="C17">
-        <v>10.92405572952528</v>
+        <v>7.263919341527048</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.70330712721574</v>
+        <v>10.73485738250579</v>
       </c>
       <c r="F17">
-        <v>37.10770695628391</v>
+        <v>26.59997227520331</v>
       </c>
       <c r="G17">
-        <v>30.40814307847013</v>
+        <v>20.96957966916061</v>
       </c>
       <c r="H17">
-        <v>14.79911107809914</v>
+        <v>8.616505355689187</v>
       </c>
       <c r="I17">
-        <v>23.90934417588955</v>
+        <v>14.22352539490089</v>
       </c>
       <c r="J17">
-        <v>7.964611600138865</v>
+        <v>5.89810213182431</v>
       </c>
       <c r="K17">
-        <v>8.351817819774544</v>
+        <v>11.90134945066317</v>
       </c>
       <c r="L17">
-        <v>12.75094225386785</v>
+        <v>8.612390317836805</v>
       </c>
       <c r="M17">
-        <v>15.48107376835583</v>
+        <v>11.71916494309679</v>
       </c>
       <c r="N17">
-        <v>19.51393482640124</v>
+        <v>12.28670640015226</v>
       </c>
       <c r="O17">
-        <v>22.72853016449541</v>
+        <v>13.88056429144569</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.99381951358152</v>
+        <v>14.86946831764011</v>
       </c>
       <c r="C18">
-        <v>10.92684173011402</v>
+        <v>7.269461711107547</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.70509395439329</v>
+        <v>10.70025975628984</v>
       </c>
       <c r="F18">
-        <v>37.10872893209428</v>
+        <v>26.47586300355749</v>
       </c>
       <c r="G18">
-        <v>30.42599445772782</v>
+        <v>20.92969171794334</v>
       </c>
       <c r="H18">
-        <v>14.80830821421039</v>
+        <v>8.631853139164223</v>
       </c>
       <c r="I18">
-        <v>23.92716167171719</v>
+        <v>14.2525047429441</v>
       </c>
       <c r="J18">
-        <v>7.9594346016691</v>
+        <v>5.87960904992653</v>
       </c>
       <c r="K18">
-        <v>8.30847619443723</v>
+        <v>11.78089316456354</v>
       </c>
       <c r="L18">
-        <v>12.74802964320301</v>
+        <v>8.567542905539275</v>
       </c>
       <c r="M18">
-        <v>15.46717385296687</v>
+        <v>11.626334150723</v>
       </c>
       <c r="N18">
-        <v>19.52568801392177</v>
+        <v>12.32677019539337</v>
       </c>
       <c r="O18">
-        <v>22.74389973046743</v>
+        <v>13.89173108868007</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.97356162650328</v>
+        <v>14.80624969157106</v>
       </c>
       <c r="C19">
-        <v>10.92779393021491</v>
+        <v>7.271357311794146</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.70573592054219</v>
+        <v>10.68860386246275</v>
       </c>
       <c r="F19">
-        <v>37.10920014232514</v>
+        <v>26.43404683135964</v>
       </c>
       <c r="G19">
-        <v>30.43216388963333</v>
+        <v>20.91658563159319</v>
       </c>
       <c r="H19">
-        <v>14.81145254609732</v>
+        <v>8.637127584998014</v>
       </c>
       <c r="I19">
-        <v>23.93325382078165</v>
+        <v>14.26248213270844</v>
       </c>
       <c r="J19">
-        <v>7.9576769671217</v>
+        <v>5.873332084659501</v>
       </c>
       <c r="K19">
-        <v>8.293760922134883</v>
+        <v>11.73982564261123</v>
       </c>
       <c r="L19">
-        <v>12.74706968219859</v>
+        <v>8.552360831310967</v>
       </c>
       <c r="M19">
-        <v>15.46249518143737</v>
+        <v>11.5947899892273</v>
       </c>
       <c r="N19">
-        <v>19.52969290652823</v>
+        <v>12.34037435449429</v>
       </c>
       <c r="O19">
-        <v>22.74916614842184</v>
+        <v>13.89570117147423</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.06454110802851</v>
+        <v>15.08872217889828</v>
       </c>
       <c r="C20">
-        <v>10.92354433227528</v>
+        <v>7.262902640050763</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.70299398080357</v>
+        <v>10.74128815899954</v>
       </c>
       <c r="F20">
-        <v>37.10757725326754</v>
+        <v>26.62303893966702</v>
       </c>
       <c r="G20">
-        <v>30.40489871450943</v>
+        <v>20.97715263886068</v>
       </c>
       <c r="H20">
-        <v>14.79742330306759</v>
+        <v>8.613702082913651</v>
       </c>
       <c r="I20">
-        <v>23.90607479451216</v>
+        <v>14.21824115363084</v>
       </c>
       <c r="J20">
-        <v>7.965567465286211</v>
+        <v>5.901517364161575</v>
       </c>
       <c r="K20">
-        <v>8.359819789445865</v>
+        <v>11.92350855815492</v>
       </c>
       <c r="L20">
-        <v>12.7514937406341</v>
+        <v>8.62069144154837</v>
       </c>
       <c r="M20">
-        <v>15.48365937772968</v>
+        <v>11.73629142354773</v>
       </c>
       <c r="N20">
-        <v>19.51177166475526</v>
+        <v>12.27931004861912</v>
       </c>
       <c r="O20">
-        <v>22.72571531466368</v>
+        <v>13.87858810142358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.36673842048348</v>
+        <v>16.00262338110597</v>
       </c>
       <c r="C21">
-        <v>10.90988446854509</v>
+        <v>7.235832584039366</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.6963482162444</v>
+        <v>10.92226541670932</v>
       </c>
       <c r="F21">
-        <v>37.11081908346193</v>
+        <v>27.27193308057859</v>
       </c>
       <c r="G21">
-        <v>30.32202086155815</v>
+        <v>21.20898006866452</v>
       </c>
       <c r="H21">
-        <v>14.75239577503033</v>
+        <v>8.540560973037188</v>
       </c>
       <c r="I21">
-        <v>23.81889140098517</v>
+        <v>14.08146852761035</v>
       </c>
       <c r="J21">
-        <v>7.991742142181144</v>
+        <v>5.995107936072689</v>
       </c>
       <c r="K21">
-        <v>8.578750365478397</v>
+        <v>12.52086840113988</v>
       </c>
       <c r="L21">
-        <v>12.76817032501986</v>
+        <v>8.850263646341098</v>
       </c>
       <c r="M21">
-        <v>15.556649587228</v>
+        <v>12.20347879150965</v>
       </c>
       <c r="N21">
-        <v>19.45332630343254</v>
+        <v>12.07682079633692</v>
       </c>
       <c r="O21">
-        <v>22.65127598886714</v>
+        <v>13.83465750268006</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.56132718215478</v>
+        <v>16.57388854827832</v>
       </c>
       <c r="C22">
-        <v>10.9014159677881</v>
+        <v>7.219150872667226</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.69391105545187</v>
+        <v>11.0433947700055</v>
       </c>
       <c r="F22">
-        <v>37.11939927832106</v>
+        <v>27.70596293772811</v>
       </c>
       <c r="G22">
-        <v>30.27437896920912</v>
+        <v>21.38222143392541</v>
       </c>
       <c r="H22">
-        <v>14.72453735821454</v>
+        <v>8.497081579261145</v>
       </c>
       <c r="I22">
-        <v>23.76499198652165</v>
+        <v>14.00136585842088</v>
       </c>
       <c r="J22">
-        <v>8.008594629271714</v>
+        <v>6.055416994678001</v>
       </c>
       <c r="K22">
-        <v>8.719361470075979</v>
+        <v>12.89643736829847</v>
       </c>
       <c r="L22">
-        <v>12.78040782715391</v>
+        <v>9.000089023949625</v>
       </c>
       <c r="M22">
-        <v>15.60570883354601</v>
+        <v>12.50228315972719</v>
       </c>
       <c r="N22">
-        <v>19.41644167999219</v>
+        <v>11.94641684744232</v>
       </c>
       <c r="O22">
-        <v>22.60587077217787</v>
+        <v>13.81654148849018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.45775807291803</v>
+        <v>16.27136234097127</v>
       </c>
       <c r="C23">
-        <v>10.90589387820666</v>
+        <v>7.227960845603644</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.6950378491872</v>
+        <v>10.97849175430994</v>
       </c>
       <c r="F23">
-        <v>37.11422995470314</v>
+        <v>27.47343066888793</v>
       </c>
       <c r="G23">
-        <v>30.29920836753269</v>
+        <v>21.28773375292908</v>
       </c>
       <c r="H23">
-        <v>14.73926242427013</v>
+        <v>8.519880256797386</v>
       </c>
       <c r="I23">
-        <v>23.79347739146772</v>
+        <v>14.04323945261802</v>
       </c>
       <c r="J23">
-        <v>7.999623623675878</v>
+        <v>6.023309388892355</v>
       </c>
       <c r="K23">
-        <v>8.644554748842785</v>
+        <v>12.69735170975694</v>
       </c>
       <c r="L23">
-        <v>12.77375479679315</v>
+        <v>8.920156714302943</v>
       </c>
       <c r="M23">
-        <v>15.57940394149768</v>
+        <v>12.34342635857478</v>
       </c>
       <c r="N23">
-        <v>19.43600786910307</v>
+        <v>12.0158429056887</v>
       </c>
       <c r="O23">
-        <v>22.6298073686642</v>
+        <v>13.8252095035091</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.05955720396664</v>
+        <v>15.07334291677542</v>
       </c>
       <c r="C24">
-        <v>10.92377536972808</v>
+        <v>7.26336193646102</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.70313488205689</v>
+        <v>10.73837980699187</v>
       </c>
       <c r="F24">
-        <v>37.10763362263545</v>
+        <v>26.61260699695551</v>
       </c>
       <c r="G24">
-        <v>30.40636319381879</v>
+        <v>20.97372165544358</v>
       </c>
       <c r="H24">
-        <v>14.79818578339225</v>
+        <v>8.614967992612218</v>
       </c>
       <c r="I24">
-        <v>23.90755177913555</v>
+        <v>14.22062708008528</v>
       </c>
       <c r="J24">
-        <v>7.965135413137165</v>
+        <v>5.899973648223912</v>
       </c>
       <c r="K24">
-        <v>8.35620291692258</v>
+        <v>11.91349573862908</v>
       </c>
       <c r="L24">
-        <v>12.75124394373406</v>
+        <v>8.616938541818662</v>
       </c>
       <c r="M24">
-        <v>15.48248994714604</v>
+        <v>11.72855076617865</v>
       </c>
       <c r="N24">
-        <v>19.51274915236317</v>
+        <v>12.28265317685295</v>
       </c>
       <c r="O24">
-        <v>22.72698675262697</v>
+        <v>13.87947804768828</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.6196434302052</v>
+        <v>13.66814550921678</v>
       </c>
       <c r="C25">
-        <v>10.94504554605289</v>
+        <v>7.305796706466805</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.72009579562479</v>
+        <v>10.49228994729854</v>
       </c>
       <c r="F25">
-        <v>37.1283715686927</v>
+        <v>25.72948368605332</v>
       </c>
       <c r="G25">
-        <v>30.54983828192622</v>
+        <v>20.72415915262401</v>
       </c>
       <c r="H25">
-        <v>14.86849686976521</v>
+        <v>8.73498923184863</v>
       </c>
       <c r="I25">
-        <v>24.04383289649484</v>
+        <v>14.44905961222058</v>
       </c>
       <c r="J25">
-        <v>7.926865613845786</v>
+        <v>5.763464235010717</v>
       </c>
       <c r="K25">
-        <v>8.03603834542321</v>
+        <v>11.00495149679854</v>
       </c>
       <c r="L25">
-        <v>12.732786846776</v>
+        <v>8.290322504293174</v>
       </c>
       <c r="M25">
-        <v>15.38407004436198</v>
+        <v>11.03994215537135</v>
       </c>
       <c r="N25">
-        <v>19.60119347348861</v>
+        <v>12.57915428384547</v>
       </c>
       <c r="O25">
-        <v>22.84573433354554</v>
+        <v>13.98039774507548</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.53488960784629</v>
+        <v>12.49021158134301</v>
       </c>
       <c r="C2">
-        <v>7.340613970215561</v>
+        <v>6.421978254497715</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.32284911689141</v>
+        <v>7.761117290962726</v>
       </c>
       <c r="F2">
-        <v>25.12103324484188</v>
+        <v>31.06677705776292</v>
       </c>
       <c r="G2">
-        <v>20.61182180249192</v>
+        <v>36.42567370151333</v>
       </c>
       <c r="H2">
-        <v>8.837260891937712</v>
+        <v>3.816611174857665</v>
       </c>
       <c r="I2">
-        <v>14.64634302936043</v>
+        <v>4.443754854858237</v>
       </c>
       <c r="J2">
-        <v>5.660194668559799</v>
+        <v>12.52378706497826</v>
       </c>
       <c r="K2">
-        <v>10.28284525743908</v>
+        <v>20.80077757990773</v>
       </c>
       <c r="L2">
-        <v>8.051796519179124</v>
+        <v>6.272927444566317</v>
       </c>
       <c r="M2">
-        <v>10.5145208749578</v>
+        <v>10.4821065850085</v>
       </c>
       <c r="N2">
-        <v>12.80542283252487</v>
+        <v>6.97026649808498</v>
       </c>
       <c r="O2">
-        <v>14.0878285466343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.06428804413705</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.70463607163223</v>
+        <v>11.69287148934316</v>
       </c>
       <c r="C3">
-        <v>7.366403057650491</v>
+        <v>6.145213513594746</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.21564319450505</v>
+        <v>7.543800491515151</v>
       </c>
       <c r="F3">
-        <v>24.7359873517727</v>
+        <v>30.35842121590133</v>
       </c>
       <c r="G3">
-        <v>20.57724989664267</v>
+        <v>35.85303499221713</v>
       </c>
       <c r="H3">
-        <v>8.914736606086118</v>
+        <v>4.041217661940158</v>
       </c>
       <c r="I3">
-        <v>14.79690615734993</v>
+        <v>4.624459852492327</v>
       </c>
       <c r="J3">
-        <v>5.588612896391776</v>
+        <v>12.49158592506502</v>
       </c>
       <c r="K3">
-        <v>9.761180696475739</v>
+        <v>20.70621660147812</v>
       </c>
       <c r="L3">
-        <v>7.892221854066278</v>
+        <v>6.216425337611962</v>
       </c>
       <c r="M3">
-        <v>10.14907772336086</v>
+        <v>9.872577202094764</v>
       </c>
       <c r="N3">
-        <v>12.9639574409059</v>
+        <v>6.754764459303002</v>
       </c>
       <c r="O3">
-        <v>14.17969294287695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.662722611733576</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.16393082938625</v>
+        <v>11.18375722030502</v>
       </c>
       <c r="C4">
-        <v>7.383308948433489</v>
+        <v>5.97043043485533</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.1536637995657</v>
+        <v>7.406979971495022</v>
       </c>
       <c r="F4">
-        <v>24.51338329106119</v>
+        <v>29.91988655936304</v>
       </c>
       <c r="G4">
-        <v>20.57544376789879</v>
+        <v>35.50230383334046</v>
       </c>
       <c r="H4">
-        <v>8.96618022903743</v>
+        <v>4.184136284488307</v>
       </c>
       <c r="I4">
-        <v>14.8972781282047</v>
+        <v>4.73990102989651</v>
       </c>
       <c r="J4">
-        <v>5.543919666919744</v>
+        <v>12.47358240609623</v>
       </c>
       <c r="K4">
-        <v>9.425367910258844</v>
+        <v>20.64928275063831</v>
       </c>
       <c r="L4">
-        <v>7.795564593143846</v>
+        <v>6.180296709275162</v>
       </c>
       <c r="M4">
-        <v>9.920909744954026</v>
+        <v>9.478608348873523</v>
       </c>
       <c r="N4">
-        <v>13.06393055158457</v>
+        <v>6.620262445218643</v>
       </c>
       <c r="O4">
-        <v>14.24498665450651</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.409085013429278</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.93578078991979</v>
+        <v>10.96780700461089</v>
       </c>
       <c r="C5">
-        <v>7.390466160737924</v>
+        <v>5.901443407188153</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.12938491213701</v>
+        <v>7.350901226215914</v>
       </c>
       <c r="F5">
-        <v>24.42618851847904</v>
+        <v>29.72754954468652</v>
       </c>
       <c r="G5">
-        <v>20.57942394046423</v>
+        <v>35.33419621447245</v>
       </c>
       <c r="H5">
-        <v>8.988096170755766</v>
+        <v>4.244027561270534</v>
       </c>
       <c r="I5">
-        <v>14.94011844101245</v>
+        <v>4.790420684910196</v>
       </c>
       <c r="J5">
-        <v>5.525527518003806</v>
+        <v>12.46194943435627</v>
       </c>
       <c r="K5">
-        <v>9.284701586698517</v>
+        <v>20.61596208900805</v>
       </c>
       <c r="L5">
-        <v>7.756554320522892</v>
+        <v>6.165311581818599</v>
       </c>
       <c r="M5">
-        <v>9.827117103237404</v>
+        <v>9.314088924432234</v>
       </c>
       <c r="N5">
-        <v>13.1053423069635</v>
+        <v>6.567452801267897</v>
       </c>
       <c r="O5">
-        <v>14.27375580561525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.305351344792566</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.89742414865912</v>
+        <v>10.92949874439176</v>
       </c>
       <c r="C6">
-        <v>7.391670752108034</v>
+        <v>5.894148997194989</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.12541278863553</v>
+        <v>7.342144498225131</v>
       </c>
       <c r="F6">
-        <v>24.4119234514206</v>
+        <v>29.67976441492001</v>
       </c>
       <c r="G6">
-        <v>20.58036467599556</v>
+        <v>35.27513391242879</v>
       </c>
       <c r="H6">
-        <v>8.991792199238233</v>
+        <v>4.254504737152256</v>
       </c>
       <c r="I6">
-        <v>14.947347540709</v>
+        <v>4.801846825094499</v>
       </c>
       <c r="J6">
-        <v>5.522462900647989</v>
+        <v>12.45425940092425</v>
       </c>
       <c r="K6">
-        <v>9.261116008090267</v>
+        <v>20.5977355358921</v>
       </c>
       <c r="L6">
-        <v>7.75010088388268</v>
+        <v>6.16293104024395</v>
       </c>
       <c r="M6">
-        <v>9.811498149627878</v>
+        <v>9.287629498105478</v>
       </c>
       <c r="N6">
-        <v>13.11225956733221</v>
+        <v>6.561709402691129</v>
       </c>
       <c r="O6">
-        <v>14.27866133907624</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.289596050881038</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.16088557473931</v>
+        <v>11.17541244733489</v>
       </c>
       <c r="C7">
-        <v>7.383404390112582</v>
+        <v>5.980914668371808</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.15333239197687</v>
+        <v>7.407858469712606</v>
       </c>
       <c r="F7">
-        <v>24.51219305674402</v>
+        <v>29.87449204594841</v>
       </c>
       <c r="G7">
-        <v>20.57547857600672</v>
+        <v>35.41542200411356</v>
       </c>
       <c r="H7">
-        <v>8.96647196720701</v>
+        <v>4.186160349961784</v>
       </c>
       <c r="I7">
-        <v>14.8978481113957</v>
+        <v>4.748438808794699</v>
       </c>
       <c r="J7">
-        <v>5.543672340283796</v>
+        <v>12.45767896596003</v>
       </c>
       <c r="K7">
-        <v>9.423486183712619</v>
+        <v>20.61423098472088</v>
       </c>
       <c r="L7">
-        <v>7.795036894504373</v>
+        <v>6.180486727878515</v>
       </c>
       <c r="M7">
-        <v>9.919647920787988</v>
+        <v>9.479504185238305</v>
       </c>
       <c r="N7">
-        <v>13.0644863113862</v>
+        <v>6.627797682725101</v>
       </c>
       <c r="O7">
-        <v>14.24536598931586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.411895607047436</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.25501748416312</v>
+        <v>12.20594684280017</v>
       </c>
       <c r="C8">
-        <v>7.349282786497795</v>
+        <v>6.342015776726019</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.28509377455282</v>
+        <v>7.688997040639463</v>
       </c>
       <c r="F8">
-        <v>24.98543173116413</v>
+        <v>30.76856272187044</v>
       </c>
       <c r="G8">
-        <v>20.59577193102452</v>
+        <v>36.11875078913005</v>
       </c>
       <c r="H8">
-        <v>8.863157178681295</v>
+        <v>3.894556634715454</v>
       </c>
       <c r="I8">
-        <v>14.69657811686138</v>
+        <v>4.515083593768665</v>
       </c>
       <c r="J8">
-        <v>5.635671491472103</v>
+        <v>12.49174571628222</v>
       </c>
       <c r="K8">
-        <v>10.10623699508698</v>
+        <v>20.7227578087623</v>
       </c>
       <c r="L8">
-        <v>7.996528227628014</v>
+        <v>6.254426469023429</v>
       </c>
       <c r="M8">
-        <v>10.38938131137636</v>
+        <v>10.2798964308619</v>
       </c>
       <c r="N8">
-        <v>12.85954536040785</v>
+        <v>6.906939567994122</v>
       </c>
       <c r="O8">
-        <v>14.11761349561992</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.932608094076535</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.15670995345014</v>
+        <v>14.09973449846131</v>
       </c>
       <c r="C9">
-        <v>7.290942388329624</v>
+        <v>6.992335715896431</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.57340197002842</v>
+        <v>8.209249237946937</v>
       </c>
       <c r="F9">
-        <v>26.02065165518264</v>
+        <v>32.55812017144984</v>
       </c>
       <c r="G9">
-        <v>20.79675734802182</v>
+        <v>37.64756184206614</v>
       </c>
       <c r="H9">
-        <v>8.692329601222246</v>
+        <v>3.35958249392603</v>
       </c>
       <c r="I9">
-        <v>14.36741305762348</v>
+        <v>4.079556491052798</v>
       </c>
       <c r="J9">
-        <v>5.809892123121567</v>
+        <v>12.60066507859203</v>
       </c>
       <c r="K9">
-        <v>11.31934141562447</v>
+        <v>21.00540879093693</v>
       </c>
       <c r="L9">
-        <v>8.40014888514836</v>
+        <v>6.38712255823685</v>
       </c>
       <c r="M9">
-        <v>11.2750119596771</v>
+        <v>11.68684311405286</v>
       </c>
       <c r="N9">
-        <v>12.4780723564542</v>
+        <v>7.420808109470692</v>
       </c>
       <c r="O9">
-        <v>13.94103859156529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.8859553805672</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.40733143882705</v>
+        <v>15.33818557603295</v>
       </c>
       <c r="C10">
-        <v>7.253414672257443</v>
+        <v>7.473854813985781</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.80256801045767</v>
+        <v>8.487155627310182</v>
       </c>
       <c r="F10">
-        <v>26.84281369133935</v>
+        <v>33.57248170315138</v>
       </c>
       <c r="G10">
-        <v>21.05171104093718</v>
+        <v>38.4013604011183</v>
       </c>
       <c r="H10">
-        <v>8.587730014142736</v>
+        <v>3.015923364689277</v>
       </c>
       <c r="I10">
-        <v>14.16942114933915</v>
+        <v>3.790494490344854</v>
       </c>
       <c r="J10">
-        <v>5.933733213229829</v>
+        <v>12.61905906552012</v>
       </c>
       <c r="K10">
-        <v>12.13124711446282</v>
+        <v>21.06988520177281</v>
       </c>
       <c r="L10">
-        <v>8.699272946261779</v>
+        <v>6.486545428583476</v>
       </c>
       <c r="M10">
-        <v>11.89757785630232</v>
+        <v>12.63514880815825</v>
       </c>
       <c r="N10">
-        <v>12.20957210643762</v>
+        <v>7.714816327635236</v>
       </c>
       <c r="O10">
-        <v>13.86125336836747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.49730049127582</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.94492449778268</v>
+        <v>15.84238013669889</v>
       </c>
       <c r="C11">
-        <v>7.237528112361091</v>
+        <v>7.904369467192243</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.91037002149425</v>
+        <v>7.909874192906606</v>
       </c>
       <c r="F11">
-        <v>27.22929750241946</v>
+        <v>31.83228089374913</v>
       </c>
       <c r="G11">
-        <v>21.19270373835561</v>
+        <v>35.81535664493109</v>
       </c>
       <c r="H11">
-        <v>8.545052193326269</v>
+        <v>3.681292475580089</v>
       </c>
       <c r="I11">
-        <v>14.08979928351648</v>
+        <v>3.725612079909499</v>
       </c>
       <c r="J11">
-        <v>5.989092746875555</v>
+        <v>12.06373175111369</v>
       </c>
       <c r="K11">
-        <v>12.48302367929015</v>
+        <v>19.92669746156279</v>
       </c>
       <c r="L11">
-        <v>8.835395951498711</v>
+        <v>6.641421816575352</v>
       </c>
       <c r="M11">
-        <v>12.17357863410211</v>
+        <v>13.13840052030596</v>
       </c>
       <c r="N11">
-        <v>12.08982777082373</v>
+        <v>7.239974068198592</v>
       </c>
       <c r="O11">
-        <v>13.83689673119372</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.351899926039</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.14403189297117</v>
+        <v>16.02469635773002</v>
       </c>
       <c r="C12">
-        <v>7.231685276473368</v>
+        <v>8.165853054128924</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.95168295474136</v>
+        <v>7.422804551154682</v>
       </c>
       <c r="F12">
-        <v>27.37736235752258</v>
+        <v>30.19878015291656</v>
       </c>
       <c r="G12">
-        <v>21.24981420824585</v>
+        <v>33.59269562758333</v>
       </c>
       <c r="H12">
-        <v>8.529629696413821</v>
+        <v>4.816407167603745</v>
       </c>
       <c r="I12">
-        <v>14.061234067307</v>
+        <v>3.712720473605864</v>
       </c>
       <c r="J12">
-        <v>6.009909491715136</v>
+        <v>11.62071174890495</v>
       </c>
       <c r="K12">
-        <v>12.61368852571587</v>
+        <v>19.02418252421834</v>
       </c>
       <c r="L12">
-        <v>8.886909096913595</v>
+        <v>6.79526257336599</v>
       </c>
       <c r="M12">
-        <v>12.27697888261083</v>
+        <v>13.36904894079653</v>
       </c>
       <c r="N12">
-        <v>12.04481606325327</v>
+        <v>6.776478482742846</v>
       </c>
       <c r="O12">
-        <v>13.8294834607041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.08984450608182</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.10134865353495</v>
+        <v>15.96970114321879</v>
       </c>
       <c r="C13">
-        <v>7.232935893902222</v>
+        <v>8.332044933838935</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.94276398108704</v>
+        <v>6.984105614434055</v>
       </c>
       <c r="F13">
-        <v>27.34539912018899</v>
+        <v>28.47031875923819</v>
       </c>
       <c r="G13">
-        <v>21.23734719491603</v>
+        <v>31.38030189197105</v>
       </c>
       <c r="H13">
-        <v>8.532917800778797</v>
+        <v>6.105441029381631</v>
       </c>
       <c r="I13">
-        <v>14.06731417728072</v>
+        <v>3.751959952795682</v>
       </c>
       <c r="J13">
-        <v>6.005432854617842</v>
+        <v>11.21497221397403</v>
       </c>
       <c r="K13">
-        <v>12.58566095348166</v>
+        <v>18.20583262082313</v>
       </c>
       <c r="L13">
-        <v>8.875816939423983</v>
+        <v>6.953794170365573</v>
       </c>
       <c r="M13">
-        <v>12.2547605297908</v>
+        <v>13.41438725244088</v>
       </c>
       <c r="N13">
-        <v>12.05449552845316</v>
+        <v>6.301657903467037</v>
       </c>
       <c r="O13">
-        <v>13.83099802910972</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.72177470801174</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.96139450516513</v>
+        <v>15.82193346074639</v>
       </c>
       <c r="C14">
-        <v>7.237043934264037</v>
+        <v>8.411619965317405</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.91375914575929</v>
+        <v>6.716256824553871</v>
       </c>
       <c r="F14">
-        <v>27.24144505203515</v>
+        <v>27.20619471903211</v>
       </c>
       <c r="G14">
-        <v>21.19732704605014</v>
+        <v>29.82631142657325</v>
       </c>
       <c r="H14">
-        <v>8.543768372603042</v>
+        <v>7.054687335485593</v>
       </c>
       <c r="I14">
-        <v>14.0874169248246</v>
+        <v>3.80532564758547</v>
       </c>
       <c r="J14">
-        <v>5.990808328068483</v>
+        <v>10.94837770028695</v>
       </c>
       <c r="K14">
-        <v>12.4938246537234</v>
+        <v>17.67544119863012</v>
       </c>
       <c r="L14">
-        <v>8.839634868554649</v>
+        <v>7.071018578711796</v>
       </c>
       <c r="M14">
-        <v>12.18210819892925</v>
+        <v>13.36393955078697</v>
       </c>
       <c r="N14">
-        <v>12.08611802869238</v>
+        <v>5.96948835826187</v>
       </c>
       <c r="O14">
-        <v>13.83625001833205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.41339222446597</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.87508785332241</v>
+        <v>15.73261767988898</v>
       </c>
       <c r="C15">
-        <v>7.239582848134842</v>
+        <v>8.414287382041161</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.89605613401877</v>
+        <v>6.65335418546278</v>
       </c>
       <c r="F15">
-        <v>27.1779906645442</v>
+        <v>26.86598954895218</v>
       </c>
       <c r="G15">
-        <v>21.17330138106271</v>
+        <v>29.42597816424674</v>
       </c>
       <c r="H15">
-        <v>8.550511883599036</v>
+        <v>7.281249221217409</v>
       </c>
       <c r="I15">
-        <v>14.09993953795758</v>
+        <v>3.833703778058298</v>
       </c>
       <c r="J15">
-        <v>5.981831096601735</v>
+        <v>10.88648189464166</v>
       </c>
       <c r="K15">
-        <v>12.43724033381711</v>
+        <v>17.5526995405295</v>
       </c>
       <c r="L15">
-        <v>8.817466751724679</v>
+        <v>7.096113851813605</v>
       </c>
       <c r="M15">
-        <v>12.13745915630999</v>
+        <v>13.31253756828047</v>
       </c>
       <c r="N15">
-        <v>12.10553071389158</v>
+        <v>5.887109957517667</v>
       </c>
       <c r="O15">
-        <v>13.83970554405852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.31717851800166</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.37157131148371</v>
+        <v>15.23312504220484</v>
       </c>
       <c r="C16">
-        <v>7.254476963197224</v>
+        <v>8.196594751112256</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.79559267143725</v>
+        <v>6.610570780885807</v>
       </c>
       <c r="F16">
-        <v>26.81780011002812</v>
+        <v>26.71381867359997</v>
       </c>
       <c r="G16">
-        <v>21.0430109390704</v>
+        <v>29.4667154331078</v>
       </c>
       <c r="H16">
-        <v>8.590620612148905</v>
+        <v>7.127826360233058</v>
       </c>
       <c r="I16">
-        <v>14.17484186406254</v>
+        <v>3.954137872824787</v>
       </c>
       <c r="J16">
-        <v>5.930095142675562</v>
+        <v>10.9529491867301</v>
       </c>
       <c r="K16">
-        <v>12.10790241436543</v>
+        <v>17.6758916333816</v>
       </c>
       <c r="L16">
-        <v>8.690374439576155</v>
+        <v>7.018311229530233</v>
       </c>
       <c r="M16">
-        <v>11.87938853319144</v>
+        <v>12.92097461145049</v>
       </c>
       <c r="N16">
-        <v>12.21744491767206</v>
+        <v>5.848650503994273</v>
       </c>
       <c r="O16">
-        <v>13.86309328974534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.12117454435035</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.05468388808703</v>
+        <v>14.92328034828667</v>
       </c>
       <c r="C17">
-        <v>7.263919341527048</v>
+        <v>7.982088129803255</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.73485738250579</v>
+        <v>6.712503038260833</v>
       </c>
       <c r="F17">
-        <v>26.59997227520331</v>
+        <v>27.27615415462597</v>
       </c>
       <c r="G17">
-        <v>20.96957966916061</v>
+        <v>30.32084216956742</v>
       </c>
       <c r="H17">
-        <v>8.616505355689187</v>
+        <v>6.483999849983442</v>
       </c>
       <c r="I17">
-        <v>14.22352539490089</v>
+        <v>4.018937391296889</v>
       </c>
       <c r="J17">
-        <v>5.89810213182431</v>
+        <v>11.14291644569611</v>
       </c>
       <c r="K17">
-        <v>11.90134945066317</v>
+        <v>18.04381073491892</v>
       </c>
       <c r="L17">
-        <v>8.612390317836805</v>
+        <v>6.892826164740357</v>
       </c>
       <c r="M17">
-        <v>11.71916494309679</v>
+        <v>12.6420907900138</v>
       </c>
       <c r="N17">
-        <v>12.28670640015226</v>
+        <v>5.99615705183975</v>
       </c>
       <c r="O17">
-        <v>13.88056429144569</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.13913438062888</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.86946831764011</v>
+        <v>14.75348222259078</v>
       </c>
       <c r="C18">
-        <v>7.269461711107547</v>
+        <v>7.74194183214819</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.70025975628984</v>
+        <v>6.999667443767439</v>
       </c>
       <c r="F18">
-        <v>26.47586300355749</v>
+        <v>28.55667003019244</v>
       </c>
       <c r="G18">
-        <v>20.92969171794334</v>
+        <v>32.05529530139833</v>
       </c>
       <c r="H18">
-        <v>8.631853139164223</v>
+        <v>5.400860273471856</v>
       </c>
       <c r="I18">
-        <v>14.2525047429441</v>
+        <v>4.032335148377188</v>
       </c>
       <c r="J18">
-        <v>5.87960904992653</v>
+        <v>11.47904826608692</v>
       </c>
       <c r="K18">
-        <v>11.78089316456354</v>
+        <v>18.71159536104343</v>
       </c>
       <c r="L18">
-        <v>8.567542905539275</v>
+        <v>6.728019343477842</v>
       </c>
       <c r="M18">
-        <v>11.626334150723</v>
+        <v>12.43230955251908</v>
       </c>
       <c r="N18">
-        <v>12.32677019539337</v>
+        <v>6.328943216411662</v>
       </c>
       <c r="O18">
-        <v>13.89173108868007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.33980468802516</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.80624969157106</v>
+        <v>14.70353256863298</v>
       </c>
       <c r="C19">
-        <v>7.271357311794146</v>
+        <v>7.531907237861506</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.68860386246275</v>
+        <v>7.478489989883132</v>
       </c>
       <c r="F19">
-        <v>26.43404683135964</v>
+        <v>30.26414177150957</v>
       </c>
       <c r="G19">
-        <v>20.91658563159319</v>
+        <v>34.27416019718243</v>
       </c>
       <c r="H19">
-        <v>8.637127584998014</v>
+        <v>4.205127741807</v>
       </c>
       <c r="I19">
-        <v>14.26248213270844</v>
+        <v>4.016441821731263</v>
       </c>
       <c r="J19">
-        <v>5.873332084659501</v>
+        <v>11.89642187431708</v>
       </c>
       <c r="K19">
-        <v>11.73982564261123</v>
+        <v>19.55780405661394</v>
       </c>
       <c r="L19">
-        <v>8.552360831310967</v>
+        <v>6.578939011659876</v>
       </c>
       <c r="M19">
-        <v>11.5947899892273</v>
+        <v>12.3032195656919</v>
       </c>
       <c r="N19">
-        <v>12.34037435449429</v>
+        <v>6.813291708844442</v>
       </c>
       <c r="O19">
-        <v>13.89570117147423</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>10.67418096262844</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.08872217889828</v>
+        <v>15.00830681226228</v>
       </c>
       <c r="C20">
-        <v>7.262902640050763</v>
+        <v>7.380945941631562</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.74128815899954</v>
+        <v>8.415680629660121</v>
       </c>
       <c r="F20">
-        <v>26.62303893966702</v>
+        <v>33.17864433352079</v>
       </c>
       <c r="G20">
-        <v>20.97715263886068</v>
+        <v>37.94835270539768</v>
       </c>
       <c r="H20">
-        <v>8.613702082913651</v>
+        <v>3.107938756854328</v>
       </c>
       <c r="I20">
-        <v>14.21824115363084</v>
+        <v>3.891067042351943</v>
       </c>
       <c r="J20">
-        <v>5.901517364161575</v>
+        <v>12.5641311881324</v>
       </c>
       <c r="K20">
-        <v>11.92350855815492</v>
+        <v>20.94461204298049</v>
       </c>
       <c r="L20">
-        <v>8.62069144154837</v>
+        <v>6.463835896081324</v>
       </c>
       <c r="M20">
-        <v>11.73629142354773</v>
+        <v>12.40102864363817</v>
       </c>
       <c r="N20">
-        <v>12.27931004861912</v>
+        <v>7.657431433260233</v>
       </c>
       <c r="O20">
-        <v>13.87858810142358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.34807828584602</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.00262338110597</v>
+        <v>15.91992296523322</v>
       </c>
       <c r="C21">
-        <v>7.235832584039366</v>
+        <v>7.700751840138381</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.92226541670932</v>
+        <v>8.75551527225138</v>
       </c>
       <c r="F21">
-        <v>27.27193308057859</v>
+        <v>34.35828702543898</v>
       </c>
       <c r="G21">
-        <v>21.20898006866452</v>
+        <v>39.08984180238827</v>
       </c>
       <c r="H21">
-        <v>8.540560973037188</v>
+        <v>2.810350634530094</v>
       </c>
       <c r="I21">
-        <v>14.08146852761035</v>
+        <v>3.661415738876214</v>
       </c>
       <c r="J21">
-        <v>5.995107936072689</v>
+        <v>12.69028245032264</v>
       </c>
       <c r="K21">
-        <v>12.52086840113988</v>
+        <v>21.22413362981293</v>
       </c>
       <c r="L21">
-        <v>8.850263646341098</v>
+        <v>6.524749527274246</v>
       </c>
       <c r="M21">
-        <v>12.20347879150965</v>
+        <v>13.08009330546677</v>
       </c>
       <c r="N21">
-        <v>12.07682079633692</v>
+        <v>7.985028090089877</v>
       </c>
       <c r="O21">
-        <v>13.83465750268006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.87495692403592</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.57388854827832</v>
+        <v>16.49347163774986</v>
       </c>
       <c r="C22">
-        <v>7.219150872667226</v>
+        <v>7.905441415951316</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.0433947700055</v>
+        <v>8.927725838600992</v>
       </c>
       <c r="F22">
-        <v>27.70596293772811</v>
+        <v>35.03960529433131</v>
       </c>
       <c r="G22">
-        <v>21.38222143392541</v>
+        <v>39.76147647009961</v>
       </c>
       <c r="H22">
-        <v>8.497081579261145</v>
+        <v>2.631070992593201</v>
       </c>
       <c r="I22">
-        <v>14.00136585842088</v>
+        <v>3.507104407789745</v>
       </c>
       <c r="J22">
-        <v>6.055416994678001</v>
+        <v>12.76125621507085</v>
       </c>
       <c r="K22">
-        <v>12.89643736829847</v>
+        <v>21.38199989327175</v>
       </c>
       <c r="L22">
-        <v>9.000089023949625</v>
+        <v>6.566548394498321</v>
       </c>
       <c r="M22">
-        <v>12.50228315972719</v>
+        <v>13.50868205639814</v>
       </c>
       <c r="N22">
-        <v>11.94641684744232</v>
+        <v>8.149782788244874</v>
       </c>
       <c r="O22">
-        <v>13.81654148849018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.18151749629179</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.27136234097127</v>
+        <v>16.1949248430563</v>
       </c>
       <c r="C23">
-        <v>7.227960845603644</v>
+        <v>7.785488575481001</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.97849175430994</v>
+        <v>8.834528349308615</v>
       </c>
       <c r="F23">
-        <v>27.47343066888793</v>
+        <v>34.71996221451165</v>
       </c>
       <c r="G23">
-        <v>21.28773375292908</v>
+        <v>39.49146606482492</v>
       </c>
       <c r="H23">
-        <v>8.519880256797386</v>
+        <v>2.725269737911132</v>
       </c>
       <c r="I23">
-        <v>14.04323945261802</v>
+        <v>3.578990802906824</v>
       </c>
       <c r="J23">
-        <v>6.023309388892355</v>
+        <v>12.74064626914363</v>
       </c>
       <c r="K23">
-        <v>12.69735170975694</v>
+        <v>21.3358022700568</v>
       </c>
       <c r="L23">
-        <v>8.920156714302943</v>
+        <v>6.543338766726205</v>
       </c>
       <c r="M23">
-        <v>12.34342635857478</v>
+        <v>13.27876536664234</v>
       </c>
       <c r="N23">
-        <v>12.0158429056887</v>
+        <v>8.054019884226303</v>
       </c>
       <c r="O23">
-        <v>13.8252095035091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.01490347007963</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.07334291677542</v>
+        <v>15.00337070639155</v>
       </c>
       <c r="C24">
-        <v>7.26336193646102</v>
+        <v>7.339876818028366</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.73837980699187</v>
+        <v>8.476477192883115</v>
       </c>
       <c r="F24">
-        <v>26.61260699695551</v>
+        <v>33.42612519455172</v>
       </c>
       <c r="G24">
-        <v>20.97372165544358</v>
+        <v>38.33005348721904</v>
       </c>
       <c r="H24">
-        <v>8.614967992612218</v>
+        <v>3.091166026131053</v>
       </c>
       <c r="I24">
-        <v>14.22062708008528</v>
+        <v>3.874416002073962</v>
       </c>
       <c r="J24">
-        <v>5.899973648223912</v>
+        <v>12.63958423201857</v>
       </c>
       <c r="K24">
-        <v>11.91349573862908</v>
+        <v>21.10440213641992</v>
       </c>
       <c r="L24">
-        <v>8.616938541818662</v>
+        <v>6.454657661314248</v>
       </c>
       <c r="M24">
-        <v>11.72855076617865</v>
+        <v>12.37691767693394</v>
       </c>
       <c r="N24">
-        <v>12.28265317685295</v>
+        <v>7.697151116780651</v>
       </c>
       <c r="O24">
-        <v>13.87947804768828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.37189709333209</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.66814550921678</v>
+        <v>13.60432334628724</v>
       </c>
       <c r="C25">
-        <v>7.305796706466805</v>
+        <v>6.839177783118604</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.49228994729854</v>
+        <v>8.074430270077086</v>
       </c>
       <c r="F25">
-        <v>25.72948368605332</v>
+        <v>32.00763232984495</v>
       </c>
       <c r="G25">
-        <v>20.72415915262401</v>
+        <v>37.09018803924126</v>
       </c>
       <c r="H25">
-        <v>8.73498923184863</v>
+        <v>3.502216330742699</v>
       </c>
       <c r="I25">
-        <v>14.44905961222058</v>
+        <v>4.207785501948874</v>
       </c>
       <c r="J25">
-        <v>5.763464235010717</v>
+        <v>12.54203080434857</v>
       </c>
       <c r="K25">
-        <v>11.00495149679854</v>
+        <v>20.86750182123366</v>
       </c>
       <c r="L25">
-        <v>8.290322504293174</v>
+        <v>6.353643436450368</v>
       </c>
       <c r="M25">
-        <v>11.03994215537135</v>
+        <v>11.32802909289747</v>
       </c>
       <c r="N25">
-        <v>12.57915428384547</v>
+        <v>7.297759880745812</v>
       </c>
       <c r="O25">
-        <v>13.98039774507548</v>
+        <v>10.64176797051968</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_23/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49021158134301</v>
+        <v>12.46440538196187</v>
       </c>
       <c r="C2">
-        <v>6.421978254497715</v>
+        <v>6.366909980328041</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.761117290962726</v>
+        <v>7.937010366617649</v>
       </c>
       <c r="F2">
-        <v>31.06677705776292</v>
+        <v>29.54878564746233</v>
       </c>
       <c r="G2">
-        <v>36.42567370151333</v>
+        <v>33.14193624597786</v>
       </c>
       <c r="H2">
-        <v>3.816611174857665</v>
+        <v>3.600901435956873</v>
       </c>
       <c r="I2">
-        <v>4.443754854858237</v>
+        <v>4.149129219193427</v>
       </c>
       <c r="J2">
-        <v>12.52378706497826</v>
+        <v>11.82627438264765</v>
       </c>
       <c r="K2">
-        <v>20.80077757990773</v>
+        <v>19.19208827139283</v>
       </c>
       <c r="L2">
-        <v>6.272927444566317</v>
+        <v>14.80142794727659</v>
       </c>
       <c r="M2">
-        <v>10.4821065850085</v>
+        <v>13.60455644869835</v>
       </c>
       <c r="N2">
-        <v>6.97026649808498</v>
+        <v>6.171590215193466</v>
       </c>
       <c r="O2">
-        <v>10.06428804413705</v>
+        <v>10.65883376498212</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.415807070124574</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.16898250451748</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69287148934316</v>
+        <v>11.66520646717772</v>
       </c>
       <c r="C3">
-        <v>6.145213513594746</v>
+        <v>6.024790111464122</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.543800491515151</v>
+        <v>7.726130439856695</v>
       </c>
       <c r="F3">
-        <v>30.35842121590133</v>
+        <v>28.97882235034969</v>
       </c>
       <c r="G3">
-        <v>35.85303499221713</v>
+        <v>32.90663610440625</v>
       </c>
       <c r="H3">
-        <v>4.041217661940158</v>
+        <v>3.808445744511631</v>
       </c>
       <c r="I3">
-        <v>4.624459852492327</v>
+        <v>4.307045679532936</v>
       </c>
       <c r="J3">
-        <v>12.49158592506502</v>
+        <v>11.79783111059158</v>
       </c>
       <c r="K3">
-        <v>20.70621660147812</v>
+        <v>19.20375915437959</v>
       </c>
       <c r="L3">
-        <v>6.216425337611962</v>
+        <v>14.88556387488243</v>
       </c>
       <c r="M3">
-        <v>9.872577202094764</v>
+        <v>13.57250107819673</v>
       </c>
       <c r="N3">
-        <v>6.754764459303002</v>
+        <v>6.100400513909651</v>
       </c>
       <c r="O3">
-        <v>9.662722611733576</v>
+        <v>10.04611724984739</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.185050061547344</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.749322595260699</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.18375722030502</v>
+        <v>11.14427089249224</v>
       </c>
       <c r="C4">
-        <v>5.97043043485533</v>
+        <v>5.807854207875905</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.406979971495022</v>
+        <v>7.593645238499165</v>
       </c>
       <c r="F4">
-        <v>29.91988655936304</v>
+        <v>28.62655975042896</v>
       </c>
       <c r="G4">
-        <v>35.50230383334046</v>
+        <v>32.76803902692551</v>
       </c>
       <c r="H4">
-        <v>4.184136284488307</v>
+        <v>3.940583619078818</v>
       </c>
       <c r="I4">
-        <v>4.73990102989651</v>
+        <v>4.408222786236794</v>
       </c>
       <c r="J4">
-        <v>12.47358240609623</v>
+        <v>11.78013683158517</v>
       </c>
       <c r="K4">
-        <v>20.64928275063831</v>
+        <v>19.21150360022829</v>
       </c>
       <c r="L4">
-        <v>6.180296709275162</v>
+        <v>14.93479944322713</v>
       </c>
       <c r="M4">
-        <v>9.478608348873523</v>
+        <v>13.5673492441106</v>
       </c>
       <c r="N4">
-        <v>6.620262445218643</v>
+        <v>6.055446046281491</v>
       </c>
       <c r="O4">
-        <v>9.409085013429278</v>
+        <v>9.650282194808756</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.041390366931638</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.483781523822737</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.96780700461089</v>
+        <v>10.92266629698917</v>
       </c>
       <c r="C5">
-        <v>5.901443407188153</v>
+        <v>5.721806845743677</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.350901226215914</v>
+        <v>7.53940377515501</v>
       </c>
       <c r="F5">
-        <v>29.72754954468652</v>
+        <v>28.47081060012073</v>
       </c>
       <c r="G5">
-        <v>35.33419621447245</v>
+        <v>32.69040003770382</v>
       </c>
       <c r="H5">
-        <v>4.244027561270534</v>
+        <v>3.995970060189939</v>
       </c>
       <c r="I5">
-        <v>4.790420684910196</v>
+        <v>4.453223496394284</v>
       </c>
       <c r="J5">
-        <v>12.46194943435627</v>
+        <v>11.76854672688837</v>
       </c>
       <c r="K5">
-        <v>20.61596208900805</v>
+        <v>19.20576263034963</v>
       </c>
       <c r="L5">
-        <v>6.165311581818599</v>
+        <v>14.94598156817083</v>
       </c>
       <c r="M5">
-        <v>9.314088924432234</v>
+        <v>13.563486990997</v>
       </c>
       <c r="N5">
-        <v>6.567452801267897</v>
+        <v>6.037113815374203</v>
       </c>
       <c r="O5">
-        <v>9.305351344792566</v>
+        <v>9.484966373743099</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.984689219065264</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.374908181838881</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.92949874439176</v>
+        <v>10.88332642172204</v>
       </c>
       <c r="C6">
-        <v>5.894148997194989</v>
+        <v>5.712382690380131</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.342144498225131</v>
+        <v>7.530922102181843</v>
       </c>
       <c r="F6">
-        <v>29.67976441492001</v>
+        <v>28.4305544184765</v>
       </c>
       <c r="G6">
-        <v>35.27513391242879</v>
+        <v>32.65001038782261</v>
       </c>
       <c r="H6">
-        <v>4.254504737152256</v>
+        <v>4.005654634201755</v>
       </c>
       <c r="I6">
-        <v>4.801846825094499</v>
+        <v>4.464210874680568</v>
       </c>
       <c r="J6">
-        <v>12.45425940092425</v>
+        <v>11.7613383821234</v>
       </c>
       <c r="K6">
-        <v>20.5977355358921</v>
+        <v>19.19379008883832</v>
       </c>
       <c r="L6">
-        <v>6.16293104024395</v>
+        <v>14.93771012160012</v>
       </c>
       <c r="M6">
-        <v>9.287629498105478</v>
+        <v>13.55644299601242</v>
       </c>
       <c r="N6">
-        <v>6.561709402691129</v>
+        <v>6.034423667677389</v>
       </c>
       <c r="O6">
-        <v>9.289596050881038</v>
+        <v>9.458286997626447</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.978027422418467</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.358169412784932</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.17541244733489</v>
+        <v>11.13760699964001</v>
       </c>
       <c r="C7">
-        <v>5.980914668371808</v>
+        <v>5.811651006047046</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.407858469712606</v>
+        <v>7.599813292133881</v>
       </c>
       <c r="F7">
-        <v>29.87449204594841</v>
+        <v>28.56551587318008</v>
       </c>
       <c r="G7">
-        <v>35.41542200411356</v>
+        <v>32.73555325797551</v>
       </c>
       <c r="H7">
-        <v>4.186160349961784</v>
+        <v>3.943018226727009</v>
       </c>
       <c r="I7">
-        <v>4.748438808794699</v>
+        <v>4.418593329735437</v>
       </c>
       <c r="J7">
-        <v>12.45767896596003</v>
+        <v>11.72381948007421</v>
       </c>
       <c r="K7">
-        <v>20.61423098472088</v>
+        <v>19.16692378200888</v>
       </c>
       <c r="L7">
-        <v>6.180486727878515</v>
+        <v>14.89494430994042</v>
       </c>
       <c r="M7">
-        <v>9.479504185238305</v>
+        <v>13.53977607425172</v>
       </c>
       <c r="N7">
-        <v>6.627797682725101</v>
+        <v>6.056834645490141</v>
       </c>
       <c r="O7">
-        <v>9.411895607047436</v>
+        <v>9.648045876773844</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.050492277667647</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.488840106558875</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.20594684280017</v>
+        <v>12.19399341015203</v>
       </c>
       <c r="C8">
-        <v>6.342015776726019</v>
+        <v>6.24078259656744</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.688997040639463</v>
+        <v>7.884282919687938</v>
       </c>
       <c r="F8">
-        <v>30.76856272187044</v>
+        <v>29.23860692899816</v>
       </c>
       <c r="G8">
-        <v>36.11875078913005</v>
+        <v>33.10702554294942</v>
       </c>
       <c r="H8">
-        <v>3.894556634715454</v>
+        <v>3.674661372012279</v>
       </c>
       <c r="I8">
-        <v>4.515083593768665</v>
+        <v>4.216238637025993</v>
       </c>
       <c r="J8">
-        <v>12.49174571628222</v>
+        <v>11.66200510248584</v>
       </c>
       <c r="K8">
-        <v>20.7227578087623</v>
+        <v>19.10984145585357</v>
       </c>
       <c r="L8">
-        <v>6.254426469023429</v>
+        <v>14.75771888100572</v>
       </c>
       <c r="M8">
-        <v>10.2798964308619</v>
+        <v>13.53270338125679</v>
       </c>
       <c r="N8">
-        <v>6.906939567994122</v>
+        <v>6.151113598607685</v>
       </c>
       <c r="O8">
-        <v>9.932608094076535</v>
+        <v>10.44633870010916</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.353844364868623</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.0390845038339</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.09973449846131</v>
+        <v>14.02872196167414</v>
       </c>
       <c r="C9">
-        <v>6.992335715896431</v>
+        <v>7.035462964707271</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.209249237946937</v>
+        <v>8.394186931670236</v>
       </c>
       <c r="F9">
-        <v>32.55812017144984</v>
+        <v>30.67518165490337</v>
       </c>
       <c r="G9">
-        <v>37.64756184206614</v>
+        <v>33.85509739511758</v>
       </c>
       <c r="H9">
-        <v>3.35958249392603</v>
+        <v>3.18108339585327</v>
       </c>
       <c r="I9">
-        <v>4.079556491052798</v>
+        <v>3.835127859764541</v>
       </c>
       <c r="J9">
-        <v>12.60066507859203</v>
+        <v>11.71362116126874</v>
       </c>
       <c r="K9">
-        <v>21.00540879093693</v>
+        <v>19.10821024183008</v>
       </c>
       <c r="L9">
-        <v>6.38712255823685</v>
+        <v>14.56047472666682</v>
       </c>
       <c r="M9">
-        <v>11.68684311405286</v>
+        <v>13.70260443748986</v>
       </c>
       <c r="N9">
-        <v>7.420808109470692</v>
+        <v>6.321678422940873</v>
       </c>
       <c r="O9">
-        <v>10.8859553805672</v>
+        <v>11.86024902899476</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.908709657170404</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.03458615738861</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.33818557603295</v>
+        <v>15.23906000180574</v>
       </c>
       <c r="C10">
-        <v>7.473854813985781</v>
+        <v>7.570646225669361</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.487155627310182</v>
+        <v>8.691935707236921</v>
       </c>
       <c r="F10">
-        <v>33.57248170315138</v>
+        <v>31.36990550017767</v>
       </c>
       <c r="G10">
-        <v>38.4013604011183</v>
+        <v>34.38572010130768</v>
       </c>
       <c r="H10">
-        <v>3.015923364689277</v>
+        <v>2.868684329533673</v>
       </c>
       <c r="I10">
-        <v>3.790494490344854</v>
+        <v>3.587784678206806</v>
       </c>
       <c r="J10">
-        <v>12.61905906552012</v>
+        <v>11.47012484039089</v>
       </c>
       <c r="K10">
-        <v>21.06988520177281</v>
+        <v>18.91748081636239</v>
       </c>
       <c r="L10">
-        <v>6.486545428583476</v>
+        <v>14.25946095764518</v>
       </c>
       <c r="M10">
-        <v>12.63514880815825</v>
+        <v>13.74646684776565</v>
       </c>
       <c r="N10">
-        <v>7.714816327635236</v>
+        <v>6.460466137812607</v>
       </c>
       <c r="O10">
-        <v>11.49730049127582</v>
+        <v>12.79858033798082</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>8.238792780599509</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.68219032711047</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.84238013669889</v>
+        <v>15.77136264919921</v>
       </c>
       <c r="C11">
-        <v>7.904369467192243</v>
+        <v>7.929822110863095</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.909874192906606</v>
+        <v>8.144390010717355</v>
       </c>
       <c r="F11">
-        <v>31.83228089374913</v>
+        <v>29.56913831546802</v>
       </c>
       <c r="G11">
-        <v>35.81535664493109</v>
+        <v>32.63996839956685</v>
       </c>
       <c r="H11">
-        <v>3.681292475580089</v>
+        <v>3.570862834432932</v>
       </c>
       <c r="I11">
-        <v>3.725612079909499</v>
+        <v>3.540957950695301</v>
       </c>
       <c r="J11">
-        <v>12.06373175111369</v>
+        <v>10.61039662387285</v>
       </c>
       <c r="K11">
-        <v>19.92669746156279</v>
+        <v>17.81735326208506</v>
       </c>
       <c r="L11">
-        <v>6.641421816575352</v>
+        <v>13.38713054051662</v>
       </c>
       <c r="M11">
-        <v>13.13840052030596</v>
+        <v>12.97516619509117</v>
       </c>
       <c r="N11">
-        <v>7.239974068198592</v>
+        <v>6.691201416839457</v>
       </c>
       <c r="O11">
-        <v>11.351899926039</v>
+        <v>13.26202707810805</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>7.749692571404442</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.55025517974638</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.02469635773002</v>
+        <v>15.97788546991729</v>
       </c>
       <c r="C12">
-        <v>8.165853054128924</v>
+        <v>8.133322352619482</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.422804551154682</v>
+        <v>7.650614129002308</v>
       </c>
       <c r="F12">
-        <v>30.19878015291656</v>
+        <v>28.01396421851689</v>
       </c>
       <c r="G12">
-        <v>33.59269562758333</v>
+        <v>30.98889293547249</v>
       </c>
       <c r="H12">
-        <v>4.816407167603745</v>
+        <v>4.732817817259708</v>
       </c>
       <c r="I12">
-        <v>3.712720473605864</v>
+        <v>3.531027904767025</v>
       </c>
       <c r="J12">
-        <v>11.62071174890495</v>
+        <v>10.14265635349096</v>
       </c>
       <c r="K12">
-        <v>19.02418252421834</v>
+        <v>17.05672357808046</v>
       </c>
       <c r="L12">
-        <v>6.79526257336599</v>
+        <v>12.82614995373829</v>
       </c>
       <c r="M12">
-        <v>13.36904894079653</v>
+        <v>12.39526311855604</v>
       </c>
       <c r="N12">
-        <v>6.776478482742846</v>
+        <v>6.89128527019392</v>
       </c>
       <c r="O12">
-        <v>11.08984450608182</v>
+        <v>13.46852464537486</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.258087532455392</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.28498105162838</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.96970114321879</v>
+        <v>15.94292445384546</v>
       </c>
       <c r="C13">
-        <v>8.332044933838935</v>
+        <v>8.270949852889837</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.984105614434055</v>
+        <v>7.174780445233327</v>
       </c>
       <c r="F13">
-        <v>28.47031875923819</v>
+        <v>26.52220978176598</v>
       </c>
       <c r="G13">
-        <v>31.38030189197105</v>
+        <v>29.0906505125384</v>
       </c>
       <c r="H13">
-        <v>6.105441029381631</v>
+        <v>6.035368191401839</v>
       </c>
       <c r="I13">
-        <v>3.751959952795682</v>
+        <v>3.563188891886449</v>
       </c>
       <c r="J13">
-        <v>11.21497221397403</v>
+        <v>9.940270537680178</v>
       </c>
       <c r="K13">
-        <v>18.20583262082313</v>
+        <v>16.48827578366348</v>
       </c>
       <c r="L13">
-        <v>6.953794170365573</v>
+        <v>12.43272046954031</v>
       </c>
       <c r="M13">
-        <v>13.41438725244088</v>
+        <v>11.92376527361817</v>
       </c>
       <c r="N13">
-        <v>6.301657903467037</v>
+        <v>7.066709053019481</v>
       </c>
       <c r="O13">
-        <v>10.72177470801174</v>
+        <v>13.5049488834398</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>6.7383333543219</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.89476063997989</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82193346074639</v>
+        <v>15.8077409293117</v>
       </c>
       <c r="C14">
-        <v>8.411619965317405</v>
+        <v>8.343990527964563</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.716256824553871</v>
+        <v>6.87389830483367</v>
       </c>
       <c r="F14">
-        <v>27.20619471903211</v>
+        <v>25.49192609139526</v>
       </c>
       <c r="G14">
-        <v>29.82631142657325</v>
+        <v>27.65811390562557</v>
       </c>
       <c r="H14">
-        <v>7.054687335485593</v>
+        <v>6.989690276240948</v>
       </c>
       <c r="I14">
-        <v>3.80532564758547</v>
+        <v>3.607643068040447</v>
       </c>
       <c r="J14">
-        <v>10.94837770028695</v>
+        <v>9.89077342564156</v>
       </c>
       <c r="K14">
-        <v>17.67544119863012</v>
+        <v>16.17025815164169</v>
       </c>
       <c r="L14">
-        <v>7.071018578711796</v>
+        <v>12.22074548188775</v>
       </c>
       <c r="M14">
-        <v>13.36393955078697</v>
+        <v>11.64347637936797</v>
       </c>
       <c r="N14">
-        <v>5.96948835826187</v>
+        <v>7.179318803411426</v>
       </c>
       <c r="O14">
-        <v>10.41339222446597</v>
+        <v>13.45471168207444</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.368446019206687</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.56221835908158</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73261767988898</v>
+        <v>15.72102757721471</v>
       </c>
       <c r="C15">
-        <v>8.414287382041161</v>
+        <v>8.351702474328814</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.65335418546278</v>
+        <v>6.801456859236857</v>
       </c>
       <c r="F15">
-        <v>26.86598954895218</v>
+        <v>25.23833768044668</v>
       </c>
       <c r="G15">
-        <v>29.42597816424674</v>
+        <v>27.25231624555375</v>
       </c>
       <c r="H15">
-        <v>7.281249221217409</v>
+        <v>7.216249327157033</v>
       </c>
       <c r="I15">
-        <v>3.833703778058298</v>
+        <v>3.63235580434397</v>
       </c>
       <c r="J15">
-        <v>10.88648189464166</v>
+        <v>9.91365927702593</v>
       </c>
       <c r="K15">
-        <v>17.5526995405295</v>
+        <v>16.11645741629959</v>
       </c>
       <c r="L15">
-        <v>7.096113851813605</v>
+        <v>12.18723156486446</v>
       </c>
       <c r="M15">
-        <v>13.31253756828047</v>
+        <v>11.58937283460181</v>
       </c>
       <c r="N15">
-        <v>5.887109957517667</v>
+        <v>7.197522376763694</v>
       </c>
       <c r="O15">
-        <v>10.31717851800166</v>
+        <v>13.40621489042894</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.274391893763514</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.4563243355579</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.23312504220484</v>
+        <v>15.21760603038169</v>
       </c>
       <c r="C16">
-        <v>8.196594751112256</v>
+        <v>8.188008377313178</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.610570780885807</v>
+        <v>6.744109391599117</v>
       </c>
       <c r="F16">
-        <v>26.71381867359997</v>
+        <v>25.32528890180882</v>
       </c>
       <c r="G16">
-        <v>29.4667154331078</v>
+        <v>27.0059808412589</v>
       </c>
       <c r="H16">
-        <v>7.127826360233058</v>
+        <v>7.05135991111327</v>
       </c>
       <c r="I16">
-        <v>3.954137872824787</v>
+        <v>3.733225694005941</v>
       </c>
       <c r="J16">
-        <v>10.9529491867301</v>
+        <v>10.26324063038083</v>
       </c>
       <c r="K16">
-        <v>17.6758916333816</v>
+        <v>16.37862866926485</v>
       </c>
       <c r="L16">
-        <v>7.018311229530233</v>
+        <v>12.39076270451084</v>
       </c>
       <c r="M16">
-        <v>12.92097461145049</v>
+        <v>11.75362923854513</v>
       </c>
       <c r="N16">
-        <v>5.848650503994273</v>
+        <v>7.076268342430751</v>
       </c>
       <c r="O16">
-        <v>10.12117454435035</v>
+        <v>13.03971418465797</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.216107912433142</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.22930906445946</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.92328034828667</v>
+        <v>14.90005762495047</v>
       </c>
       <c r="C17">
-        <v>7.982088129803255</v>
+        <v>8.00586947685092</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.712503038260833</v>
+        <v>6.847323139708278</v>
       </c>
       <c r="F17">
-        <v>27.27615415462597</v>
+        <v>25.92491700668559</v>
       </c>
       <c r="G17">
-        <v>30.32084216956742</v>
+        <v>27.62099619710037</v>
       </c>
       <c r="H17">
-        <v>6.483999849983442</v>
+        <v>6.394002921750476</v>
       </c>
       <c r="I17">
-        <v>4.018937391296889</v>
+        <v>3.7884395165365</v>
       </c>
       <c r="J17">
-        <v>11.14291644569611</v>
+        <v>10.54842054457557</v>
       </c>
       <c r="K17">
-        <v>18.04381073491892</v>
+        <v>16.7381596478765</v>
       </c>
       <c r="L17">
-        <v>6.892826164740357</v>
+        <v>12.66586171399862</v>
       </c>
       <c r="M17">
-        <v>12.6420907900138</v>
+        <v>12.01049910546245</v>
       </c>
       <c r="N17">
-        <v>5.99615705183975</v>
+        <v>6.927112023297101</v>
       </c>
       <c r="O17">
-        <v>10.13913438062888</v>
+        <v>12.77676711773952</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.369233246965356</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.23975248219386</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.75348222259078</v>
+        <v>14.71491798762889</v>
       </c>
       <c r="C18">
-        <v>7.74194183214819</v>
+        <v>7.795497268429913</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.999667443767439</v>
+        <v>7.141740809704906</v>
       </c>
       <c r="F18">
-        <v>28.55667003019244</v>
+        <v>27.10638264110671</v>
       </c>
       <c r="G18">
-        <v>32.05529530139833</v>
+        <v>29.01677499910675</v>
       </c>
       <c r="H18">
-        <v>5.400860273471856</v>
+        <v>5.290935772545425</v>
       </c>
       <c r="I18">
-        <v>4.032335148377188</v>
+        <v>3.797741144179009</v>
       </c>
       <c r="J18">
-        <v>11.47904826608692</v>
+        <v>10.87642657896071</v>
       </c>
       <c r="K18">
-        <v>18.71159536104343</v>
+        <v>17.28653903554387</v>
       </c>
       <c r="L18">
-        <v>6.728019343477842</v>
+        <v>13.08626388152725</v>
       </c>
       <c r="M18">
-        <v>12.43230955251908</v>
+        <v>12.41781274330899</v>
       </c>
       <c r="N18">
-        <v>6.328943216411662</v>
+        <v>6.744146392128121</v>
       </c>
       <c r="O18">
-        <v>10.33980468802516</v>
+        <v>12.58147160487094</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.726640512342845</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.44830306958749</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.70353256863298</v>
+        <v>14.64416740033466</v>
       </c>
       <c r="C19">
-        <v>7.531907237861506</v>
+        <v>7.61443018803545</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.478489989883132</v>
+        <v>7.630983110744298</v>
       </c>
       <c r="F19">
-        <v>30.26414177150957</v>
+        <v>28.63182802126143</v>
       </c>
       <c r="G19">
-        <v>34.27416019718243</v>
+        <v>30.81682284124277</v>
       </c>
       <c r="H19">
-        <v>4.205127741807</v>
+        <v>4.067831917830024</v>
       </c>
       <c r="I19">
-        <v>4.016441821731263</v>
+        <v>3.785732007569852</v>
       </c>
       <c r="J19">
-        <v>11.89642187431708</v>
+        <v>11.22586131752061</v>
       </c>
       <c r="K19">
-        <v>19.55780405661394</v>
+        <v>17.94244609171681</v>
       </c>
       <c r="L19">
-        <v>6.578939011659876</v>
+        <v>13.58901144419876</v>
       </c>
       <c r="M19">
-        <v>12.3032195656919</v>
+        <v>12.91171588685352</v>
       </c>
       <c r="N19">
-        <v>6.813291708844442</v>
+        <v>6.57464369262698</v>
       </c>
       <c r="O19">
-        <v>10.67418096262844</v>
+        <v>12.46576989070974</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.247525172779383</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>10.7998657618699</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.00830681226228</v>
+        <v>14.91249781042234</v>
       </c>
       <c r="C20">
-        <v>7.380945941631562</v>
+        <v>7.493272414630852</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.415680629660121</v>
+        <v>8.597733065984354</v>
       </c>
       <c r="F20">
-        <v>33.17864433352079</v>
+        <v>31.13490963338525</v>
       </c>
       <c r="G20">
-        <v>37.94835270539768</v>
+        <v>33.86286613042468</v>
       </c>
       <c r="H20">
-        <v>3.107938756854328</v>
+        <v>2.950529802921281</v>
       </c>
       <c r="I20">
-        <v>3.891067042351943</v>
+        <v>3.680291823108687</v>
       </c>
       <c r="J20">
-        <v>12.5641311881324</v>
+        <v>11.63011859433245</v>
       </c>
       <c r="K20">
-        <v>20.94461204298049</v>
+        <v>18.92488431893005</v>
       </c>
       <c r="L20">
-        <v>6.463835896081324</v>
+        <v>14.30586700405528</v>
       </c>
       <c r="M20">
-        <v>12.40102864363817</v>
+        <v>13.69929201133556</v>
       </c>
       <c r="N20">
-        <v>7.657431433260233</v>
+        <v>6.426850319607484</v>
       </c>
       <c r="O20">
-        <v>11.34807828584602</v>
+        <v>12.57454252294572</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.162612373736138</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.51510721946955</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.91992296523322</v>
+        <v>15.82496985620694</v>
       </c>
       <c r="C21">
-        <v>7.700751840138381</v>
+        <v>7.727981100336168</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.75551527225138</v>
+        <v>9.048461988244615</v>
       </c>
       <c r="F21">
-        <v>34.35828702543898</v>
+        <v>31.69759370116872</v>
       </c>
       <c r="G21">
-        <v>39.08984180238827</v>
+        <v>35.57348730781693</v>
       </c>
       <c r="H21">
-        <v>2.810350634530094</v>
+        <v>2.685164535271874</v>
       </c>
       <c r="I21">
-        <v>3.661415738876214</v>
+        <v>3.491555788996205</v>
       </c>
       <c r="J21">
-        <v>12.69028245032264</v>
+        <v>10.8464583798461</v>
       </c>
       <c r="K21">
-        <v>21.22413362981293</v>
+        <v>18.70271455497243</v>
       </c>
       <c r="L21">
-        <v>6.524749527274246</v>
+        <v>14.02448117554906</v>
       </c>
       <c r="M21">
-        <v>13.08009330546677</v>
+        <v>13.68505826661185</v>
       </c>
       <c r="N21">
-        <v>7.985028090089877</v>
+        <v>6.526972476122839</v>
       </c>
       <c r="O21">
-        <v>11.87495692403592</v>
+        <v>13.20751554317414</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.565318858851489</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.11190406076516</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.49347163774986</v>
+        <v>16.40198067691825</v>
       </c>
       <c r="C22">
-        <v>7.905441415951316</v>
+        <v>7.87068268809514</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.927725838600992</v>
+        <v>9.30016887645843</v>
       </c>
       <c r="F22">
-        <v>35.03960529433131</v>
+        <v>31.96890690202828</v>
       </c>
       <c r="G22">
-        <v>39.76147647009961</v>
+        <v>36.73206318032894</v>
       </c>
       <c r="H22">
-        <v>2.631070992593201</v>
+        <v>2.526396677546034</v>
       </c>
       <c r="I22">
-        <v>3.507104407789745</v>
+        <v>3.361121613004375</v>
       </c>
       <c r="J22">
-        <v>12.76125621507085</v>
+        <v>10.33233597721226</v>
       </c>
       <c r="K22">
-        <v>21.38199989327175</v>
+        <v>18.52201266563341</v>
       </c>
       <c r="L22">
-        <v>6.566548394498321</v>
+        <v>13.81830098183212</v>
       </c>
       <c r="M22">
-        <v>13.50868205639814</v>
+        <v>13.65398062393364</v>
       </c>
       <c r="N22">
-        <v>8.149782788244874</v>
+        <v>6.598884745757405</v>
       </c>
       <c r="O22">
-        <v>12.18151749629179</v>
+        <v>13.60413069887915</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.779236549435593</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.46397206199559</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1949248430563</v>
+        <v>16.09753231256657</v>
       </c>
       <c r="C23">
-        <v>7.785488575481001</v>
+        <v>7.799038373229124</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.834528349308615</v>
+        <v>9.151355178418221</v>
       </c>
       <c r="F23">
-        <v>34.71996221451165</v>
+        <v>31.90912006542454</v>
       </c>
       <c r="G23">
-        <v>39.49146606482492</v>
+        <v>36.07368690891398</v>
       </c>
       <c r="H23">
-        <v>2.725269737911132</v>
+        <v>2.608905329868682</v>
       </c>
       <c r="I23">
-        <v>3.578990802906824</v>
+        <v>3.41745719650428</v>
       </c>
       <c r="J23">
-        <v>12.74064626914363</v>
+        <v>10.69812959638044</v>
       </c>
       <c r="K23">
-        <v>21.3358022700568</v>
+        <v>18.68513936512512</v>
       </c>
       <c r="L23">
-        <v>6.543338766726205</v>
+        <v>13.97559037737761</v>
       </c>
       <c r="M23">
-        <v>13.27876536664234</v>
+        <v>13.72329105167534</v>
       </c>
       <c r="N23">
-        <v>8.054019884226303</v>
+        <v>6.555692847963111</v>
       </c>
       <c r="O23">
-        <v>12.01490347007963</v>
+        <v>13.3968848778602</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.652494971535196</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.26810746198801</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.00337070639155</v>
+        <v>14.90476832894157</v>
       </c>
       <c r="C24">
-        <v>7.339876818028366</v>
+        <v>7.451564782143912</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.476477192883115</v>
+        <v>8.659143040095586</v>
       </c>
       <c r="F24">
-        <v>33.42612519455172</v>
+        <v>31.36007012226577</v>
       </c>
       <c r="G24">
-        <v>38.33005348721904</v>
+        <v>34.18127951369321</v>
       </c>
       <c r="H24">
-        <v>3.091166026131053</v>
+        <v>2.93393427313696</v>
       </c>
       <c r="I24">
-        <v>3.874416002073962</v>
+        <v>3.660925050764048</v>
       </c>
       <c r="J24">
-        <v>12.63958423201857</v>
+        <v>11.69914756861153</v>
       </c>
       <c r="K24">
-        <v>21.10440213641992</v>
+        <v>19.05654267752184</v>
       </c>
       <c r="L24">
-        <v>6.454657661314248</v>
+        <v>14.40741564706817</v>
       </c>
       <c r="M24">
-        <v>12.37691767693394</v>
+        <v>13.79743093640312</v>
       </c>
       <c r="N24">
-        <v>7.697151116780651</v>
+        <v>6.411662085719155</v>
       </c>
       <c r="O24">
-        <v>11.37189709333209</v>
+        <v>12.55229404135626</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>8.206924918757773</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.54077002587136</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.60432334628724</v>
+        <v>13.547232281137</v>
       </c>
       <c r="C25">
-        <v>6.839177783118604</v>
+        <v>6.858575437376017</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.074430270077086</v>
+        <v>8.254594699137613</v>
       </c>
       <c r="F25">
-        <v>32.00763232984495</v>
+        <v>30.25149164458747</v>
       </c>
       <c r="G25">
-        <v>37.09018803924126</v>
+        <v>33.45731008649604</v>
       </c>
       <c r="H25">
-        <v>3.502216330742699</v>
+        <v>3.311834361562372</v>
       </c>
       <c r="I25">
-        <v>4.207785501948874</v>
+        <v>3.950464493524613</v>
       </c>
       <c r="J25">
-        <v>12.54203080434857</v>
+        <v>11.73293805247088</v>
       </c>
       <c r="K25">
-        <v>20.86750182123366</v>
+        <v>19.0763972694235</v>
       </c>
       <c r="L25">
-        <v>6.353643436450368</v>
+        <v>14.59074638888712</v>
       </c>
       <c r="M25">
-        <v>11.32802909289747</v>
+        <v>13.62143028618696</v>
       </c>
       <c r="N25">
-        <v>7.297759880745812</v>
+        <v>6.278157419162802</v>
       </c>
       <c r="O25">
-        <v>10.64176797051968</v>
+        <v>11.50276463657608</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.770342519361459</v>
       </c>
       <c r="Q25">
+        <v>10.77592287817346</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
